--- a/S&P 500 Addition and Deletion.xlsx
+++ b/S&P 500 Addition and Deletion.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\kaiser\Programing\GitHub\S-P-500-Addition-and-Deletion\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EE723BEC-E680-4851-B3F6-D1E8F922EC5F}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{74937DB9-5A57-49E6-AF01-234BB9BA3849}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="10665" activeTab="2" xr2:uid="{7D67B19E-6548-48C1-93E2-95B2AC05A190}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="10665" activeTab="1" xr2:uid="{7D67B19E-6548-48C1-93E2-95B2AC05A190}"/>
   </bookViews>
   <sheets>
     <sheet name="Changes" sheetId="4" r:id="rId1"/>
@@ -19,7 +19,7 @@
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Changes!$A$1:$J$3</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'SPX Global (1)'!$A$1:$I$675</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'SPX Global (1)'!$A$1:$I$677</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">'SPX Global (2)'!$B$1:$I$154</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5823" uniqueCount="2129">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5837" uniqueCount="2132">
   <si>
     <t>Action</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -7758,6 +7758,18 @@
   </si>
   <si>
     <t>Announce Date</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Four Corners Property Trust</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>FCPT</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://press.spglobal.com/2015-11-02-Four-Corners-Property-Trust-Set-to-Join-the-S-P-SmallCap-600</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -8284,10 +8296,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6A382718-6919-48F9-91E4-682753EF2816}">
-  <dimension ref="A1:I675"/>
+  <dimension ref="A1:I677"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G16" sqref="G16"/>
+      <selection activeCell="F1" sqref="F1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -21219,60 +21231,60 @@
     </row>
     <row r="453" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A453" t="s">
-        <v>34</v>
+        <v>28</v>
       </c>
       <c r="B453" t="s">
-        <v>1294</v>
+        <v>2129</v>
       </c>
       <c r="C453" t="s">
-        <v>94</v>
+        <v>269</v>
       </c>
       <c r="D453" t="s">
-        <v>1295</v>
+        <v>831</v>
       </c>
       <c r="E453" t="s">
-        <v>1296</v>
+        <v>2130</v>
       </c>
       <c r="F453" s="3">
+        <v>42310</v>
+      </c>
+      <c r="G453" s="3">
         <v>42317</v>
-      </c>
-      <c r="G453" s="3">
-        <v>42325</v>
       </c>
       <c r="H453" t="s">
         <v>252</v>
       </c>
       <c r="I453" s="1" t="s">
-        <v>1293</v>
+        <v>2131</v>
       </c>
     </row>
     <row r="454" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A454" t="s">
-        <v>28</v>
+        <v>34</v>
       </c>
       <c r="B454" t="s">
-        <v>1297</v>
+        <v>2129</v>
       </c>
       <c r="C454" t="s">
-        <v>516</v>
+        <v>269</v>
       </c>
       <c r="D454" t="s">
-        <v>762</v>
+        <v>831</v>
       </c>
       <c r="E454" t="s">
-        <v>1298</v>
+        <v>2130</v>
       </c>
       <c r="F454" s="3">
-        <v>42320</v>
+        <v>42310</v>
       </c>
       <c r="G454" s="3">
-        <v>42326</v>
+        <v>42318</v>
       </c>
       <c r="H454" t="s">
         <v>252</v>
       </c>
       <c r="I454" s="1" t="s">
-        <v>1299</v>
+        <v>2131</v>
       </c>
     </row>
     <row r="455" spans="1:9" x14ac:dyDescent="0.25">
@@ -21280,28 +21292,28 @@
         <v>34</v>
       </c>
       <c r="B455" t="s">
-        <v>1300</v>
+        <v>1294</v>
       </c>
       <c r="C455" t="s">
-        <v>433</v>
+        <v>94</v>
       </c>
       <c r="D455" t="s">
-        <v>959</v>
+        <v>1295</v>
       </c>
       <c r="E455" t="s">
-        <v>1301</v>
+        <v>1296</v>
       </c>
       <c r="F455" s="3">
-        <v>42320</v>
+        <v>42317</v>
       </c>
       <c r="G455" s="3">
-        <v>42326</v>
+        <v>42325</v>
       </c>
       <c r="H455" t="s">
         <v>252</v>
       </c>
       <c r="I455" s="1" t="s">
-        <v>1299</v>
+        <v>1293</v>
       </c>
     </row>
     <row r="456" spans="1:9" x14ac:dyDescent="0.25">
@@ -21309,28 +21321,28 @@
         <v>28</v>
       </c>
       <c r="B456" t="s">
-        <v>1302</v>
+        <v>1297</v>
       </c>
       <c r="C456" t="s">
-        <v>544</v>
+        <v>516</v>
       </c>
       <c r="D456" t="s">
-        <v>1090</v>
+        <v>762</v>
       </c>
       <c r="E456" t="s">
-        <v>1303</v>
+        <v>1298</v>
       </c>
       <c r="F456" s="3">
-        <v>42331</v>
+        <v>42320</v>
       </c>
       <c r="G456" s="3">
-        <v>42335</v>
+        <v>42326</v>
       </c>
       <c r="H456" t="s">
         <v>252</v>
       </c>
       <c r="I456" s="1" t="s">
-        <v>1304</v>
+        <v>1299</v>
       </c>
     </row>
     <row r="457" spans="1:9" x14ac:dyDescent="0.25">
@@ -21338,28 +21350,28 @@
         <v>34</v>
       </c>
       <c r="B457" t="s">
-        <v>1305</v>
+        <v>1300</v>
       </c>
       <c r="C457" t="s">
-        <v>544</v>
+        <v>433</v>
       </c>
       <c r="D457" t="s">
-        <v>1090</v>
+        <v>959</v>
       </c>
       <c r="E457" t="s">
-        <v>1306</v>
+        <v>1301</v>
       </c>
       <c r="F457" s="3">
-        <v>42331</v>
+        <v>42320</v>
       </c>
       <c r="G457" s="3">
-        <v>42338</v>
+        <v>42326</v>
       </c>
       <c r="H457" t="s">
         <v>252</v>
       </c>
       <c r="I457" s="1" t="s">
-        <v>1304</v>
+        <v>1299</v>
       </c>
     </row>
     <row r="458" spans="1:9" x14ac:dyDescent="0.25">
@@ -21367,28 +21379,28 @@
         <v>28</v>
       </c>
       <c r="B458" t="s">
-        <v>1307</v>
+        <v>1302</v>
       </c>
       <c r="C458" t="s">
-        <v>924</v>
+        <v>544</v>
       </c>
       <c r="D458" t="s">
-        <v>1308</v>
+        <v>1090</v>
       </c>
       <c r="E458" t="s">
-        <v>1309</v>
+        <v>1303</v>
       </c>
       <c r="F458" s="3">
-        <v>42360</v>
+        <v>42331</v>
       </c>
       <c r="G458" s="3">
-        <v>42366</v>
+        <v>42335</v>
       </c>
       <c r="H458" t="s">
         <v>252</v>
       </c>
       <c r="I458" s="1" t="s">
-        <v>1310</v>
+        <v>1304</v>
       </c>
     </row>
     <row r="459" spans="1:9" x14ac:dyDescent="0.25">
@@ -21396,28 +21408,28 @@
         <v>34</v>
       </c>
       <c r="B459" t="s">
-        <v>1311</v>
+        <v>1305</v>
       </c>
       <c r="C459" t="s">
         <v>544</v>
       </c>
       <c r="D459" t="s">
-        <v>866</v>
+        <v>1090</v>
       </c>
       <c r="E459" t="s">
-        <v>1312</v>
+        <v>1306</v>
       </c>
       <c r="F459" s="3">
-        <v>42360</v>
+        <v>42331</v>
       </c>
       <c r="G459" s="3">
-        <v>42366</v>
+        <v>42338</v>
       </c>
       <c r="H459" t="s">
         <v>252</v>
       </c>
       <c r="I459" s="1" t="s">
-        <v>1310</v>
+        <v>1304</v>
       </c>
     </row>
     <row r="460" spans="1:9" x14ac:dyDescent="0.25">
@@ -21425,28 +21437,28 @@
         <v>28</v>
       </c>
       <c r="B460" t="s">
-        <v>1313</v>
+        <v>1307</v>
       </c>
       <c r="C460" t="s">
-        <v>94</v>
+        <v>924</v>
       </c>
       <c r="D460" t="s">
-        <v>1314</v>
+        <v>1308</v>
       </c>
       <c r="E460" t="s">
-        <v>1315</v>
+        <v>1309</v>
       </c>
       <c r="F460" s="3">
+        <v>42360</v>
+      </c>
+      <c r="G460" s="3">
         <v>42366</v>
-      </c>
-      <c r="G460" s="3">
-        <v>42373</v>
       </c>
       <c r="H460" t="s">
         <v>252</v>
       </c>
       <c r="I460" s="1" t="s">
-        <v>1316</v>
+        <v>1310</v>
       </c>
     </row>
     <row r="461" spans="1:9" x14ac:dyDescent="0.25">
@@ -21454,28 +21466,28 @@
         <v>34</v>
       </c>
       <c r="B461" t="s">
-        <v>1317</v>
+        <v>1311</v>
       </c>
       <c r="C461" t="s">
-        <v>269</v>
+        <v>544</v>
       </c>
       <c r="D461" t="s">
-        <v>1007</v>
+        <v>866</v>
       </c>
       <c r="E461" t="s">
-        <v>915</v>
+        <v>1312</v>
       </c>
       <c r="F461" s="3">
+        <v>42360</v>
+      </c>
+      <c r="G461" s="3">
         <v>42366</v>
-      </c>
-      <c r="G461" s="3">
-        <v>42373</v>
       </c>
       <c r="H461" t="s">
         <v>252</v>
       </c>
       <c r="I461" s="1" t="s">
-        <v>1316</v>
+        <v>1310</v>
       </c>
     </row>
     <row r="462" spans="1:9" x14ac:dyDescent="0.25">
@@ -21483,28 +21495,28 @@
         <v>28</v>
       </c>
       <c r="B462" t="s">
-        <v>1318</v>
+        <v>1313</v>
       </c>
       <c r="C462" t="s">
         <v>94</v>
       </c>
       <c r="D462" t="s">
-        <v>1319</v>
+        <v>1314</v>
       </c>
       <c r="E462" t="s">
-        <v>1320</v>
+        <v>1315</v>
       </c>
       <c r="F462" s="3">
-        <v>42382</v>
+        <v>42366</v>
       </c>
       <c r="G462" s="3">
-        <v>42384</v>
+        <v>42373</v>
       </c>
       <c r="H462" t="s">
         <v>252</v>
       </c>
       <c r="I462" s="1" t="s">
-        <v>1321</v>
+        <v>1316</v>
       </c>
     </row>
     <row r="463" spans="1:9" x14ac:dyDescent="0.25">
@@ -21512,28 +21524,28 @@
         <v>34</v>
       </c>
       <c r="B463" t="s">
-        <v>1322</v>
+        <v>1317</v>
       </c>
       <c r="C463" t="s">
-        <v>94</v>
+        <v>269</v>
       </c>
       <c r="D463" t="s">
-        <v>710</v>
+        <v>1007</v>
       </c>
       <c r="E463" t="s">
-        <v>1323</v>
+        <v>915</v>
       </c>
       <c r="F463" s="3">
-        <v>42382</v>
+        <v>42366</v>
       </c>
       <c r="G463" s="3">
-        <v>42384</v>
+        <v>42373</v>
       </c>
       <c r="H463" t="s">
         <v>252</v>
       </c>
       <c r="I463" s="1" t="s">
-        <v>1321</v>
+        <v>1316</v>
       </c>
     </row>
     <row r="464" spans="1:9" x14ac:dyDescent="0.25">
@@ -21541,28 +21553,28 @@
         <v>28</v>
       </c>
       <c r="B464" t="s">
-        <v>1324</v>
+        <v>1318</v>
       </c>
       <c r="C464" t="s">
         <v>94</v>
       </c>
       <c r="D464" t="s">
-        <v>1017</v>
+        <v>1319</v>
       </c>
       <c r="E464" t="s">
-        <v>1325</v>
+        <v>1320</v>
       </c>
       <c r="F464" s="3">
-        <v>42391</v>
+        <v>42382</v>
       </c>
       <c r="G464" s="3">
-        <v>42398</v>
+        <v>42384</v>
       </c>
       <c r="H464" t="s">
         <v>252</v>
       </c>
       <c r="I464" s="1" t="s">
-        <v>1326</v>
+        <v>1321</v>
       </c>
     </row>
     <row r="465" spans="1:9" x14ac:dyDescent="0.25">
@@ -21570,28 +21582,28 @@
         <v>34</v>
       </c>
       <c r="B465" t="s">
-        <v>1327</v>
+        <v>1322</v>
       </c>
       <c r="C465" t="s">
-        <v>544</v>
+        <v>94</v>
       </c>
       <c r="D465" t="s">
-        <v>866</v>
+        <v>710</v>
       </c>
       <c r="E465" t="s">
-        <v>1328</v>
+        <v>1323</v>
       </c>
       <c r="F465" s="3">
-        <v>42391</v>
+        <v>42382</v>
       </c>
       <c r="G465" s="3">
-        <v>42398</v>
+        <v>42384</v>
       </c>
       <c r="H465" t="s">
         <v>252</v>
       </c>
       <c r="I465" s="1" t="s">
-        <v>1326</v>
+        <v>1321</v>
       </c>
     </row>
     <row r="466" spans="1:9" x14ac:dyDescent="0.25">
@@ -21599,19 +21611,19 @@
         <v>28</v>
       </c>
       <c r="B466" t="s">
-        <v>1329</v>
+        <v>1324</v>
       </c>
       <c r="C466" t="s">
         <v>94</v>
       </c>
       <c r="D466" t="s">
-        <v>859</v>
+        <v>1017</v>
       </c>
       <c r="E466" t="s">
-        <v>1330</v>
+        <v>1325</v>
       </c>
       <c r="F466" s="3">
-        <v>42395</v>
+        <v>42391</v>
       </c>
       <c r="G466" s="3">
         <v>42398</v>
@@ -21620,7 +21632,7 @@
         <v>252</v>
       </c>
       <c r="I466" s="1" t="s">
-        <v>1331</v>
+        <v>1326</v>
       </c>
     </row>
     <row r="467" spans="1:9" x14ac:dyDescent="0.25">
@@ -21628,19 +21640,19 @@
         <v>34</v>
       </c>
       <c r="B467" t="s">
-        <v>1332</v>
+        <v>1327</v>
       </c>
       <c r="C467" t="s">
-        <v>665</v>
+        <v>544</v>
       </c>
       <c r="D467" t="s">
-        <v>956</v>
+        <v>866</v>
       </c>
       <c r="E467" t="s">
-        <v>1333</v>
+        <v>1328</v>
       </c>
       <c r="F467" s="3">
-        <v>42395</v>
+        <v>42391</v>
       </c>
       <c r="G467" s="3">
         <v>42398</v>
@@ -21649,7 +21661,7 @@
         <v>252</v>
       </c>
       <c r="I467" s="1" t="s">
-        <v>1331</v>
+        <v>1326</v>
       </c>
     </row>
     <row r="468" spans="1:9" x14ac:dyDescent="0.25">
@@ -21657,28 +21669,28 @@
         <v>28</v>
       </c>
       <c r="B468" t="s">
-        <v>1334</v>
+        <v>1329</v>
       </c>
       <c r="C468" t="s">
-        <v>728</v>
+        <v>94</v>
       </c>
       <c r="D468" t="s">
-        <v>751</v>
+        <v>859</v>
       </c>
       <c r="E468" t="s">
-        <v>1335</v>
+        <v>1330</v>
       </c>
       <c r="F468" s="3">
-        <v>42416</v>
+        <v>42395</v>
       </c>
       <c r="G468" s="3">
-        <v>42419</v>
+        <v>42398</v>
       </c>
       <c r="H468" t="s">
-        <v>32</v>
+        <v>252</v>
       </c>
       <c r="I468" s="1" t="s">
-        <v>1336</v>
+        <v>1331</v>
       </c>
     </row>
     <row r="469" spans="1:9" x14ac:dyDescent="0.25">
@@ -21686,28 +21698,28 @@
         <v>34</v>
       </c>
       <c r="B469" t="s">
-        <v>1337</v>
+        <v>1332</v>
       </c>
       <c r="C469" t="s">
-        <v>94</v>
+        <v>665</v>
       </c>
       <c r="D469" t="s">
-        <v>1319</v>
+        <v>956</v>
       </c>
       <c r="E469" t="s">
-        <v>1338</v>
+        <v>1333</v>
       </c>
       <c r="F469" s="3">
-        <v>42416</v>
+        <v>42395</v>
       </c>
       <c r="G469" s="3">
-        <v>42419</v>
+        <v>42398</v>
       </c>
       <c r="H469" t="s">
-        <v>32</v>
+        <v>252</v>
       </c>
       <c r="I469" s="1" t="s">
-        <v>1336</v>
+        <v>1331</v>
       </c>
     </row>
     <row r="470" spans="1:9" x14ac:dyDescent="0.25">
@@ -21715,28 +21727,28 @@
         <v>28</v>
       </c>
       <c r="B470" t="s">
-        <v>1339</v>
+        <v>1334</v>
       </c>
       <c r="C470" t="s">
-        <v>352</v>
+        <v>728</v>
       </c>
       <c r="D470" t="s">
-        <v>1340</v>
+        <v>751</v>
       </c>
       <c r="E470" t="s">
-        <v>1341</v>
+        <v>1335</v>
       </c>
       <c r="F470" s="3">
-        <v>42430</v>
+        <v>42416</v>
       </c>
       <c r="G470" s="3">
-        <v>42432</v>
+        <v>42419</v>
       </c>
       <c r="H470" t="s">
-        <v>252</v>
+        <v>32</v>
       </c>
       <c r="I470" s="1" t="s">
-        <v>1342</v>
+        <v>1336</v>
       </c>
     </row>
     <row r="471" spans="1:9" x14ac:dyDescent="0.25">
@@ -21744,28 +21756,28 @@
         <v>34</v>
       </c>
       <c r="B471" t="s">
-        <v>1343</v>
+        <v>1337</v>
       </c>
       <c r="C471" t="s">
-        <v>728</v>
+        <v>94</v>
       </c>
       <c r="D471" t="s">
-        <v>837</v>
+        <v>1319</v>
       </c>
       <c r="E471" t="s">
-        <v>175</v>
+        <v>1338</v>
       </c>
       <c r="F471" s="3">
-        <v>42430</v>
+        <v>42416</v>
       </c>
       <c r="G471" s="3">
-        <v>42432</v>
+        <v>42419</v>
       </c>
       <c r="H471" t="s">
-        <v>252</v>
+        <v>32</v>
       </c>
       <c r="I471" s="1" t="s">
-        <v>1342</v>
+        <v>1336</v>
       </c>
     </row>
     <row r="472" spans="1:9" x14ac:dyDescent="0.25">
@@ -21773,28 +21785,28 @@
         <v>28</v>
       </c>
       <c r="B472" t="s">
-        <v>1344</v>
+        <v>1339</v>
       </c>
       <c r="C472" t="s">
-        <v>94</v>
+        <v>352</v>
       </c>
       <c r="D472" t="s">
-        <v>1112</v>
+        <v>1340</v>
       </c>
       <c r="E472" t="s">
-        <v>1345</v>
+        <v>1341</v>
       </c>
       <c r="F472" s="3">
+        <v>42430</v>
+      </c>
+      <c r="G472" s="3">
         <v>42432</v>
-      </c>
-      <c r="G472" s="3">
-        <v>42433</v>
       </c>
       <c r="H472" t="s">
         <v>252</v>
       </c>
       <c r="I472" s="1" t="s">
-        <v>1346</v>
+        <v>1342</v>
       </c>
     </row>
     <row r="473" spans="1:9" x14ac:dyDescent="0.25">
@@ -21802,28 +21814,28 @@
         <v>34</v>
       </c>
       <c r="B473" t="s">
-        <v>1107</v>
+        <v>1343</v>
       </c>
       <c r="C473" t="s">
-        <v>924</v>
+        <v>728</v>
       </c>
       <c r="D473" t="s">
-        <v>946</v>
+        <v>837</v>
       </c>
       <c r="E473" t="s">
-        <v>1108</v>
+        <v>175</v>
       </c>
       <c r="F473" s="3">
+        <v>42430</v>
+      </c>
+      <c r="G473" s="3">
         <v>42432</v>
-      </c>
-      <c r="G473" s="3">
-        <v>42433</v>
       </c>
       <c r="H473" t="s">
         <v>252</v>
       </c>
       <c r="I473" s="1" t="s">
-        <v>1346</v>
+        <v>1342</v>
       </c>
     </row>
     <row r="474" spans="1:9" x14ac:dyDescent="0.25">
@@ -21831,74 +21843,74 @@
         <v>28</v>
       </c>
       <c r="B474" t="s">
-        <v>1347</v>
+        <v>1344</v>
       </c>
       <c r="C474" t="s">
-        <v>516</v>
+        <v>94</v>
       </c>
       <c r="D474" t="s">
-        <v>807</v>
+        <v>1112</v>
       </c>
       <c r="E474" t="s">
-        <v>1348</v>
+        <v>1345</v>
       </c>
       <c r="F474" s="3">
-        <v>42453</v>
+        <v>42432</v>
       </c>
       <c r="G474" s="3">
-        <v>42458</v>
+        <v>42433</v>
       </c>
       <c r="H474" t="s">
         <v>252</v>
       </c>
       <c r="I474" s="1" t="s">
-        <v>1349</v>
+        <v>1346</v>
       </c>
     </row>
     <row r="475" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A475" t="s">
-        <v>28</v>
+        <v>34</v>
       </c>
       <c r="B475" t="s">
-        <v>1350</v>
+        <v>1107</v>
       </c>
       <c r="C475" t="s">
-        <v>516</v>
+        <v>924</v>
       </c>
       <c r="D475" t="s">
-        <v>1021</v>
+        <v>946</v>
       </c>
       <c r="E475" t="s">
-        <v>1351</v>
+        <v>1108</v>
       </c>
       <c r="F475" s="3">
-        <v>42453</v>
+        <v>42432</v>
       </c>
       <c r="G475" s="3">
-        <v>42458</v>
+        <v>42433</v>
       </c>
       <c r="H475" t="s">
         <v>252</v>
       </c>
       <c r="I475" s="1" t="s">
-        <v>1349</v>
+        <v>1346</v>
       </c>
     </row>
     <row r="476" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A476" t="s">
-        <v>34</v>
+        <v>28</v>
       </c>
       <c r="B476" t="s">
-        <v>351</v>
+        <v>1347</v>
       </c>
       <c r="C476" t="s">
-        <v>352</v>
+        <v>516</v>
       </c>
       <c r="D476" t="s">
-        <v>353</v>
+        <v>807</v>
       </c>
       <c r="E476" t="s">
-        <v>354</v>
+        <v>1348</v>
       </c>
       <c r="F476" s="3">
         <v>42453</v>
@@ -21915,19 +21927,19 @@
     </row>
     <row r="477" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A477" t="s">
-        <v>34</v>
+        <v>28</v>
       </c>
       <c r="B477" t="s">
-        <v>953</v>
+        <v>1350</v>
       </c>
       <c r="C477" t="s">
-        <v>728</v>
+        <v>516</v>
       </c>
       <c r="D477" t="s">
-        <v>703</v>
+        <v>1021</v>
       </c>
       <c r="E477" t="s">
-        <v>238</v>
+        <v>1351</v>
       </c>
       <c r="F477" s="3">
         <v>42453</v>
@@ -21944,31 +21956,31 @@
     </row>
     <row r="478" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A478" t="s">
-        <v>28</v>
+        <v>34</v>
       </c>
       <c r="B478" t="s">
-        <v>1352</v>
+        <v>351</v>
       </c>
       <c r="C478" t="s">
-        <v>269</v>
+        <v>352</v>
       </c>
       <c r="D478" t="s">
-        <v>1098</v>
+        <v>353</v>
       </c>
       <c r="E478" t="s">
-        <v>1353</v>
+        <v>354</v>
       </c>
       <c r="F478" s="3">
-        <v>42457</v>
+        <v>42453</v>
       </c>
       <c r="G478" s="3">
-        <v>42461</v>
+        <v>42458</v>
       </c>
       <c r="H478" t="s">
         <v>252</v>
       </c>
       <c r="I478" s="1" t="s">
-        <v>1354</v>
+        <v>1349</v>
       </c>
     </row>
     <row r="479" spans="1:9" x14ac:dyDescent="0.25">
@@ -21976,28 +21988,28 @@
         <v>34</v>
       </c>
       <c r="B479" t="s">
-        <v>1355</v>
+        <v>953</v>
       </c>
       <c r="C479" t="s">
         <v>728</v>
       </c>
       <c r="D479" t="s">
-        <v>72</v>
+        <v>703</v>
       </c>
       <c r="E479" t="s">
-        <v>1356</v>
+        <v>238</v>
       </c>
       <c r="F479" s="3">
-        <v>42457</v>
+        <v>42453</v>
       </c>
       <c r="G479" s="3">
-        <v>42461</v>
+        <v>42458</v>
       </c>
       <c r="H479" t="s">
         <v>252</v>
       </c>
       <c r="I479" s="1" t="s">
-        <v>1354</v>
+        <v>1349</v>
       </c>
     </row>
     <row r="480" spans="1:9" x14ac:dyDescent="0.25">
@@ -22005,28 +22017,28 @@
         <v>28</v>
       </c>
       <c r="B480" t="s">
-        <v>1357</v>
+        <v>1352</v>
       </c>
       <c r="C480" t="s">
         <v>269</v>
       </c>
       <c r="D480" t="s">
-        <v>790</v>
+        <v>1098</v>
       </c>
       <c r="E480" t="s">
-        <v>1358</v>
+        <v>1353</v>
       </c>
       <c r="F480" s="3">
-        <v>42467</v>
+        <v>42457</v>
       </c>
       <c r="G480" s="3">
-        <v>42475</v>
+        <v>42461</v>
       </c>
       <c r="H480" t="s">
         <v>252</v>
       </c>
       <c r="I480" s="1" t="s">
-        <v>1359</v>
+        <v>1354</v>
       </c>
     </row>
     <row r="481" spans="1:9" x14ac:dyDescent="0.25">
@@ -22034,28 +22046,28 @@
         <v>34</v>
       </c>
       <c r="B481" t="s">
-        <v>1360</v>
+        <v>1355</v>
       </c>
       <c r="C481" t="s">
-        <v>516</v>
+        <v>728</v>
       </c>
       <c r="D481" t="s">
-        <v>1167</v>
+        <v>72</v>
       </c>
       <c r="E481" t="s">
-        <v>1361</v>
+        <v>1356</v>
       </c>
       <c r="F481" s="3">
-        <v>42467</v>
+        <v>42457</v>
       </c>
       <c r="G481" s="3">
-        <v>42475</v>
+        <v>42461</v>
       </c>
       <c r="H481" t="s">
         <v>252</v>
       </c>
       <c r="I481" s="1" t="s">
-        <v>1359</v>
+        <v>1354</v>
       </c>
     </row>
     <row r="482" spans="1:9" x14ac:dyDescent="0.25">
@@ -22063,28 +22075,28 @@
         <v>28</v>
       </c>
       <c r="B482" t="s">
-        <v>1362</v>
+        <v>1357</v>
       </c>
       <c r="C482" t="s">
-        <v>544</v>
+        <v>269</v>
       </c>
       <c r="D482" t="s">
-        <v>26</v>
+        <v>790</v>
       </c>
       <c r="E482" t="s">
-        <v>1363</v>
+        <v>1358</v>
       </c>
       <c r="F482" s="3">
-        <v>42479</v>
+        <v>42467</v>
       </c>
       <c r="G482" s="3">
-        <v>42482</v>
+        <v>42475</v>
       </c>
       <c r="H482" t="s">
         <v>252</v>
       </c>
       <c r="I482" s="1" t="s">
-        <v>1364</v>
+        <v>1359</v>
       </c>
     </row>
     <row r="483" spans="1:9" x14ac:dyDescent="0.25">
@@ -22092,28 +22104,28 @@
         <v>34</v>
       </c>
       <c r="B483" t="s">
-        <v>1365</v>
+        <v>1360</v>
       </c>
       <c r="C483" t="s">
-        <v>269</v>
+        <v>516</v>
       </c>
       <c r="D483" t="s">
-        <v>1366</v>
+        <v>1167</v>
       </c>
       <c r="E483" t="s">
-        <v>1367</v>
+        <v>1361</v>
       </c>
       <c r="F483" s="3">
-        <v>42479</v>
+        <v>42467</v>
       </c>
       <c r="G483" s="3">
-        <v>42482</v>
+        <v>42475</v>
       </c>
       <c r="H483" t="s">
         <v>252</v>
       </c>
       <c r="I483" s="1" t="s">
-        <v>1364</v>
+        <v>1359</v>
       </c>
     </row>
     <row r="484" spans="1:9" x14ac:dyDescent="0.25">
@@ -22121,28 +22133,28 @@
         <v>28</v>
       </c>
       <c r="B484" t="s">
-        <v>1368</v>
+        <v>1362</v>
       </c>
       <c r="C484" t="s">
-        <v>665</v>
+        <v>544</v>
       </c>
       <c r="D484" t="s">
-        <v>700</v>
+        <v>26</v>
       </c>
       <c r="E484" t="s">
-        <v>1369</v>
+        <v>1363</v>
       </c>
       <c r="F484" s="3">
-        <v>42486</v>
+        <v>42479</v>
       </c>
       <c r="G484" s="3">
-        <v>42492</v>
+        <v>42482</v>
       </c>
       <c r="H484" t="s">
         <v>252</v>
       </c>
       <c r="I484" s="1" t="s">
-        <v>1370</v>
+        <v>1364</v>
       </c>
     </row>
     <row r="485" spans="1:9" x14ac:dyDescent="0.25">
@@ -22150,28 +22162,28 @@
         <v>34</v>
       </c>
       <c r="B485" t="s">
-        <v>1371</v>
+        <v>1365</v>
       </c>
       <c r="C485" t="s">
-        <v>665</v>
+        <v>269</v>
       </c>
       <c r="D485" t="s">
-        <v>1372</v>
+        <v>1366</v>
       </c>
       <c r="E485" t="s">
-        <v>1373</v>
+        <v>1367</v>
       </c>
       <c r="F485" s="3">
-        <v>42486</v>
+        <v>42479</v>
       </c>
       <c r="G485" s="3">
-        <v>42492</v>
+        <v>42482</v>
       </c>
       <c r="H485" t="s">
         <v>252</v>
       </c>
       <c r="I485" s="1" t="s">
-        <v>1370</v>
+        <v>1364</v>
       </c>
     </row>
     <row r="486" spans="1:9" x14ac:dyDescent="0.25">
@@ -22179,28 +22191,28 @@
         <v>28</v>
       </c>
       <c r="B486" t="s">
-        <v>1374</v>
+        <v>1368</v>
       </c>
       <c r="C486" t="s">
         <v>665</v>
       </c>
       <c r="D486" t="s">
-        <v>1051</v>
+        <v>700</v>
       </c>
       <c r="E486" t="s">
-        <v>1375</v>
+        <v>1369</v>
       </c>
       <c r="F486" s="3">
-        <v>42500</v>
+        <v>42486</v>
       </c>
       <c r="G486" s="3">
-        <v>42502</v>
+        <v>42492</v>
       </c>
       <c r="H486" t="s">
         <v>252</v>
       </c>
       <c r="I486" s="1" t="s">
-        <v>1376</v>
+        <v>1370</v>
       </c>
     </row>
     <row r="487" spans="1:9" x14ac:dyDescent="0.25">
@@ -22208,28 +22220,28 @@
         <v>34</v>
       </c>
       <c r="B487" t="s">
-        <v>1377</v>
+        <v>1371</v>
       </c>
       <c r="C487" t="s">
-        <v>544</v>
+        <v>665</v>
       </c>
       <c r="D487" t="s">
-        <v>1285</v>
+        <v>1372</v>
       </c>
       <c r="E487" t="s">
-        <v>162</v>
+        <v>1373</v>
       </c>
       <c r="F487" s="3">
-        <v>42500</v>
+        <v>42486</v>
       </c>
       <c r="G487" s="3">
-        <v>42502</v>
+        <v>42492</v>
       </c>
       <c r="H487" t="s">
         <v>252</v>
       </c>
       <c r="I487" s="1" t="s">
-        <v>1376</v>
+        <v>1370</v>
       </c>
     </row>
     <row r="488" spans="1:9" x14ac:dyDescent="0.25">
@@ -22237,28 +22249,28 @@
         <v>28</v>
       </c>
       <c r="B488" t="s">
-        <v>1378</v>
+        <v>1374</v>
       </c>
       <c r="C488" t="s">
-        <v>94</v>
+        <v>665</v>
       </c>
       <c r="D488" t="s">
-        <v>1319</v>
+        <v>1051</v>
       </c>
       <c r="E488" t="s">
-        <v>1379</v>
+        <v>1375</v>
       </c>
       <c r="F488" s="3">
-        <v>42503</v>
+        <v>42500</v>
       </c>
       <c r="G488" s="3">
-        <v>42507</v>
+        <v>42502</v>
       </c>
       <c r="H488" t="s">
         <v>252</v>
       </c>
       <c r="I488" s="1" t="s">
-        <v>1380</v>
+        <v>1376</v>
       </c>
     </row>
     <row r="489" spans="1:9" x14ac:dyDescent="0.25">
@@ -22266,28 +22278,28 @@
         <v>34</v>
       </c>
       <c r="B489" t="s">
-        <v>1381</v>
+        <v>1377</v>
       </c>
       <c r="C489" t="s">
-        <v>269</v>
+        <v>544</v>
       </c>
       <c r="D489" t="s">
-        <v>772</v>
+        <v>1285</v>
       </c>
       <c r="E489" t="s">
-        <v>1382</v>
+        <v>162</v>
       </c>
       <c r="F489" s="3">
-        <v>42503</v>
+        <v>42500</v>
       </c>
       <c r="G489" s="3">
-        <v>42507</v>
+        <v>42502</v>
       </c>
       <c r="H489" t="s">
         <v>252</v>
       </c>
       <c r="I489" s="1" t="s">
-        <v>1380</v>
+        <v>1376</v>
       </c>
     </row>
     <row r="490" spans="1:9" x14ac:dyDescent="0.25">
@@ -22295,28 +22307,28 @@
         <v>28</v>
       </c>
       <c r="B490" t="s">
-        <v>1383</v>
+        <v>1378</v>
       </c>
       <c r="C490" t="s">
-        <v>269</v>
+        <v>94</v>
       </c>
       <c r="D490" t="s">
-        <v>1384</v>
+        <v>1319</v>
       </c>
       <c r="E490" t="s">
-        <v>1385</v>
+        <v>1379</v>
       </c>
       <c r="F490" s="3">
-        <v>42508</v>
+        <v>42503</v>
       </c>
       <c r="G490" s="3">
-        <v>42510</v>
+        <v>42507</v>
       </c>
       <c r="H490" t="s">
         <v>252</v>
       </c>
       <c r="I490" s="1" t="s">
-        <v>1386</v>
+        <v>1380</v>
       </c>
     </row>
     <row r="491" spans="1:9" x14ac:dyDescent="0.25">
@@ -22324,28 +22336,28 @@
         <v>34</v>
       </c>
       <c r="B491" t="s">
-        <v>1387</v>
+        <v>1381</v>
       </c>
       <c r="C491" t="s">
-        <v>433</v>
+        <v>269</v>
       </c>
       <c r="D491" t="s">
-        <v>1388</v>
+        <v>772</v>
       </c>
       <c r="E491" t="s">
-        <v>662</v>
+        <v>1382</v>
       </c>
       <c r="F491" s="3">
-        <v>42508</v>
+        <v>42503</v>
       </c>
       <c r="G491" s="3">
-        <v>42510</v>
+        <v>42507</v>
       </c>
       <c r="H491" t="s">
         <v>252</v>
       </c>
       <c r="I491" s="1" t="s">
-        <v>1386</v>
+        <v>1380</v>
       </c>
     </row>
     <row r="492" spans="1:9" x14ac:dyDescent="0.25">
@@ -22353,28 +22365,28 @@
         <v>28</v>
       </c>
       <c r="B492" t="s">
-        <v>1389</v>
+        <v>1383</v>
       </c>
       <c r="C492" t="s">
-        <v>94</v>
+        <v>269</v>
       </c>
       <c r="D492" t="s">
-        <v>1314</v>
+        <v>1384</v>
       </c>
       <c r="E492" t="s">
-        <v>1390</v>
+        <v>1385</v>
       </c>
       <c r="F492" s="3">
-        <v>42514</v>
+        <v>42508</v>
       </c>
       <c r="G492" s="3">
-        <v>42517</v>
+        <v>42510</v>
       </c>
       <c r="H492" t="s">
         <v>252</v>
       </c>
       <c r="I492" s="1" t="s">
-        <v>1391</v>
+        <v>1386</v>
       </c>
     </row>
     <row r="493" spans="1:9" x14ac:dyDescent="0.25">
@@ -22382,28 +22394,28 @@
         <v>34</v>
       </c>
       <c r="B493" t="s">
-        <v>1392</v>
+        <v>1387</v>
       </c>
       <c r="C493" t="s">
-        <v>924</v>
+        <v>433</v>
       </c>
       <c r="D493" t="s">
-        <v>942</v>
+        <v>1388</v>
       </c>
       <c r="E493" t="s">
-        <v>1393</v>
+        <v>662</v>
       </c>
       <c r="F493" s="3">
-        <v>42514</v>
+        <v>42508</v>
       </c>
       <c r="G493" s="3">
-        <v>42517</v>
+        <v>42510</v>
       </c>
       <c r="H493" t="s">
         <v>252</v>
       </c>
       <c r="I493" s="1" t="s">
-        <v>1391</v>
+        <v>1386</v>
       </c>
     </row>
     <row r="494" spans="1:9" x14ac:dyDescent="0.25">
@@ -22411,28 +22423,28 @@
         <v>28</v>
       </c>
       <c r="B494" t="s">
-        <v>1394</v>
+        <v>1389</v>
       </c>
       <c r="C494" t="s">
-        <v>665</v>
+        <v>94</v>
       </c>
       <c r="D494" t="s">
-        <v>956</v>
+        <v>1314</v>
       </c>
       <c r="E494" t="s">
-        <v>1395</v>
+        <v>1390</v>
       </c>
       <c r="F494" s="3">
+        <v>42514</v>
+      </c>
+      <c r="G494" s="3">
         <v>42517</v>
-      </c>
-      <c r="G494" s="3">
-        <v>42523</v>
       </c>
       <c r="H494" t="s">
         <v>252</v>
       </c>
       <c r="I494" s="1" t="s">
-        <v>1396</v>
+        <v>1391</v>
       </c>
     </row>
     <row r="495" spans="1:9" x14ac:dyDescent="0.25">
@@ -22440,28 +22452,28 @@
         <v>34</v>
       </c>
       <c r="B495" t="s">
-        <v>1232</v>
+        <v>1392</v>
       </c>
       <c r="C495" t="s">
-        <v>1397</v>
+        <v>924</v>
       </c>
       <c r="D495" t="s">
-        <v>205</v>
+        <v>942</v>
       </c>
       <c r="E495" t="s">
-        <v>1398</v>
+        <v>1393</v>
       </c>
       <c r="F495" s="3">
+        <v>42514</v>
+      </c>
+      <c r="G495" s="3">
         <v>42517</v>
-      </c>
-      <c r="G495" s="3">
-        <v>42523</v>
       </c>
       <c r="H495" t="s">
         <v>252</v>
       </c>
       <c r="I495" s="1" t="s">
-        <v>1396</v>
+        <v>1391</v>
       </c>
     </row>
     <row r="496" spans="1:9" x14ac:dyDescent="0.25">
@@ -22469,28 +22481,28 @@
         <v>28</v>
       </c>
       <c r="B496" t="s">
-        <v>1399</v>
+        <v>1394</v>
       </c>
       <c r="C496" t="s">
         <v>665</v>
       </c>
       <c r="D496" t="s">
-        <v>1077</v>
+        <v>956</v>
       </c>
       <c r="E496" t="s">
-        <v>1400</v>
+        <v>1395</v>
       </c>
       <c r="F496" s="3">
-        <v>42542</v>
+        <v>42517</v>
       </c>
       <c r="G496" s="3">
-        <v>42544</v>
+        <v>42523</v>
       </c>
       <c r="H496" t="s">
         <v>252</v>
       </c>
       <c r="I496" s="1" t="s">
-        <v>1401</v>
+        <v>1396</v>
       </c>
     </row>
     <row r="497" spans="1:9" x14ac:dyDescent="0.25">
@@ -22498,28 +22510,28 @@
         <v>34</v>
       </c>
       <c r="B497" t="s">
-        <v>1402</v>
+        <v>1232</v>
       </c>
       <c r="C497" t="s">
-        <v>269</v>
+        <v>1397</v>
       </c>
       <c r="D497" t="s">
-        <v>772</v>
+        <v>205</v>
       </c>
       <c r="E497" t="s">
-        <v>773</v>
+        <v>1398</v>
       </c>
       <c r="F497" s="3">
-        <v>42542</v>
+        <v>42517</v>
       </c>
       <c r="G497" s="3">
-        <v>42544</v>
+        <v>42523</v>
       </c>
       <c r="H497" t="s">
         <v>252</v>
       </c>
       <c r="I497" s="1" t="s">
-        <v>1401</v>
+        <v>1396</v>
       </c>
     </row>
     <row r="498" spans="1:9" x14ac:dyDescent="0.25">
@@ -22527,28 +22539,28 @@
         <v>28</v>
       </c>
       <c r="B498" t="s">
-        <v>1406</v>
+        <v>1399</v>
       </c>
       <c r="C498" t="s">
-        <v>433</v>
+        <v>665</v>
       </c>
       <c r="D498" t="s">
-        <v>959</v>
+        <v>1077</v>
       </c>
       <c r="E498" t="s">
-        <v>1407</v>
+        <v>1400</v>
       </c>
       <c r="F498" s="3">
+        <v>42542</v>
+      </c>
+      <c r="G498" s="3">
         <v>42544</v>
-      </c>
-      <c r="G498" s="3">
-        <v>42551</v>
       </c>
       <c r="H498" t="s">
         <v>252</v>
       </c>
       <c r="I498" s="1" t="s">
-        <v>1408</v>
+        <v>1401</v>
       </c>
     </row>
     <row r="499" spans="1:9" x14ac:dyDescent="0.25">
@@ -22556,28 +22568,28 @@
         <v>34</v>
       </c>
       <c r="B499" t="s">
-        <v>1409</v>
+        <v>1402</v>
       </c>
       <c r="C499" t="s">
-        <v>352</v>
+        <v>269</v>
       </c>
       <c r="D499" t="s">
-        <v>1241</v>
+        <v>772</v>
       </c>
       <c r="E499" t="s">
-        <v>1410</v>
+        <v>773</v>
       </c>
       <c r="F499" s="3">
+        <v>42542</v>
+      </c>
+      <c r="G499" s="3">
         <v>42544</v>
-      </c>
-      <c r="G499" s="3">
-        <v>42551</v>
       </c>
       <c r="H499" t="s">
         <v>252</v>
       </c>
       <c r="I499" s="1" t="s">
-        <v>1408</v>
+        <v>1401</v>
       </c>
     </row>
     <row r="500" spans="1:9" x14ac:dyDescent="0.25">
@@ -22585,22 +22597,22 @@
         <v>28</v>
       </c>
       <c r="B500" t="s">
-        <v>1411</v>
+        <v>1406</v>
       </c>
       <c r="C500" t="s">
-        <v>665</v>
+        <v>433</v>
       </c>
       <c r="D500" t="s">
-        <v>765</v>
+        <v>959</v>
       </c>
       <c r="E500" t="s">
-        <v>1412</v>
+        <v>1407</v>
       </c>
       <c r="F500" s="3">
         <v>42544</v>
       </c>
       <c r="G500" s="3">
-        <v>42552</v>
+        <v>42551</v>
       </c>
       <c r="H500" t="s">
         <v>252</v>
@@ -22614,22 +22626,22 @@
         <v>34</v>
       </c>
       <c r="B501" t="s">
-        <v>1413</v>
+        <v>1409</v>
       </c>
       <c r="C501" t="s">
-        <v>728</v>
+        <v>352</v>
       </c>
       <c r="D501" t="s">
-        <v>936</v>
+        <v>1241</v>
       </c>
       <c r="E501" t="s">
-        <v>1414</v>
+        <v>1410</v>
       </c>
       <c r="F501" s="3">
         <v>42544</v>
       </c>
       <c r="G501" s="3">
-        <v>42556</v>
+        <v>42551</v>
       </c>
       <c r="H501" t="s">
         <v>252</v>
@@ -22643,28 +22655,28 @@
         <v>28</v>
       </c>
       <c r="B502" t="s">
-        <v>1403</v>
+        <v>1411</v>
       </c>
       <c r="C502" t="s">
-        <v>352</v>
+        <v>665</v>
       </c>
       <c r="D502" t="s">
-        <v>353</v>
+        <v>765</v>
       </c>
       <c r="E502" t="s">
-        <v>1404</v>
+        <v>1412</v>
       </c>
       <c r="F502" s="3">
-        <v>42550</v>
+        <v>42544</v>
       </c>
       <c r="G502" s="3">
-        <v>42551</v>
+        <v>42552</v>
       </c>
       <c r="H502" t="s">
         <v>252</v>
       </c>
       <c r="I502" s="1" t="s">
-        <v>1405</v>
+        <v>1408</v>
       </c>
     </row>
     <row r="503" spans="1:9" x14ac:dyDescent="0.25">
@@ -22672,28 +22684,28 @@
         <v>34</v>
       </c>
       <c r="B503" t="s">
-        <v>876</v>
+        <v>1413</v>
       </c>
       <c r="C503" t="s">
-        <v>352</v>
+        <v>728</v>
       </c>
       <c r="D503" t="s">
-        <v>757</v>
+        <v>936</v>
       </c>
       <c r="E503" t="s">
-        <v>880</v>
+        <v>1414</v>
       </c>
       <c r="F503" s="3">
-        <v>42550</v>
+        <v>42544</v>
       </c>
       <c r="G503" s="3">
-        <v>42551</v>
+        <v>42556</v>
       </c>
       <c r="H503" t="s">
         <v>252</v>
       </c>
       <c r="I503" s="1" t="s">
-        <v>1405</v>
+        <v>1408</v>
       </c>
     </row>
     <row r="504" spans="1:9" x14ac:dyDescent="0.25">
@@ -22701,28 +22713,28 @@
         <v>28</v>
       </c>
       <c r="B504" t="s">
-        <v>1415</v>
+        <v>1403</v>
       </c>
       <c r="C504" t="s">
-        <v>1397</v>
+        <v>352</v>
       </c>
       <c r="D504" t="s">
-        <v>1416</v>
+        <v>353</v>
       </c>
       <c r="E504" t="s">
-        <v>1417</v>
+        <v>1404</v>
       </c>
       <c r="F504" s="3">
-        <v>42607</v>
+        <v>42550</v>
       </c>
       <c r="G504" s="3">
-        <v>42615</v>
+        <v>42551</v>
       </c>
       <c r="H504" t="s">
         <v>252</v>
       </c>
       <c r="I504" s="1" t="s">
-        <v>1418</v>
+        <v>1405</v>
       </c>
     </row>
     <row r="505" spans="1:9" x14ac:dyDescent="0.25">
@@ -22730,57 +22742,57 @@
         <v>34</v>
       </c>
       <c r="B505" t="s">
-        <v>1419</v>
+        <v>876</v>
       </c>
       <c r="C505" t="s">
-        <v>269</v>
+        <v>352</v>
       </c>
       <c r="D505" t="s">
-        <v>882</v>
+        <v>757</v>
       </c>
       <c r="E505" t="s">
-        <v>1420</v>
+        <v>880</v>
       </c>
       <c r="F505" s="3">
-        <v>42607</v>
+        <v>42550</v>
       </c>
       <c r="G505" s="3">
-        <v>42615</v>
+        <v>42551</v>
       </c>
       <c r="H505" t="s">
         <v>252</v>
       </c>
       <c r="I505" s="1" t="s">
-        <v>1418</v>
+        <v>1405</v>
       </c>
     </row>
     <row r="506" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A506" t="s">
-        <v>8</v>
+        <v>28</v>
       </c>
       <c r="B506" t="s">
-        <v>1421</v>
+        <v>1415</v>
       </c>
       <c r="C506" t="s">
-        <v>10</v>
+        <v>1397</v>
       </c>
       <c r="D506" t="s">
-        <v>1422</v>
+        <v>1416</v>
       </c>
       <c r="E506" t="s">
-        <v>1423</v>
+        <v>1417</v>
       </c>
       <c r="F506" s="3">
-        <v>42613</v>
+        <v>42607</v>
       </c>
       <c r="G506" s="3">
-        <v>42620</v>
+        <v>42615</v>
       </c>
       <c r="H506" t="s">
         <v>252</v>
       </c>
       <c r="I506" s="1" t="s">
-        <v>1424</v>
+        <v>1418</v>
       </c>
     </row>
     <row r="507" spans="1:9" x14ac:dyDescent="0.25">
@@ -22788,57 +22800,57 @@
         <v>34</v>
       </c>
       <c r="B507" t="s">
-        <v>1425</v>
+        <v>1419</v>
       </c>
       <c r="C507" t="s">
-        <v>17</v>
+        <v>269</v>
       </c>
       <c r="D507" t="s">
-        <v>1426</v>
+        <v>882</v>
       </c>
       <c r="E507" t="s">
-        <v>1425</v>
+        <v>1420</v>
       </c>
       <c r="F507" s="3">
-        <v>42613</v>
+        <v>42607</v>
       </c>
       <c r="G507" s="3">
-        <v>42620</v>
+        <v>42615</v>
       </c>
       <c r="H507" t="s">
         <v>252</v>
       </c>
       <c r="I507" s="1" t="s">
-        <v>1424</v>
+        <v>1418</v>
       </c>
     </row>
     <row r="508" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A508" t="s">
-        <v>28</v>
+        <v>8</v>
       </c>
       <c r="B508" t="s">
-        <v>1427</v>
+        <v>1421</v>
       </c>
       <c r="C508" t="s">
-        <v>516</v>
+        <v>10</v>
       </c>
       <c r="D508" t="s">
-        <v>1428</v>
+        <v>1422</v>
       </c>
       <c r="E508" t="s">
-        <v>1429</v>
+        <v>1423</v>
       </c>
       <c r="F508" s="3">
-        <v>42633</v>
+        <v>42613</v>
       </c>
       <c r="G508" s="3">
-        <v>42635</v>
+        <v>42620</v>
       </c>
       <c r="H508" t="s">
         <v>252</v>
       </c>
       <c r="I508" s="1" t="s">
-        <v>1430</v>
+        <v>1424</v>
       </c>
     </row>
     <row r="509" spans="1:9" x14ac:dyDescent="0.25">
@@ -22846,28 +22858,28 @@
         <v>34</v>
       </c>
       <c r="B509" t="s">
-        <v>1431</v>
+        <v>1425</v>
       </c>
       <c r="C509" t="s">
-        <v>269</v>
+        <v>17</v>
       </c>
       <c r="D509" t="s">
-        <v>1432</v>
+        <v>1426</v>
       </c>
       <c r="E509" t="s">
-        <v>1433</v>
+        <v>1425</v>
       </c>
       <c r="F509" s="3">
-        <v>42633</v>
+        <v>42613</v>
       </c>
       <c r="G509" s="3">
-        <v>42635</v>
+        <v>42620</v>
       </c>
       <c r="H509" t="s">
         <v>252</v>
       </c>
       <c r="I509" s="1" t="s">
-        <v>1430</v>
+        <v>1424</v>
       </c>
     </row>
     <row r="510" spans="1:9" x14ac:dyDescent="0.25">
@@ -22875,28 +22887,28 @@
         <v>28</v>
       </c>
       <c r="B510" t="s">
-        <v>1434</v>
+        <v>1427</v>
       </c>
       <c r="C510" t="s">
-        <v>924</v>
+        <v>516</v>
       </c>
       <c r="D510" t="s">
-        <v>1215</v>
+        <v>1428</v>
       </c>
       <c r="E510" t="s">
-        <v>1435</v>
+        <v>1429</v>
       </c>
       <c r="F510" s="3">
-        <v>42640</v>
+        <v>42633</v>
       </c>
       <c r="G510" s="3">
-        <v>42643</v>
+        <v>42635</v>
       </c>
       <c r="H510" t="s">
         <v>252</v>
       </c>
       <c r="I510" s="1" t="s">
-        <v>1436</v>
+        <v>1430</v>
       </c>
     </row>
     <row r="511" spans="1:9" x14ac:dyDescent="0.25">
@@ -22904,28 +22916,28 @@
         <v>34</v>
       </c>
       <c r="B511" t="s">
-        <v>1437</v>
+        <v>1431</v>
       </c>
       <c r="C511" t="s">
-        <v>728</v>
+        <v>269</v>
       </c>
       <c r="D511" t="s">
-        <v>703</v>
+        <v>1432</v>
       </c>
       <c r="E511" t="s">
-        <v>1438</v>
+        <v>1433</v>
       </c>
       <c r="F511" s="3">
-        <v>42640</v>
+        <v>42633</v>
       </c>
       <c r="G511" s="3">
-        <v>42643</v>
+        <v>42635</v>
       </c>
       <c r="H511" t="s">
         <v>252</v>
       </c>
       <c r="I511" s="1" t="s">
-        <v>1436</v>
+        <v>1430</v>
       </c>
     </row>
     <row r="512" spans="1:9" x14ac:dyDescent="0.25">
@@ -22933,74 +22945,74 @@
         <v>28</v>
       </c>
       <c r="B512" t="s">
-        <v>1439</v>
+        <v>1434</v>
       </c>
       <c r="C512" t="s">
-        <v>1440</v>
+        <v>924</v>
       </c>
       <c r="D512" t="s">
-        <v>1112</v>
+        <v>1215</v>
       </c>
       <c r="E512" t="s">
-        <v>1441</v>
+        <v>1435</v>
       </c>
       <c r="F512" s="3">
-        <v>42703</v>
+        <v>42640</v>
       </c>
       <c r="G512" s="3">
-        <v>42705</v>
+        <v>42643</v>
       </c>
       <c r="H512" t="s">
         <v>252</v>
       </c>
       <c r="I512" s="1" t="s">
-        <v>1442</v>
+        <v>1436</v>
       </c>
     </row>
     <row r="513" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A513" t="s">
-        <v>28</v>
+        <v>34</v>
       </c>
       <c r="B513" t="s">
-        <v>1443</v>
+        <v>1437</v>
       </c>
       <c r="C513" t="s">
-        <v>516</v>
+        <v>728</v>
       </c>
       <c r="D513" t="s">
-        <v>918</v>
+        <v>703</v>
       </c>
       <c r="E513" t="s">
-        <v>1444</v>
+        <v>1438</v>
       </c>
       <c r="F513" s="3">
-        <v>42703</v>
+        <v>42640</v>
       </c>
       <c r="G513" s="3">
-        <v>42705</v>
+        <v>42643</v>
       </c>
       <c r="H513" t="s">
         <v>252</v>
       </c>
       <c r="I513" s="1" t="s">
-        <v>1442</v>
+        <v>1436</v>
       </c>
     </row>
     <row r="514" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A514" t="s">
-        <v>34</v>
+        <v>28</v>
       </c>
       <c r="B514" t="s">
-        <v>1445</v>
+        <v>1439</v>
       </c>
       <c r="C514" t="s">
-        <v>433</v>
+        <v>1440</v>
       </c>
       <c r="D514" t="s">
-        <v>769</v>
+        <v>1112</v>
       </c>
       <c r="E514" t="s">
-        <v>561</v>
+        <v>1441</v>
       </c>
       <c r="F514" s="3">
         <v>42703</v>
@@ -23017,19 +23029,19 @@
     </row>
     <row r="515" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A515" t="s">
-        <v>34</v>
+        <v>28</v>
       </c>
       <c r="B515" t="s">
-        <v>1446</v>
+        <v>1443</v>
       </c>
       <c r="C515" t="s">
-        <v>94</v>
+        <v>516</v>
       </c>
       <c r="D515" t="s">
-        <v>95</v>
+        <v>918</v>
       </c>
       <c r="E515" t="s">
-        <v>156</v>
+        <v>1444</v>
       </c>
       <c r="F515" s="3">
         <v>42703</v>
@@ -23046,31 +23058,31 @@
     </row>
     <row r="516" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A516" t="s">
-        <v>28</v>
+        <v>34</v>
       </c>
       <c r="B516" t="s">
-        <v>1447</v>
+        <v>1445</v>
       </c>
       <c r="C516" t="s">
-        <v>516</v>
+        <v>433</v>
       </c>
       <c r="D516" t="s">
-        <v>807</v>
+        <v>769</v>
       </c>
       <c r="E516" t="s">
-        <v>1448</v>
+        <v>561</v>
       </c>
       <c r="F516" s="3">
-        <v>42738</v>
+        <v>42703</v>
       </c>
       <c r="G516" s="3">
-        <v>42739</v>
+        <v>42705</v>
       </c>
       <c r="H516" t="s">
         <v>252</v>
       </c>
       <c r="I516" s="1" t="s">
-        <v>1449</v>
+        <v>1442</v>
       </c>
     </row>
     <row r="517" spans="1:9" x14ac:dyDescent="0.25">
@@ -23078,28 +23090,28 @@
         <v>34</v>
       </c>
       <c r="B517" t="s">
-        <v>1450</v>
+        <v>1446</v>
       </c>
       <c r="C517" t="s">
-        <v>516</v>
+        <v>94</v>
       </c>
       <c r="D517" t="s">
-        <v>807</v>
+        <v>95</v>
       </c>
       <c r="E517" t="s">
-        <v>1451</v>
+        <v>156</v>
       </c>
       <c r="F517" s="3">
-        <v>42738</v>
+        <v>42703</v>
       </c>
       <c r="G517" s="3">
-        <v>42739</v>
+        <v>42705</v>
       </c>
       <c r="H517" t="s">
         <v>252</v>
       </c>
       <c r="I517" s="1" t="s">
-        <v>1449</v>
+        <v>1442</v>
       </c>
     </row>
     <row r="518" spans="1:9" x14ac:dyDescent="0.25">
@@ -23107,28 +23119,28 @@
         <v>28</v>
       </c>
       <c r="B518" t="s">
-        <v>1452</v>
+        <v>1447</v>
       </c>
       <c r="C518" t="s">
         <v>516</v>
       </c>
       <c r="D518" t="s">
-        <v>205</v>
+        <v>807</v>
       </c>
       <c r="E518" t="s">
-        <v>1453</v>
+        <v>1448</v>
       </c>
       <c r="F518" s="3">
-        <v>42789</v>
+        <v>42738</v>
       </c>
       <c r="G518" s="3">
-        <v>42794</v>
+        <v>42739</v>
       </c>
       <c r="H518" t="s">
-        <v>1454</v>
+        <v>252</v>
       </c>
       <c r="I518" s="1" t="s">
-        <v>1455</v>
+        <v>1449</v>
       </c>
     </row>
     <row r="519" spans="1:9" x14ac:dyDescent="0.25">
@@ -23136,28 +23148,28 @@
         <v>34</v>
       </c>
       <c r="B519" t="s">
-        <v>1456</v>
+        <v>1450</v>
       </c>
       <c r="C519" t="s">
-        <v>728</v>
+        <v>516</v>
       </c>
       <c r="D519" t="s">
-        <v>936</v>
+        <v>807</v>
       </c>
       <c r="E519" t="s">
-        <v>1457</v>
+        <v>1451</v>
       </c>
       <c r="F519" s="3">
-        <v>42789</v>
+        <v>42738</v>
       </c>
       <c r="G519" s="3">
-        <v>42794</v>
+        <v>42739</v>
       </c>
       <c r="H519" t="s">
-        <v>1454</v>
+        <v>252</v>
       </c>
       <c r="I519" s="1" t="s">
-        <v>1455</v>
+        <v>1449</v>
       </c>
     </row>
     <row r="520" spans="1:9" x14ac:dyDescent="0.25">
@@ -23165,22 +23177,22 @@
         <v>28</v>
       </c>
       <c r="B520" t="s">
-        <v>1458</v>
+        <v>1452</v>
       </c>
       <c r="C520" t="s">
-        <v>94</v>
+        <v>516</v>
       </c>
       <c r="D520" t="s">
-        <v>1459</v>
+        <v>205</v>
       </c>
       <c r="E520" t="s">
-        <v>1460</v>
+        <v>1453</v>
       </c>
       <c r="F520" s="3">
         <v>42789</v>
       </c>
       <c r="G520" s="3">
-        <v>42795</v>
+        <v>42794</v>
       </c>
       <c r="H520" t="s">
         <v>1454</v>
@@ -23194,22 +23206,22 @@
         <v>34</v>
       </c>
       <c r="B521" t="s">
-        <v>1461</v>
+        <v>1456</v>
       </c>
       <c r="C521" t="s">
-        <v>665</v>
+        <v>728</v>
       </c>
       <c r="D521" t="s">
-        <v>1462</v>
+        <v>936</v>
       </c>
       <c r="E521" t="s">
-        <v>1463</v>
+        <v>1457</v>
       </c>
       <c r="F521" s="3">
         <v>42789</v>
       </c>
       <c r="G521" s="3">
-        <v>42795</v>
+        <v>42794</v>
       </c>
       <c r="H521" t="s">
         <v>1454</v>
@@ -23223,22 +23235,22 @@
         <v>28</v>
       </c>
       <c r="B522" t="s">
-        <v>1464</v>
+        <v>1458</v>
       </c>
       <c r="C522" t="s">
-        <v>1440</v>
+        <v>94</v>
       </c>
       <c r="D522" t="s">
-        <v>1017</v>
+        <v>1459</v>
       </c>
       <c r="E522" t="s">
-        <v>1465</v>
+        <v>1460</v>
       </c>
       <c r="F522" s="3">
         <v>42789</v>
       </c>
       <c r="G522" s="3">
-        <v>42796</v>
+        <v>42795</v>
       </c>
       <c r="H522" t="s">
         <v>1454</v>
@@ -23252,22 +23264,22 @@
         <v>34</v>
       </c>
       <c r="B523" t="s">
-        <v>1187</v>
+        <v>1461</v>
       </c>
       <c r="C523" t="s">
-        <v>516</v>
+        <v>665</v>
       </c>
       <c r="D523" t="s">
-        <v>784</v>
+        <v>1462</v>
       </c>
       <c r="E523" t="s">
-        <v>1188</v>
+        <v>1463</v>
       </c>
       <c r="F523" s="3">
         <v>42789</v>
       </c>
       <c r="G523" s="3">
-        <v>42796</v>
+        <v>42795</v>
       </c>
       <c r="H523" t="s">
         <v>1454</v>
@@ -23281,28 +23293,28 @@
         <v>28</v>
       </c>
       <c r="B524" t="s">
-        <v>1466</v>
+        <v>1464</v>
       </c>
       <c r="C524" t="s">
-        <v>269</v>
+        <v>1440</v>
       </c>
       <c r="D524" t="s">
-        <v>772</v>
+        <v>1017</v>
       </c>
       <c r="E524" t="s">
-        <v>1467</v>
+        <v>1465</v>
       </c>
       <c r="F524" s="3">
-        <v>42800</v>
+        <v>42789</v>
       </c>
       <c r="G524" s="3">
-        <v>42807</v>
+        <v>42796</v>
       </c>
       <c r="H524" t="s">
         <v>1454</v>
       </c>
       <c r="I524" s="1" t="s">
-        <v>1468</v>
+        <v>1455</v>
       </c>
     </row>
     <row r="525" spans="1:9" x14ac:dyDescent="0.25">
@@ -23310,28 +23322,28 @@
         <v>34</v>
       </c>
       <c r="B525" t="s">
-        <v>1469</v>
+        <v>1187</v>
       </c>
       <c r="C525" t="s">
-        <v>544</v>
+        <v>516</v>
       </c>
       <c r="D525" t="s">
-        <v>866</v>
+        <v>784</v>
       </c>
       <c r="E525" t="s">
-        <v>1470</v>
+        <v>1188</v>
       </c>
       <c r="F525" s="3">
-        <v>42800</v>
+        <v>42789</v>
       </c>
       <c r="G525" s="3">
-        <v>42807</v>
+        <v>42796</v>
       </c>
       <c r="H525" t="s">
         <v>1454</v>
       </c>
       <c r="I525" s="1" t="s">
-        <v>1468</v>
+        <v>1455</v>
       </c>
     </row>
     <row r="526" spans="1:9" x14ac:dyDescent="0.25">
@@ -23339,57 +23351,57 @@
         <v>28</v>
       </c>
       <c r="B526" t="s">
-        <v>1062</v>
+        <v>1466</v>
       </c>
       <c r="C526" t="s">
-        <v>544</v>
+        <v>269</v>
       </c>
       <c r="D526" t="s">
-        <v>866</v>
+        <v>772</v>
       </c>
       <c r="E526" t="s">
-        <v>1063</v>
+        <v>1467</v>
       </c>
       <c r="F526" s="3">
-        <v>42804</v>
+        <v>42800</v>
       </c>
       <c r="G526" s="3">
-        <v>42814</v>
+        <v>42807</v>
       </c>
       <c r="H526" t="s">
-        <v>1475</v>
+        <v>1454</v>
       </c>
       <c r="I526" s="1" t="s">
-        <v>1476</v>
+        <v>1468</v>
       </c>
     </row>
     <row r="527" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A527" t="s">
-        <v>28</v>
+        <v>34</v>
       </c>
       <c r="B527" t="s">
-        <v>1477</v>
+        <v>1469</v>
       </c>
       <c r="C527" t="s">
-        <v>94</v>
+        <v>544</v>
       </c>
       <c r="D527" t="s">
-        <v>1478</v>
+        <v>866</v>
       </c>
       <c r="E527" t="s">
-        <v>1479</v>
+        <v>1470</v>
       </c>
       <c r="F527" s="3">
-        <v>42804</v>
+        <v>42800</v>
       </c>
       <c r="G527" s="3">
-        <v>42814</v>
+        <v>42807</v>
       </c>
       <c r="H527" t="s">
-        <v>1475</v>
+        <v>1454</v>
       </c>
       <c r="I527" s="1" t="s">
-        <v>1476</v>
+        <v>1468</v>
       </c>
     </row>
     <row r="528" spans="1:9" x14ac:dyDescent="0.25">
@@ -23397,16 +23409,16 @@
         <v>28</v>
       </c>
       <c r="B528" t="s">
-        <v>1480</v>
+        <v>1062</v>
       </c>
       <c r="C528" t="s">
-        <v>1440</v>
+        <v>544</v>
       </c>
       <c r="D528" t="s">
-        <v>1207</v>
+        <v>866</v>
       </c>
       <c r="E528" t="s">
-        <v>1481</v>
+        <v>1063</v>
       </c>
       <c r="F528" s="3">
         <v>42804</v>
@@ -23423,19 +23435,19 @@
     </row>
     <row r="529" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A529" t="s">
-        <v>34</v>
+        <v>28</v>
       </c>
       <c r="B529" t="s">
-        <v>1482</v>
+        <v>1477</v>
       </c>
       <c r="C529" t="s">
-        <v>269</v>
+        <v>94</v>
       </c>
       <c r="D529" t="s">
-        <v>1098</v>
+        <v>1478</v>
       </c>
       <c r="E529" t="s">
-        <v>717</v>
+        <v>1479</v>
       </c>
       <c r="F529" s="3">
         <v>42804</v>
@@ -23452,19 +23464,19 @@
     </row>
     <row r="530" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A530" t="s">
-        <v>34</v>
+        <v>28</v>
       </c>
       <c r="B530" t="s">
-        <v>1483</v>
+        <v>1480</v>
       </c>
       <c r="C530" t="s">
-        <v>821</v>
+        <v>1440</v>
       </c>
       <c r="D530" t="s">
-        <v>822</v>
+        <v>1207</v>
       </c>
       <c r="E530" t="s">
-        <v>1484</v>
+        <v>1481</v>
       </c>
       <c r="F530" s="3">
         <v>42804</v>
@@ -23484,16 +23496,16 @@
         <v>34</v>
       </c>
       <c r="B531" t="s">
-        <v>1485</v>
+        <v>1482</v>
       </c>
       <c r="C531" t="s">
-        <v>544</v>
+        <v>269</v>
       </c>
       <c r="D531" t="s">
-        <v>866</v>
+        <v>1098</v>
       </c>
       <c r="E531" t="s">
-        <v>668</v>
+        <v>717</v>
       </c>
       <c r="F531" s="3">
         <v>42804</v>
@@ -23510,31 +23522,31 @@
     </row>
     <row r="532" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A532" t="s">
-        <v>28</v>
+        <v>34</v>
       </c>
       <c r="B532" t="s">
-        <v>1471</v>
+        <v>1483</v>
       </c>
       <c r="C532" t="s">
-        <v>544</v>
+        <v>821</v>
       </c>
       <c r="D532" t="s">
-        <v>904</v>
+        <v>822</v>
       </c>
       <c r="E532" t="s">
-        <v>1472</v>
+        <v>1484</v>
       </c>
       <c r="F532" s="3">
-        <v>42807</v>
+        <v>42804</v>
       </c>
       <c r="G532" s="3">
-        <v>42810</v>
+        <v>42814</v>
       </c>
       <c r="H532" t="s">
-        <v>1454</v>
+        <v>1475</v>
       </c>
       <c r="I532" s="1" t="s">
-        <v>1473</v>
+        <v>1476</v>
       </c>
     </row>
     <row r="533" spans="1:9" x14ac:dyDescent="0.25">
@@ -23542,57 +23554,57 @@
         <v>34</v>
       </c>
       <c r="B533" t="s">
-        <v>1474</v>
+        <v>1485</v>
       </c>
       <c r="C533" t="s">
-        <v>269</v>
+        <v>544</v>
       </c>
       <c r="D533" t="s">
-        <v>988</v>
+        <v>866</v>
       </c>
       <c r="E533" t="s">
-        <v>126</v>
+        <v>668</v>
       </c>
       <c r="F533" s="3">
-        <v>42807</v>
+        <v>42804</v>
       </c>
       <c r="G533" s="3">
-        <v>42810</v>
+        <v>42814</v>
       </c>
       <c r="H533" t="s">
-        <v>1454</v>
+        <v>1475</v>
       </c>
       <c r="I533" s="1" t="s">
-        <v>1473</v>
+        <v>1476</v>
       </c>
     </row>
     <row r="534" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A534" t="s">
         <v>28</v>
       </c>
-      <c r="B534" s="5" t="s">
-        <v>1486</v>
+      <c r="B534" t="s">
+        <v>1471</v>
       </c>
       <c r="C534" t="s">
         <v>544</v>
       </c>
       <c r="D534" t="s">
-        <v>855</v>
-      </c>
-      <c r="E534" s="5" t="s">
-        <v>1487</v>
+        <v>904</v>
+      </c>
+      <c r="E534" t="s">
+        <v>1472</v>
       </c>
       <c r="F534" s="3">
-        <v>42822</v>
+        <v>42807</v>
       </c>
       <c r="G534" s="3">
-        <v>42829</v>
+        <v>42810</v>
       </c>
       <c r="H534" t="s">
         <v>1454</v>
       </c>
       <c r="I534" s="1" t="s">
-        <v>1488</v>
+        <v>1473</v>
       </c>
     </row>
     <row r="535" spans="1:9" x14ac:dyDescent="0.25">
@@ -23600,57 +23612,57 @@
         <v>34</v>
       </c>
       <c r="B535" t="s">
-        <v>1489</v>
+        <v>1474</v>
       </c>
       <c r="C535" t="s">
-        <v>728</v>
+        <v>269</v>
       </c>
       <c r="D535" t="s">
-        <v>751</v>
+        <v>988</v>
       </c>
       <c r="E535" t="s">
-        <v>1490</v>
+        <v>126</v>
       </c>
       <c r="F535" s="3">
-        <v>42822</v>
+        <v>42807</v>
       </c>
       <c r="G535" s="3">
-        <v>42829</v>
+        <v>42810</v>
       </c>
       <c r="H535" t="s">
         <v>1454</v>
       </c>
       <c r="I535" s="1" t="s">
-        <v>1488</v>
+        <v>1473</v>
       </c>
     </row>
     <row r="536" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A536" t="s">
         <v>28</v>
       </c>
-      <c r="B536" t="s">
-        <v>1491</v>
+      <c r="B536" s="5" t="s">
+        <v>1486</v>
       </c>
       <c r="C536" t="s">
         <v>544</v>
       </c>
       <c r="D536" t="s">
-        <v>498</v>
-      </c>
-      <c r="E536" t="s">
-        <v>1492</v>
+        <v>855</v>
+      </c>
+      <c r="E536" s="5" t="s">
+        <v>1487</v>
       </c>
       <c r="F536" s="3">
-        <v>42823</v>
+        <v>42822</v>
       </c>
       <c r="G536" s="3">
-        <v>42830</v>
+        <v>42829</v>
       </c>
       <c r="H536" t="s">
         <v>1454</v>
       </c>
       <c r="I536" s="1" t="s">
-        <v>1493</v>
+        <v>1488</v>
       </c>
     </row>
     <row r="537" spans="1:9" x14ac:dyDescent="0.25">
@@ -23658,28 +23670,28 @@
         <v>34</v>
       </c>
       <c r="B537" t="s">
-        <v>529</v>
+        <v>1489</v>
       </c>
       <c r="C537" t="s">
-        <v>665</v>
+        <v>728</v>
       </c>
       <c r="D537" t="s">
-        <v>530</v>
+        <v>751</v>
       </c>
       <c r="E537" t="s">
-        <v>531</v>
+        <v>1490</v>
       </c>
       <c r="F537" s="3">
-        <v>42823</v>
+        <v>42822</v>
       </c>
       <c r="G537" s="3">
-        <v>42830</v>
+        <v>42829</v>
       </c>
       <c r="H537" t="s">
         <v>1454</v>
       </c>
       <c r="I537" s="1" t="s">
-        <v>1493</v>
+        <v>1488</v>
       </c>
     </row>
     <row r="538" spans="1:9" x14ac:dyDescent="0.25">
@@ -23687,28 +23699,28 @@
         <v>28</v>
       </c>
       <c r="B538" t="s">
-        <v>1494</v>
+        <v>1491</v>
       </c>
       <c r="C538" t="s">
-        <v>665</v>
+        <v>544</v>
       </c>
       <c r="D538" t="s">
-        <v>1045</v>
+        <v>498</v>
       </c>
       <c r="E538" t="s">
-        <v>1495</v>
+        <v>1492</v>
       </c>
       <c r="F538" s="3">
-        <v>42879</v>
+        <v>42823</v>
       </c>
       <c r="G538" s="3">
-        <v>42888</v>
+        <v>42830</v>
       </c>
       <c r="H538" t="s">
         <v>1454</v>
       </c>
       <c r="I538" s="1" t="s">
-        <v>1496</v>
+        <v>1493</v>
       </c>
     </row>
     <row r="539" spans="1:9" x14ac:dyDescent="0.25">
@@ -23716,28 +23728,28 @@
         <v>34</v>
       </c>
       <c r="B539" t="s">
-        <v>1497</v>
+        <v>529</v>
       </c>
       <c r="C539" t="s">
-        <v>269</v>
+        <v>665</v>
       </c>
       <c r="D539" t="s">
-        <v>1498</v>
+        <v>530</v>
       </c>
       <c r="E539" t="s">
-        <v>1499</v>
+        <v>531</v>
       </c>
       <c r="F539" s="3">
-        <v>42879</v>
+        <v>42823</v>
       </c>
       <c r="G539" s="3">
-        <v>42888</v>
+        <v>42830</v>
       </c>
       <c r="H539" t="s">
         <v>1454</v>
       </c>
       <c r="I539" s="1" t="s">
-        <v>1496</v>
+        <v>1493</v>
       </c>
     </row>
     <row r="540" spans="1:9" x14ac:dyDescent="0.25">
@@ -23745,57 +23757,57 @@
         <v>28</v>
       </c>
       <c r="B540" t="s">
-        <v>1506</v>
+        <v>1494</v>
       </c>
       <c r="C540" t="s">
-        <v>269</v>
+        <v>665</v>
       </c>
       <c r="D540" t="s">
-        <v>1432</v>
+        <v>1045</v>
       </c>
       <c r="E540" t="s">
-        <v>1507</v>
+        <v>1495</v>
       </c>
       <c r="F540" s="3">
-        <v>42895</v>
+        <v>42879</v>
       </c>
       <c r="G540" s="3">
-        <v>42905</v>
+        <v>42888</v>
       </c>
       <c r="H540" t="s">
         <v>1454</v>
       </c>
       <c r="I540" s="1" t="s">
-        <v>1508</v>
+        <v>1496</v>
       </c>
     </row>
     <row r="541" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A541" t="s">
-        <v>28</v>
+        <v>34</v>
       </c>
       <c r="B541" t="s">
-        <v>1509</v>
+        <v>1497</v>
       </c>
       <c r="C541" t="s">
-        <v>516</v>
+        <v>269</v>
       </c>
       <c r="D541" t="s">
-        <v>1428</v>
+        <v>1498</v>
       </c>
       <c r="E541" t="s">
-        <v>1510</v>
+        <v>1499</v>
       </c>
       <c r="F541" s="3">
-        <v>42895</v>
+        <v>42879</v>
       </c>
       <c r="G541" s="3">
-        <v>42905</v>
+        <v>42888</v>
       </c>
       <c r="H541" t="s">
         <v>1454</v>
       </c>
       <c r="I541" s="1" t="s">
-        <v>1508</v>
+        <v>1496</v>
       </c>
     </row>
     <row r="542" spans="1:9" x14ac:dyDescent="0.25">
@@ -23803,16 +23815,16 @@
         <v>28</v>
       </c>
       <c r="B542" t="s">
-        <v>1511</v>
+        <v>1506</v>
       </c>
       <c r="C542" t="s">
-        <v>1512</v>
+        <v>269</v>
       </c>
       <c r="D542" t="s">
-        <v>904</v>
+        <v>1432</v>
       </c>
       <c r="E542" t="s">
-        <v>1513</v>
+        <v>1507</v>
       </c>
       <c r="F542" s="3">
         <v>42895</v>
@@ -23829,19 +23841,19 @@
     </row>
     <row r="543" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A543" t="s">
-        <v>34</v>
+        <v>28</v>
       </c>
       <c r="B543" t="s">
-        <v>1514</v>
+        <v>1509</v>
       </c>
       <c r="C543" t="s">
-        <v>544</v>
+        <v>516</v>
       </c>
       <c r="D543" t="s">
-        <v>893</v>
+        <v>1428</v>
       </c>
       <c r="E543" t="s">
-        <v>1515</v>
+        <v>1510</v>
       </c>
       <c r="F543" s="3">
         <v>42895</v>
@@ -23858,19 +23870,19 @@
     </row>
     <row r="544" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A544" t="s">
-        <v>34</v>
+        <v>28</v>
       </c>
       <c r="B544" t="s">
-        <v>1516</v>
+        <v>1511</v>
       </c>
       <c r="C544" t="s">
-        <v>544</v>
+        <v>1512</v>
       </c>
       <c r="D544" t="s">
-        <v>855</v>
+        <v>904</v>
       </c>
       <c r="E544" t="s">
-        <v>1517</v>
+        <v>1513</v>
       </c>
       <c r="F544" s="3">
         <v>42895</v>
@@ -23890,16 +23902,16 @@
         <v>34</v>
       </c>
       <c r="B545" t="s">
-        <v>1518</v>
+        <v>1514</v>
       </c>
       <c r="C545" t="s">
-        <v>665</v>
+        <v>544</v>
       </c>
       <c r="D545" t="s">
-        <v>1237</v>
+        <v>893</v>
       </c>
       <c r="E545" t="s">
-        <v>1519</v>
+        <v>1515</v>
       </c>
       <c r="F545" s="3">
         <v>42895</v>
@@ -23916,22 +23928,22 @@
     </row>
     <row r="546" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A546" t="s">
-        <v>28</v>
+        <v>34</v>
       </c>
       <c r="B546" t="s">
-        <v>1500</v>
+        <v>1516</v>
       </c>
       <c r="C546" t="s">
-        <v>94</v>
+        <v>544</v>
       </c>
       <c r="D546" t="s">
-        <v>1501</v>
+        <v>855</v>
       </c>
       <c r="E546" t="s">
-        <v>1502</v>
+        <v>1517</v>
       </c>
       <c r="F546" s="3">
-        <v>42898</v>
+        <v>42895</v>
       </c>
       <c r="G546" s="3">
         <v>42905</v>
@@ -23940,7 +23952,7 @@
         <v>1454</v>
       </c>
       <c r="I546" s="1" t="s">
-        <v>1503</v>
+        <v>1508</v>
       </c>
     </row>
     <row r="547" spans="1:9" x14ac:dyDescent="0.25">
@@ -23948,19 +23960,19 @@
         <v>34</v>
       </c>
       <c r="B547" t="s">
-        <v>1504</v>
+        <v>1518</v>
       </c>
       <c r="C547" t="s">
-        <v>924</v>
+        <v>665</v>
       </c>
       <c r="D547" t="s">
-        <v>946</v>
+        <v>1237</v>
       </c>
       <c r="E547" t="s">
-        <v>1505</v>
+        <v>1519</v>
       </c>
       <c r="F547" s="3">
-        <v>42898</v>
+        <v>42895</v>
       </c>
       <c r="G547" s="3">
         <v>42905</v>
@@ -23969,7 +23981,7 @@
         <v>1454</v>
       </c>
       <c r="I547" s="1" t="s">
-        <v>1503</v>
+        <v>1508</v>
       </c>
     </row>
     <row r="548" spans="1:9" x14ac:dyDescent="0.25">
@@ -23977,57 +23989,57 @@
         <v>28</v>
       </c>
       <c r="B548" t="s">
-        <v>1520</v>
+        <v>1500</v>
       </c>
       <c r="C548" t="s">
-        <v>269</v>
+        <v>94</v>
       </c>
       <c r="D548" t="s">
-        <v>1141</v>
+        <v>1501</v>
       </c>
       <c r="E548" t="s">
-        <v>1521</v>
+        <v>1502</v>
       </c>
       <c r="F548" s="3">
-        <v>42935</v>
+        <v>42898</v>
       </c>
       <c r="G548" s="3">
-        <v>42942</v>
+        <v>42905</v>
       </c>
       <c r="H548" t="s">
         <v>1454</v>
       </c>
       <c r="I548" s="1" t="s">
-        <v>1522</v>
+        <v>1503</v>
       </c>
     </row>
     <row r="549" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A549" t="s">
-        <v>28</v>
+        <v>34</v>
       </c>
       <c r="B549" t="s">
-        <v>1523</v>
+        <v>1504</v>
       </c>
       <c r="C549" t="s">
-        <v>516</v>
+        <v>924</v>
       </c>
       <c r="D549" t="s">
-        <v>807</v>
+        <v>946</v>
       </c>
       <c r="E549" t="s">
-        <v>1524</v>
+        <v>1505</v>
       </c>
       <c r="F549" s="3">
-        <v>42935</v>
+        <v>42898</v>
       </c>
       <c r="G549" s="3">
-        <v>42942</v>
+        <v>42905</v>
       </c>
       <c r="H549" t="s">
         <v>1454</v>
       </c>
       <c r="I549" s="1" t="s">
-        <v>1522</v>
+        <v>1503</v>
       </c>
     </row>
     <row r="550" spans="1:9" x14ac:dyDescent="0.25">
@@ -24035,16 +24047,16 @@
         <v>28</v>
       </c>
       <c r="B550" t="s">
-        <v>1525</v>
+        <v>1520</v>
       </c>
       <c r="C550" t="s">
-        <v>433</v>
+        <v>269</v>
       </c>
       <c r="D550" t="s">
-        <v>1185</v>
+        <v>1141</v>
       </c>
       <c r="E550" t="s">
-        <v>1526</v>
+        <v>1521</v>
       </c>
       <c r="F550" s="3">
         <v>42935</v>
@@ -24064,16 +24076,16 @@
         <v>28</v>
       </c>
       <c r="B551" t="s">
-        <v>1527</v>
+        <v>1523</v>
       </c>
       <c r="C551" t="s">
-        <v>665</v>
+        <v>516</v>
       </c>
       <c r="D551" t="s">
-        <v>1077</v>
+        <v>807</v>
       </c>
       <c r="E551" t="s">
-        <v>1528</v>
+        <v>1524</v>
       </c>
       <c r="F551" s="3">
         <v>42935</v>
@@ -24093,16 +24105,16 @@
         <v>28</v>
       </c>
       <c r="B552" t="s">
-        <v>1529</v>
+        <v>1525</v>
       </c>
       <c r="C552" t="s">
-        <v>1440</v>
+        <v>433</v>
       </c>
       <c r="D552" t="s">
-        <v>842</v>
+        <v>1185</v>
       </c>
       <c r="E552" t="s">
-        <v>1530</v>
+        <v>1526</v>
       </c>
       <c r="F552" s="3">
         <v>42935</v>
@@ -24119,19 +24131,19 @@
     </row>
     <row r="553" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A553" t="s">
-        <v>34</v>
+        <v>28</v>
       </c>
       <c r="B553" t="s">
-        <v>1531</v>
+        <v>1527</v>
       </c>
       <c r="C553" t="s">
-        <v>924</v>
+        <v>665</v>
       </c>
       <c r="D553" t="s">
-        <v>1231</v>
+        <v>1077</v>
       </c>
       <c r="E553" t="s">
-        <v>1532</v>
+        <v>1528</v>
       </c>
       <c r="F553" s="3">
         <v>42935</v>
@@ -24148,19 +24160,19 @@
     </row>
     <row r="554" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A554" t="s">
-        <v>34</v>
+        <v>28</v>
       </c>
       <c r="B554" t="s">
-        <v>1157</v>
+        <v>1529</v>
       </c>
       <c r="C554" t="s">
-        <v>516</v>
+        <v>1440</v>
       </c>
       <c r="D554" t="s">
-        <v>784</v>
+        <v>842</v>
       </c>
       <c r="E554" t="s">
-        <v>1158</v>
+        <v>1530</v>
       </c>
       <c r="F554" s="3">
         <v>42935</v>
@@ -24180,16 +24192,16 @@
         <v>34</v>
       </c>
       <c r="B555" t="s">
-        <v>1533</v>
+        <v>1531</v>
       </c>
       <c r="C555" t="s">
-        <v>728</v>
+        <v>924</v>
       </c>
       <c r="D555" t="s">
-        <v>751</v>
+        <v>1231</v>
       </c>
       <c r="E555" t="s">
-        <v>88</v>
+        <v>1532</v>
       </c>
       <c r="F555" s="3">
         <v>42935</v>
@@ -24209,16 +24221,16 @@
         <v>34</v>
       </c>
       <c r="B556" t="s">
-        <v>1534</v>
+        <v>1157</v>
       </c>
       <c r="C556" t="s">
-        <v>269</v>
+        <v>516</v>
       </c>
       <c r="D556" t="s">
-        <v>1535</v>
+        <v>784</v>
       </c>
       <c r="E556" t="s">
-        <v>1536</v>
+        <v>1158</v>
       </c>
       <c r="F556" s="3">
         <v>42935</v>
@@ -24238,16 +24250,16 @@
         <v>34</v>
       </c>
       <c r="B557" t="s">
-        <v>1065</v>
+        <v>1533</v>
       </c>
       <c r="C557" t="s">
         <v>728</v>
       </c>
       <c r="D557" t="s">
-        <v>703</v>
+        <v>751</v>
       </c>
       <c r="E557" t="s">
-        <v>371</v>
+        <v>88</v>
       </c>
       <c r="F557" s="3">
         <v>42935</v>
@@ -24264,31 +24276,31 @@
     </row>
     <row r="558" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A558" t="s">
-        <v>28</v>
+        <v>34</v>
       </c>
       <c r="B558" t="s">
-        <v>1537</v>
+        <v>1534</v>
       </c>
       <c r="C558" t="s">
-        <v>94</v>
+        <v>269</v>
       </c>
       <c r="D558" t="s">
-        <v>1538</v>
+        <v>1535</v>
       </c>
       <c r="E558" t="s">
-        <v>1539</v>
+        <v>1536</v>
       </c>
       <c r="F558" s="3">
-        <v>42947</v>
+        <v>42935</v>
       </c>
       <c r="G558" s="3">
-        <v>42954</v>
+        <v>42942</v>
       </c>
       <c r="H558" t="s">
         <v>1454</v>
       </c>
       <c r="I558" s="1" t="s">
-        <v>1540</v>
+        <v>1522</v>
       </c>
     </row>
     <row r="559" spans="1:9" x14ac:dyDescent="0.25">
@@ -24296,28 +24308,28 @@
         <v>34</v>
       </c>
       <c r="B559" t="s">
-        <v>1541</v>
+        <v>1065</v>
       </c>
       <c r="C559" t="s">
-        <v>269</v>
+        <v>728</v>
       </c>
       <c r="D559" t="s">
-        <v>747</v>
+        <v>703</v>
       </c>
       <c r="E559" t="s">
-        <v>12</v>
+        <v>371</v>
       </c>
       <c r="F559" s="3">
-        <v>42947</v>
+        <v>42935</v>
       </c>
       <c r="G559" s="3">
-        <v>42955</v>
+        <v>42942</v>
       </c>
       <c r="H559" t="s">
         <v>1454</v>
       </c>
-      <c r="I559" s="2" t="s">
-        <v>1540</v>
+      <c r="I559" s="1" t="s">
+        <v>1522</v>
       </c>
     </row>
     <row r="560" spans="1:9" x14ac:dyDescent="0.25">
@@ -24325,28 +24337,28 @@
         <v>28</v>
       </c>
       <c r="B560" t="s">
-        <v>1542</v>
+        <v>1537</v>
       </c>
       <c r="C560" t="s">
-        <v>516</v>
+        <v>94</v>
       </c>
       <c r="D560" t="s">
-        <v>219</v>
+        <v>1538</v>
       </c>
       <c r="E560" t="s">
-        <v>823</v>
+        <v>1539</v>
       </c>
       <c r="F560" s="3">
-        <v>42971</v>
+        <v>42947</v>
       </c>
       <c r="G560" s="3">
-        <v>42976</v>
+        <v>42954</v>
       </c>
       <c r="H560" t="s">
         <v>1454</v>
       </c>
-      <c r="I560" s="2" t="s">
-        <v>1543</v>
+      <c r="I560" s="1" t="s">
+        <v>1540</v>
       </c>
     </row>
     <row r="561" spans="1:9" x14ac:dyDescent="0.25">
@@ -24354,28 +24366,28 @@
         <v>34</v>
       </c>
       <c r="B561" t="s">
-        <v>108</v>
+        <v>1541</v>
       </c>
       <c r="C561" t="s">
-        <v>924</v>
+        <v>269</v>
       </c>
       <c r="D561" t="s">
-        <v>925</v>
+        <v>747</v>
       </c>
       <c r="E561" t="s">
-        <v>1544</v>
+        <v>12</v>
       </c>
       <c r="F561" s="3">
-        <v>42971</v>
+        <v>42947</v>
       </c>
       <c r="G561" s="3">
-        <v>42976</v>
+        <v>42955</v>
       </c>
       <c r="H561" t="s">
         <v>1454</v>
       </c>
-      <c r="I561" s="1" t="s">
-        <v>1543</v>
+      <c r="I561" s="2" t="s">
+        <v>1540</v>
       </c>
     </row>
     <row r="562" spans="1:9" x14ac:dyDescent="0.25">
@@ -24383,27 +24395,27 @@
         <v>28</v>
       </c>
       <c r="B562" t="s">
-        <v>1545</v>
+        <v>1542</v>
       </c>
       <c r="C562" t="s">
-        <v>1440</v>
+        <v>516</v>
       </c>
       <c r="D562" t="s">
-        <v>1319</v>
+        <v>219</v>
       </c>
       <c r="E562" t="s">
-        <v>1546</v>
+        <v>823</v>
       </c>
       <c r="F562" s="3">
         <v>42971</v>
       </c>
       <c r="G562" s="3">
-        <v>42979</v>
+        <v>42976</v>
       </c>
       <c r="H562" t="s">
         <v>1454</v>
       </c>
-      <c r="I562" s="1" t="s">
+      <c r="I562" s="2" t="s">
         <v>1543</v>
       </c>
     </row>
@@ -24412,22 +24424,22 @@
         <v>34</v>
       </c>
       <c r="B563" t="s">
-        <v>1547</v>
+        <v>108</v>
       </c>
       <c r="C563" t="s">
-        <v>433</v>
+        <v>924</v>
       </c>
       <c r="D563" t="s">
-        <v>1548</v>
+        <v>925</v>
       </c>
       <c r="E563" t="s">
-        <v>1549</v>
+        <v>1544</v>
       </c>
       <c r="F563" s="3">
         <v>42971</v>
       </c>
       <c r="G563" s="3">
-        <v>42979</v>
+        <v>42976</v>
       </c>
       <c r="H563" t="s">
         <v>1454</v>
@@ -24441,28 +24453,28 @@
         <v>28</v>
       </c>
       <c r="B564" t="s">
-        <v>1550</v>
+        <v>1545</v>
       </c>
       <c r="C564" t="s">
-        <v>544</v>
+        <v>1440</v>
       </c>
       <c r="D564" t="s">
-        <v>904</v>
+        <v>1319</v>
       </c>
       <c r="E564" t="s">
-        <v>1551</v>
+        <v>1546</v>
       </c>
       <c r="F564" s="3">
-        <v>42986</v>
+        <v>42971</v>
       </c>
       <c r="G564" s="3">
-        <v>42996</v>
+        <v>42979</v>
       </c>
       <c r="H564" t="s">
         <v>1454</v>
       </c>
       <c r="I564" s="1" t="s">
-        <v>1552</v>
+        <v>1543</v>
       </c>
     </row>
     <row r="565" spans="1:9" x14ac:dyDescent="0.25">
@@ -24470,28 +24482,28 @@
         <v>34</v>
       </c>
       <c r="B565" t="s">
-        <v>1553</v>
+        <v>1547</v>
       </c>
       <c r="C565" t="s">
-        <v>269</v>
+        <v>433</v>
       </c>
       <c r="D565" t="s">
-        <v>790</v>
+        <v>1548</v>
       </c>
       <c r="E565" t="s">
-        <v>1554</v>
+        <v>1549</v>
       </c>
       <c r="F565" s="3">
-        <v>42986</v>
+        <v>42971</v>
       </c>
       <c r="G565" s="3">
-        <v>42996</v>
+        <v>42979</v>
       </c>
       <c r="H565" t="s">
         <v>1454</v>
       </c>
       <c r="I565" s="1" t="s">
-        <v>1552</v>
+        <v>1543</v>
       </c>
     </row>
     <row r="566" spans="1:9" x14ac:dyDescent="0.25">
@@ -24499,28 +24511,28 @@
         <v>28</v>
       </c>
       <c r="B566" t="s">
-        <v>1555</v>
+        <v>1550</v>
       </c>
       <c r="C566" t="s">
-        <v>269</v>
+        <v>544</v>
       </c>
       <c r="D566" t="s">
-        <v>181</v>
+        <v>904</v>
       </c>
       <c r="E566" t="s">
-        <v>1556</v>
+        <v>1551</v>
       </c>
       <c r="F566" s="3">
-        <v>43012</v>
+        <v>42986</v>
       </c>
       <c r="G566" s="3">
-        <v>43021</v>
+        <v>42996</v>
       </c>
       <c r="H566" t="s">
         <v>1454</v>
       </c>
       <c r="I566" s="1" t="s">
-        <v>1557</v>
+        <v>1552</v>
       </c>
     </row>
     <row r="567" spans="1:9" x14ac:dyDescent="0.25">
@@ -24528,28 +24540,28 @@
         <v>34</v>
       </c>
       <c r="B567" t="s">
-        <v>1558</v>
+        <v>1553</v>
       </c>
       <c r="C567" t="s">
-        <v>821</v>
+        <v>269</v>
       </c>
       <c r="D567" t="s">
-        <v>1175</v>
+        <v>790</v>
       </c>
       <c r="E567" t="s">
-        <v>1176</v>
+        <v>1554</v>
       </c>
       <c r="F567" s="3">
-        <v>43012</v>
+        <v>42986</v>
       </c>
       <c r="G567" s="3">
-        <v>43021</v>
+        <v>42996</v>
       </c>
       <c r="H567" t="s">
         <v>1454</v>
       </c>
       <c r="I567" s="1" t="s">
-        <v>1557</v>
+        <v>1552</v>
       </c>
     </row>
     <row r="568" spans="1:9" x14ac:dyDescent="0.25">
@@ -24557,28 +24569,28 @@
         <v>28</v>
       </c>
       <c r="B568" t="s">
-        <v>1559</v>
+        <v>1555</v>
       </c>
       <c r="C568" t="s">
-        <v>665</v>
+        <v>269</v>
       </c>
       <c r="D568" t="s">
-        <v>956</v>
+        <v>181</v>
       </c>
       <c r="E568" t="s">
-        <v>1560</v>
+        <v>1556</v>
       </c>
       <c r="F568" s="3">
-        <v>43097</v>
+        <v>43012</v>
       </c>
       <c r="G568" s="3">
-        <v>43103</v>
+        <v>43021</v>
       </c>
       <c r="H568" t="s">
         <v>1454</v>
       </c>
       <c r="I568" s="1" t="s">
-        <v>1561</v>
+        <v>1557</v>
       </c>
     </row>
     <row r="569" spans="1:9" x14ac:dyDescent="0.25">
@@ -24586,28 +24598,28 @@
         <v>34</v>
       </c>
       <c r="B569" t="s">
-        <v>1562</v>
+        <v>1558</v>
       </c>
       <c r="C569" t="s">
-        <v>516</v>
+        <v>821</v>
       </c>
       <c r="D569" t="s">
-        <v>807</v>
+        <v>1175</v>
       </c>
       <c r="E569" t="s">
-        <v>1563</v>
+        <v>1176</v>
       </c>
       <c r="F569" s="3">
-        <v>43097</v>
+        <v>43012</v>
       </c>
       <c r="G569" s="3">
-        <v>43103</v>
+        <v>43021</v>
       </c>
       <c r="H569" t="s">
         <v>1454</v>
       </c>
       <c r="I569" s="1" t="s">
-        <v>1561</v>
+        <v>1557</v>
       </c>
     </row>
     <row r="570" spans="1:9" x14ac:dyDescent="0.25">
@@ -24615,28 +24627,28 @@
         <v>28</v>
       </c>
       <c r="B570" t="s">
-        <v>1564</v>
+        <v>1559</v>
       </c>
       <c r="C570" t="s">
-        <v>544</v>
+        <v>665</v>
       </c>
       <c r="D570" t="s">
-        <v>281</v>
+        <v>956</v>
       </c>
       <c r="E570" t="s">
-        <v>1565</v>
+        <v>1560</v>
       </c>
       <c r="F570" s="3">
-        <v>43161</v>
+        <v>43097</v>
       </c>
       <c r="G570" s="3">
-        <v>43166</v>
+        <v>43103</v>
       </c>
       <c r="H570" t="s">
         <v>1454</v>
       </c>
       <c r="I570" s="1" t="s">
-        <v>1566</v>
+        <v>1561</v>
       </c>
     </row>
     <row r="571" spans="1:9" x14ac:dyDescent="0.25">
@@ -24644,28 +24656,28 @@
         <v>34</v>
       </c>
       <c r="B571" t="s">
-        <v>1567</v>
+        <v>1562</v>
       </c>
       <c r="C571" t="s">
-        <v>269</v>
+        <v>516</v>
       </c>
       <c r="D571" t="s">
-        <v>1498</v>
+        <v>807</v>
       </c>
       <c r="E571" t="s">
-        <v>1568</v>
+        <v>1563</v>
       </c>
       <c r="F571" s="3">
-        <v>43161</v>
+        <v>43097</v>
       </c>
       <c r="G571" s="3">
-        <v>43166</v>
+        <v>43103</v>
       </c>
       <c r="H571" t="s">
         <v>1454</v>
       </c>
       <c r="I571" s="1" t="s">
-        <v>1566</v>
+        <v>1561</v>
       </c>
     </row>
     <row r="572" spans="1:9" x14ac:dyDescent="0.25">
@@ -24673,57 +24685,57 @@
         <v>28</v>
       </c>
       <c r="B572" t="s">
-        <v>1569</v>
+        <v>1564</v>
       </c>
       <c r="C572" t="s">
         <v>544</v>
       </c>
       <c r="D572" t="s">
-        <v>1570</v>
+        <v>281</v>
       </c>
       <c r="E572" t="s">
-        <v>1571</v>
+        <v>1565</v>
       </c>
       <c r="F572" s="3">
-        <v>43168</v>
+        <v>43161</v>
       </c>
       <c r="G572" s="3">
-        <v>43178</v>
+        <v>43166</v>
       </c>
       <c r="H572" t="s">
         <v>1454</v>
       </c>
       <c r="I572" s="1" t="s">
-        <v>1572</v>
+        <v>1566</v>
       </c>
     </row>
     <row r="573" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A573" t="s">
-        <v>28</v>
+        <v>34</v>
       </c>
       <c r="B573" t="s">
-        <v>1573</v>
+        <v>1567</v>
       </c>
       <c r="C573" t="s">
-        <v>94</v>
+        <v>269</v>
       </c>
       <c r="D573" t="s">
-        <v>859</v>
+        <v>1498</v>
       </c>
       <c r="E573" t="s">
-        <v>1574</v>
+        <v>1568</v>
       </c>
       <c r="F573" s="3">
-        <v>43168</v>
+        <v>43161</v>
       </c>
       <c r="G573" s="3">
-        <v>43178</v>
+        <v>43166</v>
       </c>
       <c r="H573" t="s">
         <v>1454</v>
       </c>
       <c r="I573" s="1" t="s">
-        <v>1572</v>
+        <v>1566</v>
       </c>
     </row>
     <row r="574" spans="1:9" x14ac:dyDescent="0.25">
@@ -24731,16 +24743,16 @@
         <v>28</v>
       </c>
       <c r="B574" t="s">
-        <v>1575</v>
+        <v>1569</v>
       </c>
       <c r="C574" t="s">
-        <v>516</v>
+        <v>544</v>
       </c>
       <c r="D574" t="s">
-        <v>784</v>
+        <v>1570</v>
       </c>
       <c r="E574" t="s">
-        <v>1576</v>
+        <v>1571</v>
       </c>
       <c r="F574" s="3">
         <v>43168</v>
@@ -24757,19 +24769,19 @@
     </row>
     <row r="575" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A575" t="s">
-        <v>34</v>
+        <v>28</v>
       </c>
       <c r="B575" t="s">
-        <v>1577</v>
+        <v>1573</v>
       </c>
       <c r="C575" t="s">
-        <v>269</v>
+        <v>94</v>
       </c>
       <c r="D575" t="s">
-        <v>790</v>
+        <v>859</v>
       </c>
       <c r="E575" t="s">
-        <v>1259</v>
+        <v>1574</v>
       </c>
       <c r="F575" s="3">
         <v>43168</v>
@@ -24786,19 +24798,19 @@
     </row>
     <row r="576" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A576" t="s">
-        <v>34</v>
+        <v>28</v>
       </c>
       <c r="B576" t="s">
-        <v>1578</v>
+        <v>1575</v>
       </c>
       <c r="C576" t="s">
         <v>516</v>
       </c>
       <c r="D576" t="s">
-        <v>1579</v>
+        <v>784</v>
       </c>
       <c r="E576" t="s">
-        <v>1580</v>
+        <v>1576</v>
       </c>
       <c r="F576" s="3">
         <v>43168</v>
@@ -24818,16 +24830,16 @@
         <v>34</v>
       </c>
       <c r="B577" t="s">
-        <v>1581</v>
+        <v>1577</v>
       </c>
       <c r="C577" t="s">
-        <v>728</v>
+        <v>269</v>
       </c>
       <c r="D577" t="s">
-        <v>329</v>
+        <v>790</v>
       </c>
       <c r="E577" t="s">
-        <v>1582</v>
+        <v>1259</v>
       </c>
       <c r="F577" s="3">
         <v>43168</v>
@@ -24844,31 +24856,31 @@
     </row>
     <row r="578" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A578" t="s">
-        <v>28</v>
+        <v>34</v>
       </c>
       <c r="B578" t="s">
-        <v>1583</v>
+        <v>1578</v>
       </c>
       <c r="C578" t="s">
-        <v>94</v>
+        <v>516</v>
       </c>
       <c r="D578" t="s">
-        <v>1584</v>
+        <v>1579</v>
       </c>
       <c r="E578" t="s">
-        <v>1585</v>
+        <v>1580</v>
       </c>
       <c r="F578" s="3">
-        <v>43187</v>
+        <v>43168</v>
       </c>
       <c r="G578" s="3">
-        <v>43194</v>
+        <v>43178</v>
       </c>
       <c r="H578" t="s">
         <v>1454</v>
       </c>
       <c r="I578" s="1" t="s">
-        <v>1586</v>
+        <v>1572</v>
       </c>
     </row>
     <row r="579" spans="1:9" x14ac:dyDescent="0.25">
@@ -24876,28 +24888,28 @@
         <v>34</v>
       </c>
       <c r="B579" t="s">
-        <v>1302</v>
+        <v>1581</v>
       </c>
       <c r="C579" t="s">
-        <v>544</v>
+        <v>728</v>
       </c>
       <c r="D579" t="s">
-        <v>498</v>
+        <v>329</v>
       </c>
       <c r="E579" t="s">
-        <v>1303</v>
+        <v>1582</v>
       </c>
       <c r="F579" s="3">
-        <v>43187</v>
+        <v>43168</v>
       </c>
       <c r="G579" s="3">
-        <v>43194</v>
+        <v>43178</v>
       </c>
       <c r="H579" t="s">
         <v>1454</v>
       </c>
       <c r="I579" s="1" t="s">
-        <v>1586</v>
+        <v>1572</v>
       </c>
     </row>
     <row r="580" spans="1:9" x14ac:dyDescent="0.25">
@@ -24905,28 +24917,28 @@
         <v>28</v>
       </c>
       <c r="B580" t="s">
-        <v>1587</v>
+        <v>1583</v>
       </c>
       <c r="C580" t="s">
-        <v>516</v>
+        <v>94</v>
       </c>
       <c r="D580" t="s">
-        <v>807</v>
+        <v>1584</v>
       </c>
       <c r="E580" t="s">
-        <v>1588</v>
+        <v>1585</v>
       </c>
       <c r="F580" s="3">
-        <v>43245</v>
+        <v>43187</v>
       </c>
       <c r="G580" s="3">
-        <v>43251</v>
+        <v>43194</v>
       </c>
       <c r="H580" t="s">
         <v>1454</v>
       </c>
       <c r="I580" s="1" t="s">
-        <v>1589</v>
+        <v>1586</v>
       </c>
     </row>
     <row r="581" spans="1:9" x14ac:dyDescent="0.25">
@@ -24934,28 +24946,28 @@
         <v>34</v>
       </c>
       <c r="B581" t="s">
-        <v>180</v>
+        <v>1302</v>
       </c>
       <c r="C581" t="s">
-        <v>269</v>
+        <v>544</v>
       </c>
       <c r="D581" t="s">
-        <v>181</v>
+        <v>498</v>
       </c>
       <c r="E581" t="s">
-        <v>1590</v>
+        <v>1303</v>
       </c>
       <c r="F581" s="3">
-        <v>43245</v>
+        <v>43187</v>
       </c>
       <c r="G581" s="3">
-        <v>43251</v>
+        <v>43194</v>
       </c>
       <c r="H581" t="s">
         <v>1454</v>
       </c>
       <c r="I581" s="1" t="s">
-        <v>1589</v>
+        <v>1586</v>
       </c>
     </row>
     <row r="582" spans="1:9" x14ac:dyDescent="0.25">
@@ -24963,28 +24975,28 @@
         <v>28</v>
       </c>
       <c r="B582" t="s">
-        <v>1591</v>
+        <v>1587</v>
       </c>
       <c r="C582" t="s">
-        <v>352</v>
+        <v>516</v>
       </c>
       <c r="D582" t="s">
-        <v>353</v>
+        <v>807</v>
       </c>
       <c r="E582" t="s">
-        <v>1592</v>
+        <v>1588</v>
       </c>
       <c r="F582" s="3">
+        <v>43245</v>
+      </c>
+      <c r="G582" s="3">
         <v>43251</v>
-      </c>
-      <c r="G582" s="3">
-        <v>43256</v>
       </c>
       <c r="H582" t="s">
         <v>1454</v>
       </c>
       <c r="I582" s="1" t="s">
-        <v>1593</v>
+        <v>1589</v>
       </c>
     </row>
     <row r="583" spans="1:9" x14ac:dyDescent="0.25">
@@ -24992,28 +25004,28 @@
         <v>34</v>
       </c>
       <c r="B583" t="s">
-        <v>1119</v>
+        <v>180</v>
       </c>
       <c r="C583" t="s">
-        <v>94</v>
+        <v>269</v>
       </c>
       <c r="D583" t="s">
-        <v>1121</v>
+        <v>181</v>
       </c>
       <c r="E583" t="s">
-        <v>1594</v>
+        <v>1590</v>
       </c>
       <c r="F583" s="3">
+        <v>43245</v>
+      </c>
+      <c r="G583" s="3">
         <v>43251</v>
-      </c>
-      <c r="G583" s="3">
-        <v>43256</v>
       </c>
       <c r="H583" t="s">
         <v>1454</v>
       </c>
       <c r="I583" s="1" t="s">
-        <v>1593</v>
+        <v>1589</v>
       </c>
     </row>
     <row r="584" spans="1:9" x14ac:dyDescent="0.25">
@@ -25021,28 +25033,28 @@
         <v>28</v>
       </c>
       <c r="B584" t="s">
-        <v>1595</v>
+        <v>1591</v>
       </c>
       <c r="C584" t="s">
-        <v>544</v>
+        <v>352</v>
       </c>
       <c r="D584" t="s">
-        <v>893</v>
+        <v>353</v>
       </c>
       <c r="E584" t="s">
-        <v>1596</v>
+        <v>1592</v>
       </c>
       <c r="F584" s="3">
-        <v>43255</v>
+        <v>43251</v>
       </c>
       <c r="G584" s="3">
-        <v>43258</v>
+        <v>43256</v>
       </c>
       <c r="H584" t="s">
         <v>1454</v>
       </c>
       <c r="I584" s="1" t="s">
-        <v>1597</v>
+        <v>1593</v>
       </c>
     </row>
     <row r="585" spans="1:9" x14ac:dyDescent="0.25">
@@ -25050,28 +25062,28 @@
         <v>34</v>
       </c>
       <c r="B585" t="s">
-        <v>1598</v>
+        <v>1119</v>
       </c>
       <c r="C585" t="s">
-        <v>433</v>
+        <v>94</v>
       </c>
       <c r="D585" t="s">
-        <v>451</v>
+        <v>1121</v>
       </c>
       <c r="E585" t="s">
-        <v>1599</v>
+        <v>1594</v>
       </c>
       <c r="F585" s="3">
-        <v>43255</v>
+        <v>43251</v>
       </c>
       <c r="G585" s="3">
-        <v>43258</v>
+        <v>43256</v>
       </c>
       <c r="H585" t="s">
         <v>1454</v>
       </c>
       <c r="I585" s="1" t="s">
-        <v>1597</v>
+        <v>1593</v>
       </c>
     </row>
     <row r="586" spans="1:9" x14ac:dyDescent="0.25">
@@ -25079,74 +25091,74 @@
         <v>28</v>
       </c>
       <c r="B586" t="s">
-        <v>1600</v>
+        <v>1595</v>
       </c>
       <c r="C586" t="s">
-        <v>728</v>
+        <v>544</v>
       </c>
       <c r="D586" t="s">
-        <v>317</v>
+        <v>893</v>
       </c>
       <c r="E586" t="s">
-        <v>1601</v>
+        <v>1596</v>
       </c>
       <c r="F586" s="3">
-        <v>43259</v>
+        <v>43255</v>
       </c>
       <c r="G586" s="3">
-        <v>43269</v>
+        <v>43258</v>
       </c>
       <c r="H586" t="s">
         <v>1454</v>
       </c>
       <c r="I586" s="1" t="s">
-        <v>1602</v>
+        <v>1597</v>
       </c>
     </row>
     <row r="587" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A587" t="s">
-        <v>28</v>
+        <v>34</v>
       </c>
       <c r="B587" t="s">
-        <v>1603</v>
+        <v>1598</v>
       </c>
       <c r="C587" t="s">
-        <v>544</v>
+        <v>433</v>
       </c>
       <c r="D587" t="s">
-        <v>26</v>
+        <v>451</v>
       </c>
       <c r="E587" t="s">
-        <v>141</v>
+        <v>1599</v>
       </c>
       <c r="F587" s="3">
-        <v>43259</v>
+        <v>43255</v>
       </c>
       <c r="G587" s="3">
-        <v>43269</v>
+        <v>43258</v>
       </c>
       <c r="H587" t="s">
         <v>1454</v>
       </c>
       <c r="I587" s="1" t="s">
-        <v>1602</v>
+        <v>1597</v>
       </c>
     </row>
     <row r="588" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A588" t="s">
-        <v>34</v>
+        <v>28</v>
       </c>
       <c r="B588" t="s">
-        <v>1368</v>
+        <v>1600</v>
       </c>
       <c r="C588" t="s">
-        <v>665</v>
+        <v>728</v>
       </c>
       <c r="D588" t="s">
-        <v>69</v>
+        <v>317</v>
       </c>
       <c r="E588" t="s">
-        <v>1369</v>
+        <v>1601</v>
       </c>
       <c r="F588" s="3">
         <v>43259</v>
@@ -25163,19 +25175,19 @@
     </row>
     <row r="589" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A589" t="s">
-        <v>34</v>
+        <v>28</v>
       </c>
       <c r="B589" t="s">
-        <v>1604</v>
+        <v>1603</v>
       </c>
       <c r="C589" t="s">
-        <v>728</v>
+        <v>544</v>
       </c>
       <c r="D589" t="s">
-        <v>329</v>
+        <v>26</v>
       </c>
       <c r="E589" t="s">
-        <v>375</v>
+        <v>141</v>
       </c>
       <c r="F589" s="3">
         <v>43259</v>
@@ -25192,31 +25204,31 @@
     </row>
     <row r="590" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A590" t="s">
-        <v>28</v>
+        <v>34</v>
       </c>
       <c r="B590" t="s">
-        <v>1605</v>
+        <v>1368</v>
       </c>
       <c r="C590" t="s">
-        <v>544</v>
+        <v>665</v>
       </c>
       <c r="D590" t="s">
-        <v>1606</v>
+        <v>69</v>
       </c>
       <c r="E590" t="s">
-        <v>1607</v>
+        <v>1369</v>
       </c>
       <c r="F590" s="3">
-        <v>43266</v>
+        <v>43259</v>
       </c>
       <c r="G590" s="3">
-        <v>43271</v>
+        <v>43269</v>
       </c>
       <c r="H590" t="s">
         <v>1454</v>
       </c>
       <c r="I590" s="1" t="s">
-        <v>1608</v>
+        <v>1602</v>
       </c>
     </row>
     <row r="591" spans="1:9" x14ac:dyDescent="0.25">
@@ -25224,28 +25236,28 @@
         <v>34</v>
       </c>
       <c r="B591" t="s">
-        <v>1609</v>
+        <v>1604</v>
       </c>
       <c r="C591" t="s">
-        <v>269</v>
+        <v>728</v>
       </c>
       <c r="D591" t="s">
-        <v>1610</v>
+        <v>329</v>
       </c>
       <c r="E591" t="s">
-        <v>1611</v>
+        <v>375</v>
       </c>
       <c r="F591" s="3">
-        <v>43266</v>
+        <v>43259</v>
       </c>
       <c r="G591" s="3">
-        <v>43271</v>
+        <v>43269</v>
       </c>
       <c r="H591" t="s">
         <v>1454</v>
       </c>
       <c r="I591" s="1" t="s">
-        <v>1608</v>
+        <v>1602</v>
       </c>
     </row>
     <row r="592" spans="1:9" x14ac:dyDescent="0.25">
@@ -25253,28 +25265,28 @@
         <v>28</v>
       </c>
       <c r="B592" t="s">
-        <v>1612</v>
+        <v>1605</v>
       </c>
       <c r="C592" t="s">
-        <v>665</v>
+        <v>544</v>
       </c>
       <c r="D592" t="s">
-        <v>1613</v>
+        <v>1606</v>
       </c>
       <c r="E592" t="s">
-        <v>1614</v>
+        <v>1607</v>
       </c>
       <c r="F592" s="3">
-        <v>43276</v>
+        <v>43266</v>
       </c>
       <c r="G592" s="3">
-        <v>43283</v>
+        <v>43271</v>
       </c>
       <c r="H592" t="s">
         <v>1454</v>
       </c>
       <c r="I592" s="1" t="s">
-        <v>1615</v>
+        <v>1608</v>
       </c>
     </row>
     <row r="593" spans="1:9" x14ac:dyDescent="0.25">
@@ -25282,28 +25294,28 @@
         <v>34</v>
       </c>
       <c r="B593" t="s">
-        <v>1616</v>
+        <v>1609</v>
       </c>
       <c r="C593" t="s">
-        <v>924</v>
+        <v>269</v>
       </c>
       <c r="D593" t="s">
-        <v>942</v>
+        <v>1610</v>
       </c>
       <c r="E593" t="s">
-        <v>471</v>
+        <v>1611</v>
       </c>
       <c r="F593" s="3">
-        <v>43276</v>
+        <v>43266</v>
       </c>
       <c r="G593" s="3">
-        <v>43283</v>
+        <v>43271</v>
       </c>
       <c r="H593" t="s">
         <v>1454</v>
       </c>
       <c r="I593" s="1" t="s">
-        <v>1615</v>
+        <v>1608</v>
       </c>
     </row>
     <row r="594" spans="1:9" x14ac:dyDescent="0.25">
@@ -25311,28 +25323,28 @@
         <v>28</v>
       </c>
       <c r="B594" t="s">
-        <v>1617</v>
+        <v>1612</v>
       </c>
       <c r="C594" t="s">
-        <v>544</v>
+        <v>665</v>
       </c>
       <c r="D594" t="s">
-        <v>776</v>
+        <v>1613</v>
       </c>
       <c r="E594" t="s">
-        <v>1618</v>
+        <v>1614</v>
       </c>
       <c r="F594" s="3">
-        <v>43335</v>
+        <v>43276</v>
       </c>
       <c r="G594" s="3">
-        <v>43340</v>
+        <v>43283</v>
       </c>
       <c r="H594" t="s">
         <v>1454</v>
       </c>
       <c r="I594" s="1" t="s">
-        <v>1619</v>
+        <v>1615</v>
       </c>
     </row>
     <row r="595" spans="1:9" x14ac:dyDescent="0.25">
@@ -25340,28 +25352,28 @@
         <v>34</v>
       </c>
       <c r="B595" t="s">
-        <v>1620</v>
+        <v>1616</v>
       </c>
       <c r="C595" t="s">
-        <v>1440</v>
+        <v>924</v>
       </c>
       <c r="D595" t="s">
-        <v>1621</v>
+        <v>942</v>
       </c>
       <c r="E595" t="s">
-        <v>301</v>
+        <v>471</v>
       </c>
       <c r="F595" s="3">
-        <v>43335</v>
+        <v>43276</v>
       </c>
       <c r="G595" s="3">
-        <v>43340</v>
+        <v>43283</v>
       </c>
       <c r="H595" t="s">
         <v>1454</v>
       </c>
       <c r="I595" s="1" t="s">
-        <v>1619</v>
+        <v>1615</v>
       </c>
     </row>
     <row r="596" spans="1:9" x14ac:dyDescent="0.25">
@@ -25369,28 +25381,28 @@
         <v>28</v>
       </c>
       <c r="B596" t="s">
-        <v>1622</v>
+        <v>1617</v>
       </c>
       <c r="C596" t="s">
-        <v>516</v>
+        <v>544</v>
       </c>
       <c r="D596" t="s">
-        <v>1021</v>
+        <v>776</v>
       </c>
       <c r="E596" t="s">
-        <v>1623</v>
+        <v>1618</v>
       </c>
       <c r="F596" s="3">
-        <v>43354</v>
+        <v>43335</v>
       </c>
       <c r="G596" s="3">
-        <v>43360</v>
+        <v>43340</v>
       </c>
       <c r="H596" t="s">
         <v>1454</v>
       </c>
       <c r="I596" s="1" t="s">
-        <v>1624</v>
+        <v>1619</v>
       </c>
     </row>
     <row r="597" spans="1:9" x14ac:dyDescent="0.25">
@@ -25398,28 +25410,28 @@
         <v>34</v>
       </c>
       <c r="B597" t="s">
-        <v>1625</v>
+        <v>1620</v>
       </c>
       <c r="C597" t="s">
-        <v>94</v>
+        <v>1440</v>
       </c>
       <c r="D597" t="s">
-        <v>420</v>
+        <v>1621</v>
       </c>
       <c r="E597" t="s">
-        <v>1626</v>
+        <v>301</v>
       </c>
       <c r="F597" s="3">
-        <v>43354</v>
+        <v>43335</v>
       </c>
       <c r="G597" s="3">
-        <v>43360</v>
+        <v>43340</v>
       </c>
       <c r="H597" t="s">
         <v>1454</v>
       </c>
       <c r="I597" s="1" t="s">
-        <v>1624</v>
+        <v>1619</v>
       </c>
     </row>
     <row r="598" spans="1:9" x14ac:dyDescent="0.25">
@@ -25427,28 +25439,28 @@
         <v>28</v>
       </c>
       <c r="B598" t="s">
-        <v>1627</v>
+        <v>1622</v>
       </c>
       <c r="C598" t="s">
-        <v>665</v>
+        <v>516</v>
       </c>
       <c r="D598" t="s">
-        <v>1628</v>
+        <v>1021</v>
       </c>
       <c r="E598" t="s">
-        <v>1629</v>
+        <v>1623</v>
       </c>
       <c r="F598" s="3">
-        <v>43368</v>
+        <v>43354</v>
       </c>
       <c r="G598" s="3">
-        <v>43374</v>
+        <v>43360</v>
       </c>
       <c r="H598" t="s">
         <v>1454</v>
       </c>
       <c r="I598" s="1" t="s">
-        <v>1630</v>
+        <v>1624</v>
       </c>
     </row>
     <row r="599" spans="1:9" x14ac:dyDescent="0.25">
@@ -25456,28 +25468,28 @@
         <v>34</v>
       </c>
       <c r="B599" t="s">
-        <v>1631</v>
+        <v>1625</v>
       </c>
       <c r="C599" t="s">
-        <v>728</v>
+        <v>94</v>
       </c>
       <c r="D599" t="s">
-        <v>848</v>
+        <v>420</v>
       </c>
       <c r="E599" t="s">
-        <v>1632</v>
+        <v>1626</v>
       </c>
       <c r="F599" s="3">
-        <v>43368</v>
+        <v>43354</v>
       </c>
       <c r="G599" s="3">
-        <v>43374</v>
+        <v>43360</v>
       </c>
       <c r="H599" t="s">
         <v>1454</v>
       </c>
       <c r="I599" s="1" t="s">
-        <v>1630</v>
+        <v>1624</v>
       </c>
     </row>
     <row r="600" spans="1:9" x14ac:dyDescent="0.25">
@@ -25485,28 +25497,28 @@
         <v>28</v>
       </c>
       <c r="B600" t="s">
-        <v>1633</v>
+        <v>1627</v>
       </c>
       <c r="C600" t="s">
-        <v>544</v>
+        <v>665</v>
       </c>
       <c r="D600" t="s">
-        <v>545</v>
+        <v>1628</v>
       </c>
       <c r="E600" t="s">
-        <v>1634</v>
+        <v>1629</v>
       </c>
       <c r="F600" s="3">
-        <v>43377</v>
+        <v>43368</v>
       </c>
       <c r="G600" s="3">
-        <v>43384</v>
+        <v>43374</v>
       </c>
       <c r="H600" t="s">
         <v>1454</v>
       </c>
       <c r="I600" s="1" t="s">
-        <v>1635</v>
+        <v>1630</v>
       </c>
     </row>
     <row r="601" spans="1:9" x14ac:dyDescent="0.25">
@@ -25514,28 +25526,28 @@
         <v>34</v>
       </c>
       <c r="B601" t="s">
-        <v>1636</v>
+        <v>1631</v>
       </c>
       <c r="C601" t="s">
-        <v>516</v>
+        <v>728</v>
       </c>
       <c r="D601" t="s">
-        <v>918</v>
+        <v>848</v>
       </c>
       <c r="E601" t="s">
-        <v>1637</v>
+        <v>1632</v>
       </c>
       <c r="F601" s="3">
-        <v>43377</v>
+        <v>43368</v>
       </c>
       <c r="G601" s="3">
-        <v>43384</v>
+        <v>43374</v>
       </c>
       <c r="H601" t="s">
         <v>1454</v>
       </c>
       <c r="I601" s="1" t="s">
-        <v>1635</v>
+        <v>1630</v>
       </c>
     </row>
     <row r="602" spans="1:9" x14ac:dyDescent="0.25">
@@ -25543,28 +25555,28 @@
         <v>28</v>
       </c>
       <c r="B602" t="s">
-        <v>1638</v>
+        <v>1633</v>
       </c>
       <c r="C602" t="s">
         <v>544</v>
       </c>
       <c r="D602" t="s">
-        <v>566</v>
+        <v>545</v>
       </c>
       <c r="E602" t="s">
-        <v>1639</v>
+        <v>1634</v>
       </c>
       <c r="F602" s="3">
-        <v>43403</v>
+        <v>43377</v>
       </c>
       <c r="G602" s="3">
-        <v>43410</v>
+        <v>43384</v>
       </c>
       <c r="H602" t="s">
         <v>1454</v>
       </c>
       <c r="I602" s="1" t="s">
-        <v>1640</v>
+        <v>1635</v>
       </c>
     </row>
     <row r="603" spans="1:9" x14ac:dyDescent="0.25">
@@ -25572,28 +25584,28 @@
         <v>34</v>
       </c>
       <c r="B603" t="s">
-        <v>1641</v>
+        <v>1636</v>
       </c>
       <c r="C603" t="s">
-        <v>544</v>
+        <v>516</v>
       </c>
       <c r="D603" t="s">
-        <v>545</v>
+        <v>918</v>
       </c>
       <c r="E603" t="s">
-        <v>1642</v>
+        <v>1637</v>
       </c>
       <c r="F603" s="3">
-        <v>43403</v>
+        <v>43377</v>
       </c>
       <c r="G603" s="3">
-        <v>43410</v>
+        <v>43384</v>
       </c>
       <c r="H603" t="s">
         <v>1454</v>
       </c>
       <c r="I603" s="1" t="s">
-        <v>1640</v>
+        <v>1635</v>
       </c>
     </row>
     <row r="604" spans="1:9" x14ac:dyDescent="0.25">
@@ -25601,28 +25613,28 @@
         <v>28</v>
       </c>
       <c r="B604" t="s">
-        <v>1643</v>
+        <v>1638</v>
       </c>
       <c r="C604" t="s">
         <v>544</v>
       </c>
       <c r="D604" t="s">
-        <v>26</v>
+        <v>566</v>
       </c>
       <c r="E604" t="s">
-        <v>1644</v>
+        <v>1639</v>
       </c>
       <c r="F604" s="3">
-        <v>43411</v>
+        <v>43403</v>
       </c>
       <c r="G604" s="3">
-        <v>43417</v>
+        <v>43410</v>
       </c>
       <c r="H604" t="s">
         <v>1454</v>
       </c>
       <c r="I604" s="1" t="s">
-        <v>1645</v>
+        <v>1640</v>
       </c>
     </row>
     <row r="605" spans="1:9" x14ac:dyDescent="0.25">
@@ -25630,28 +25642,28 @@
         <v>34</v>
       </c>
       <c r="B605" t="s">
-        <v>1646</v>
+        <v>1641</v>
       </c>
       <c r="C605" t="s">
-        <v>728</v>
+        <v>544</v>
       </c>
       <c r="D605" t="s">
-        <v>329</v>
+        <v>545</v>
       </c>
       <c r="E605" t="s">
-        <v>540</v>
+        <v>1642</v>
       </c>
       <c r="F605" s="3">
-        <v>43411</v>
+        <v>43403</v>
       </c>
       <c r="G605" s="3">
-        <v>43417</v>
+        <v>43410</v>
       </c>
       <c r="H605" t="s">
         <v>1454</v>
       </c>
       <c r="I605" s="1" t="s">
-        <v>1645</v>
+        <v>1640</v>
       </c>
     </row>
     <row r="606" spans="1:9" x14ac:dyDescent="0.25">
@@ -25659,57 +25671,57 @@
         <v>28</v>
       </c>
       <c r="B606" t="s">
-        <v>1647</v>
+        <v>1643</v>
       </c>
       <c r="C606" t="s">
-        <v>924</v>
+        <v>544</v>
       </c>
       <c r="D606" t="s">
-        <v>946</v>
+        <v>26</v>
       </c>
       <c r="E606" t="s">
-        <v>1648</v>
+        <v>1644</v>
       </c>
       <c r="F606" s="3">
-        <v>43430</v>
+        <v>43411</v>
       </c>
       <c r="G606" s="3">
-        <v>43437</v>
+        <v>43417</v>
       </c>
       <c r="H606" t="s">
         <v>1454</v>
       </c>
       <c r="I606" s="1" t="s">
-        <v>1649</v>
+        <v>1645</v>
       </c>
     </row>
     <row r="607" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A607" t="s">
-        <v>28</v>
+        <v>34</v>
       </c>
       <c r="B607" t="s">
-        <v>1650</v>
+        <v>1646</v>
       </c>
       <c r="C607" t="s">
-        <v>544</v>
+        <v>728</v>
       </c>
       <c r="D607" t="s">
-        <v>866</v>
+        <v>329</v>
       </c>
       <c r="E607" t="s">
-        <v>320</v>
+        <v>540</v>
       </c>
       <c r="F607" s="3">
-        <v>43430</v>
+        <v>43411</v>
       </c>
       <c r="G607" s="3">
-        <v>43437</v>
+        <v>43417</v>
       </c>
       <c r="H607" t="s">
         <v>1454</v>
       </c>
       <c r="I607" s="1" t="s">
-        <v>1649</v>
+        <v>1645</v>
       </c>
     </row>
     <row r="608" spans="1:9" x14ac:dyDescent="0.25">
@@ -25717,16 +25729,16 @@
         <v>28</v>
       </c>
       <c r="B608" t="s">
-        <v>1651</v>
+        <v>1647</v>
       </c>
       <c r="C608" t="s">
-        <v>728</v>
+        <v>924</v>
       </c>
       <c r="D608" t="s">
-        <v>751</v>
+        <v>946</v>
       </c>
       <c r="E608" t="s">
-        <v>1652</v>
+        <v>1648</v>
       </c>
       <c r="F608" s="3">
         <v>43430</v>
@@ -25743,19 +25755,19 @@
     </row>
     <row r="609" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A609" t="s">
-        <v>34</v>
+        <v>28</v>
       </c>
       <c r="B609" t="s">
-        <v>1653</v>
+        <v>1650</v>
       </c>
       <c r="C609" t="s">
-        <v>665</v>
+        <v>544</v>
       </c>
       <c r="D609" t="s">
-        <v>956</v>
+        <v>866</v>
       </c>
       <c r="E609" t="s">
-        <v>1654</v>
+        <v>320</v>
       </c>
       <c r="F609" s="3">
         <v>43430</v>
@@ -25772,19 +25784,19 @@
     </row>
     <row r="610" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A610" t="s">
-        <v>34</v>
+        <v>28</v>
       </c>
       <c r="B610" t="s">
-        <v>1655</v>
+        <v>1651</v>
       </c>
       <c r="C610" t="s">
-        <v>516</v>
+        <v>728</v>
       </c>
       <c r="D610" t="s">
-        <v>1021</v>
+        <v>751</v>
       </c>
       <c r="E610" t="s">
-        <v>1656</v>
+        <v>1652</v>
       </c>
       <c r="F610" s="3">
         <v>43430</v>
@@ -25804,16 +25816,16 @@
         <v>34</v>
       </c>
       <c r="B611" t="s">
-        <v>1657</v>
+        <v>1653</v>
       </c>
       <c r="C611" t="s">
         <v>665</v>
       </c>
       <c r="D611" t="s">
-        <v>1628</v>
+        <v>956</v>
       </c>
       <c r="E611" t="s">
-        <v>520</v>
+        <v>1654</v>
       </c>
       <c r="F611" s="3">
         <v>43430</v>
@@ -25830,31 +25842,31 @@
     </row>
     <row r="612" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A612" t="s">
-        <v>28</v>
+        <v>34</v>
       </c>
       <c r="B612" t="s">
-        <v>1658</v>
+        <v>1655</v>
       </c>
       <c r="C612" t="s">
-        <v>433</v>
+        <v>516</v>
       </c>
       <c r="D612" t="s">
-        <v>959</v>
+        <v>1021</v>
       </c>
       <c r="E612" t="s">
-        <v>27</v>
+        <v>1656</v>
       </c>
       <c r="F612" s="3">
-        <v>43453</v>
+        <v>43430</v>
       </c>
       <c r="G612" s="3">
-        <v>43458</v>
+        <v>43437</v>
       </c>
       <c r="H612" t="s">
         <v>1454</v>
       </c>
       <c r="I612" s="1" t="s">
-        <v>1659</v>
+        <v>1649</v>
       </c>
     </row>
     <row r="613" spans="1:9" x14ac:dyDescent="0.25">
@@ -25862,28 +25874,28 @@
         <v>34</v>
       </c>
       <c r="B613" t="s">
-        <v>1660</v>
+        <v>1657</v>
       </c>
       <c r="C613" t="s">
-        <v>516</v>
+        <v>665</v>
       </c>
       <c r="D613" t="s">
-        <v>918</v>
+        <v>1628</v>
       </c>
       <c r="E613" t="s">
-        <v>1661</v>
+        <v>520</v>
       </c>
       <c r="F613" s="3">
-        <v>43453</v>
+        <v>43430</v>
       </c>
       <c r="G613" s="3">
-        <v>43458</v>
+        <v>43437</v>
       </c>
       <c r="H613" t="s">
         <v>1454</v>
       </c>
-      <c r="I613" s="2" t="s">
-        <v>1659</v>
+      <c r="I613" s="1" t="s">
+        <v>1649</v>
       </c>
     </row>
     <row r="614" spans="1:9" x14ac:dyDescent="0.25">
@@ -25891,28 +25903,28 @@
         <v>28</v>
       </c>
       <c r="B614" t="s">
-        <v>1662</v>
+        <v>1658</v>
       </c>
       <c r="C614" t="s">
-        <v>94</v>
+        <v>433</v>
       </c>
       <c r="D614" t="s">
-        <v>859</v>
+        <v>959</v>
       </c>
       <c r="E614" t="s">
-        <v>1663</v>
+        <v>27</v>
       </c>
       <c r="F614" s="3">
-        <v>43461</v>
+        <v>43453</v>
       </c>
       <c r="G614" s="3">
-        <v>43467</v>
+        <v>43458</v>
       </c>
       <c r="H614" t="s">
         <v>1454</v>
       </c>
-      <c r="I614" s="2" t="s">
-        <v>1664</v>
+      <c r="I614" s="1" t="s">
+        <v>1659</v>
       </c>
     </row>
     <row r="615" spans="1:9" x14ac:dyDescent="0.25">
@@ -25920,28 +25932,28 @@
         <v>34</v>
       </c>
       <c r="B615" t="s">
-        <v>563</v>
+        <v>1660</v>
       </c>
       <c r="C615" t="s">
-        <v>352</v>
+        <v>516</v>
       </c>
       <c r="D615" t="s">
-        <v>1241</v>
+        <v>918</v>
       </c>
       <c r="E615" t="s">
-        <v>564</v>
+        <v>1661</v>
       </c>
       <c r="F615" s="3">
-        <v>43461</v>
+        <v>43453</v>
       </c>
       <c r="G615" s="3">
-        <v>43467</v>
+        <v>43458</v>
       </c>
       <c r="H615" t="s">
         <v>1454</v>
       </c>
-      <c r="I615" s="1" t="s">
-        <v>1664</v>
+      <c r="I615" s="2" t="s">
+        <v>1659</v>
       </c>
     </row>
     <row r="616" spans="1:9" x14ac:dyDescent="0.25">
@@ -25949,28 +25961,28 @@
         <v>28</v>
       </c>
       <c r="B616" t="s">
-        <v>1665</v>
+        <v>1662</v>
       </c>
       <c r="C616" t="s">
-        <v>516</v>
+        <v>94</v>
       </c>
       <c r="D616" t="s">
-        <v>807</v>
+        <v>859</v>
       </c>
       <c r="E616" t="s">
-        <v>1666</v>
+        <v>1663</v>
       </c>
       <c r="F616" s="3">
-        <v>43480</v>
+        <v>43461</v>
       </c>
       <c r="G616" s="3">
-        <v>43483</v>
+        <v>43467</v>
       </c>
       <c r="H616" t="s">
         <v>1454</v>
       </c>
-      <c r="I616" s="1" t="s">
-        <v>1667</v>
+      <c r="I616" s="2" t="s">
+        <v>1664</v>
       </c>
     </row>
     <row r="617" spans="1:9" x14ac:dyDescent="0.25">
@@ -25978,28 +25990,28 @@
         <v>34</v>
       </c>
       <c r="B617" t="s">
-        <v>1668</v>
+        <v>563</v>
       </c>
       <c r="C617" t="s">
         <v>352</v>
       </c>
       <c r="D617" t="s">
-        <v>353</v>
+        <v>1241</v>
       </c>
       <c r="E617" t="s">
-        <v>1669</v>
+        <v>564</v>
       </c>
       <c r="F617" s="3">
-        <v>43480</v>
+        <v>43461</v>
       </c>
       <c r="G617" s="3">
-        <v>43483</v>
+        <v>43467</v>
       </c>
       <c r="H617" t="s">
         <v>1454</v>
       </c>
       <c r="I617" s="1" t="s">
-        <v>1667</v>
+        <v>1664</v>
       </c>
     </row>
     <row r="618" spans="1:9" x14ac:dyDescent="0.25">
@@ -26007,28 +26019,28 @@
         <v>28</v>
       </c>
       <c r="B618" t="s">
-        <v>1670</v>
+        <v>1665</v>
       </c>
       <c r="C618" t="s">
-        <v>352</v>
+        <v>516</v>
       </c>
       <c r="D618" t="s">
-        <v>757</v>
+        <v>807</v>
       </c>
       <c r="E618" t="s">
-        <v>1671</v>
+        <v>1666</v>
       </c>
       <c r="F618" s="3">
-        <v>43504</v>
+        <v>43480</v>
       </c>
       <c r="G618" s="3">
-        <v>43511</v>
+        <v>43483</v>
       </c>
       <c r="H618" t="s">
         <v>1454</v>
       </c>
       <c r="I618" s="1" t="s">
-        <v>1672</v>
+        <v>1667</v>
       </c>
     </row>
     <row r="619" spans="1:9" x14ac:dyDescent="0.25">
@@ -26036,28 +26048,28 @@
         <v>34</v>
       </c>
       <c r="B619" t="s">
-        <v>781</v>
+        <v>1668</v>
       </c>
       <c r="C619" t="s">
-        <v>728</v>
+        <v>352</v>
       </c>
       <c r="D619" t="s">
-        <v>329</v>
+        <v>353</v>
       </c>
       <c r="E619" t="s">
-        <v>782</v>
+        <v>1669</v>
       </c>
       <c r="F619" s="3">
-        <v>43504</v>
+        <v>43480</v>
       </c>
       <c r="G619" s="3">
-        <v>43511</v>
+        <v>43483</v>
       </c>
       <c r="H619" t="s">
         <v>1454</v>
       </c>
       <c r="I619" s="1" t="s">
-        <v>1672</v>
+        <v>1667</v>
       </c>
     </row>
     <row r="620" spans="1:9" x14ac:dyDescent="0.25">
@@ -26065,28 +26077,28 @@
         <v>28</v>
       </c>
       <c r="B620" t="s">
-        <v>1673</v>
+        <v>1670</v>
       </c>
       <c r="C620" t="s">
-        <v>665</v>
+        <v>352</v>
       </c>
       <c r="D620" t="s">
-        <v>1282</v>
+        <v>757</v>
       </c>
       <c r="E620" t="s">
-        <v>1674</v>
+        <v>1671</v>
       </c>
       <c r="F620" s="3">
-        <v>43517</v>
+        <v>43504</v>
       </c>
       <c r="G620" s="3">
-        <v>43523</v>
+        <v>43511</v>
       </c>
       <c r="H620" t="s">
         <v>1454</v>
       </c>
       <c r="I620" s="1" t="s">
-        <v>1675</v>
+        <v>1672</v>
       </c>
     </row>
     <row r="621" spans="1:9" x14ac:dyDescent="0.25">
@@ -26094,28 +26106,28 @@
         <v>34</v>
       </c>
       <c r="B621" t="s">
-        <v>1676</v>
+        <v>781</v>
       </c>
       <c r="C621" t="s">
-        <v>269</v>
+        <v>728</v>
       </c>
       <c r="D621" t="s">
-        <v>1677</v>
+        <v>329</v>
       </c>
       <c r="E621" t="s">
-        <v>1678</v>
+        <v>782</v>
       </c>
       <c r="F621" s="3">
-        <v>43517</v>
+        <v>43504</v>
       </c>
       <c r="G621" s="3">
-        <v>43523</v>
+        <v>43511</v>
       </c>
       <c r="H621" t="s">
         <v>1454</v>
       </c>
       <c r="I621" s="1" t="s">
-        <v>1675</v>
+        <v>1672</v>
       </c>
     </row>
     <row r="622" spans="1:9" x14ac:dyDescent="0.25">
@@ -26123,80 +26135,80 @@
         <v>28</v>
       </c>
       <c r="B622" t="s">
-        <v>1679</v>
+        <v>1673</v>
       </c>
       <c r="C622" t="s">
-        <v>1680</v>
+        <v>665</v>
       </c>
       <c r="D622" t="s">
-        <v>1681</v>
+        <v>1282</v>
       </c>
       <c r="E622" t="s">
-        <v>1682</v>
+        <v>1674</v>
       </c>
       <c r="F622" s="3">
-        <v>43538</v>
+        <v>43517</v>
       </c>
       <c r="G622" s="3">
-        <v>43543</v>
+        <v>43523</v>
       </c>
       <c r="H622" t="s">
         <v>1454</v>
       </c>
       <c r="I622" s="1" t="s">
-        <v>1683</v>
+        <v>1675</v>
       </c>
     </row>
     <row r="623" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A623" t="s">
-        <v>28</v>
+        <v>34</v>
       </c>
       <c r="B623" t="s">
-        <v>1679</v>
+        <v>1676</v>
       </c>
       <c r="C623" t="s">
-        <v>1680</v>
+        <v>269</v>
       </c>
       <c r="D623" t="s">
-        <v>1681</v>
+        <v>1677</v>
       </c>
       <c r="E623" t="s">
-        <v>1684</v>
+        <v>1678</v>
       </c>
       <c r="F623" s="3">
-        <v>43538</v>
+        <v>43517</v>
       </c>
       <c r="G623" s="3">
-        <v>43543</v>
+        <v>43523</v>
       </c>
       <c r="H623" t="s">
         <v>1454</v>
       </c>
       <c r="I623" s="1" t="s">
-        <v>1683</v>
+        <v>1675</v>
       </c>
     </row>
     <row r="624" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A624" t="s">
-        <v>34</v>
+        <v>28</v>
       </c>
       <c r="B624" t="s">
-        <v>1685</v>
+        <v>1679</v>
       </c>
       <c r="C624" t="s">
         <v>1680</v>
       </c>
       <c r="D624" t="s">
-        <v>1610</v>
+        <v>1681</v>
       </c>
       <c r="E624" t="s">
-        <v>1686</v>
+        <v>1682</v>
       </c>
       <c r="F624" s="3">
         <v>43538</v>
       </c>
       <c r="G624" s="3">
-        <v>43544</v>
+        <v>43543</v>
       </c>
       <c r="H624" t="s">
         <v>1454</v>
@@ -26207,25 +26219,25 @@
     </row>
     <row r="625" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A625" t="s">
-        <v>34</v>
+        <v>28</v>
       </c>
       <c r="B625" t="s">
-        <v>1685</v>
+        <v>1679</v>
       </c>
       <c r="C625" t="s">
         <v>1680</v>
       </c>
       <c r="D625" t="s">
-        <v>1610</v>
+        <v>1681</v>
       </c>
       <c r="E625" t="s">
-        <v>1687</v>
+        <v>1684</v>
       </c>
       <c r="F625" s="3">
         <v>43538</v>
       </c>
       <c r="G625" s="3">
-        <v>43544</v>
+        <v>43543</v>
       </c>
       <c r="H625" t="s">
         <v>1454</v>
@@ -26236,31 +26248,31 @@
     </row>
     <row r="626" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A626" t="s">
-        <v>28</v>
+        <v>34</v>
       </c>
       <c r="B626" t="s">
-        <v>1688</v>
+        <v>1685</v>
       </c>
       <c r="C626" t="s">
-        <v>433</v>
+        <v>1680</v>
       </c>
       <c r="D626" t="s">
-        <v>1689</v>
+        <v>1610</v>
       </c>
       <c r="E626" t="s">
-        <v>1690</v>
+        <v>1686</v>
       </c>
       <c r="F626" s="3">
-        <v>43550</v>
+        <v>43538</v>
       </c>
       <c r="G626" s="3">
-        <v>43557</v>
+        <v>43544</v>
       </c>
       <c r="H626" t="s">
         <v>1454</v>
       </c>
       <c r="I626" s="1" t="s">
-        <v>1691</v>
+        <v>1683</v>
       </c>
     </row>
     <row r="627" spans="1:9" x14ac:dyDescent="0.25">
@@ -26268,28 +26280,28 @@
         <v>34</v>
       </c>
       <c r="B627" t="s">
-        <v>1692</v>
+        <v>1685</v>
       </c>
       <c r="C627" t="s">
-        <v>94</v>
+        <v>1680</v>
       </c>
       <c r="D627" t="s">
-        <v>1538</v>
+        <v>1610</v>
       </c>
       <c r="E627" t="s">
-        <v>1539</v>
+        <v>1687</v>
       </c>
       <c r="F627" s="3">
-        <v>43550</v>
+        <v>43538</v>
       </c>
       <c r="G627" s="3">
-        <v>43558</v>
+        <v>43544</v>
       </c>
       <c r="H627" t="s">
         <v>1454</v>
       </c>
       <c r="I627" s="1" t="s">
-        <v>1691</v>
+        <v>1683</v>
       </c>
     </row>
     <row r="628" spans="1:9" x14ac:dyDescent="0.25">
@@ -26297,28 +26309,28 @@
         <v>28</v>
       </c>
       <c r="B628" t="s">
-        <v>1693</v>
+        <v>1688</v>
       </c>
       <c r="C628" t="s">
         <v>433</v>
       </c>
       <c r="D628" t="s">
-        <v>1694</v>
+        <v>1689</v>
       </c>
       <c r="E628" t="s">
-        <v>1695</v>
+        <v>1690</v>
       </c>
       <c r="F628" s="3">
-        <v>43613</v>
+        <v>43550</v>
       </c>
       <c r="G628" s="3">
-        <v>43619</v>
+        <v>43557</v>
       </c>
       <c r="H628" t="s">
         <v>1454</v>
       </c>
       <c r="I628" s="1" t="s">
-        <v>1696</v>
+        <v>1691</v>
       </c>
     </row>
     <row r="629" spans="1:9" x14ac:dyDescent="0.25">
@@ -26326,28 +26338,28 @@
         <v>34</v>
       </c>
       <c r="B629" t="s">
-        <v>1697</v>
+        <v>1692</v>
       </c>
       <c r="C629" t="s">
-        <v>665</v>
+        <v>94</v>
       </c>
       <c r="D629" t="s">
-        <v>1698</v>
+        <v>1538</v>
       </c>
       <c r="E629" t="s">
-        <v>1699</v>
+        <v>1539</v>
       </c>
       <c r="F629" s="3">
-        <v>43613</v>
+        <v>43550</v>
       </c>
       <c r="G629" s="3">
-        <v>43620</v>
+        <v>43558</v>
       </c>
       <c r="H629" t="s">
         <v>1454</v>
       </c>
       <c r="I629" s="1" t="s">
-        <v>1696</v>
+        <v>1691</v>
       </c>
     </row>
     <row r="630" spans="1:9" x14ac:dyDescent="0.25">
@@ -26355,28 +26367,28 @@
         <v>28</v>
       </c>
       <c r="B630" t="s">
-        <v>1184</v>
+        <v>1693</v>
       </c>
       <c r="C630" t="s">
         <v>433</v>
       </c>
       <c r="D630" t="s">
-        <v>1185</v>
+        <v>1694</v>
       </c>
       <c r="E630" t="s">
-        <v>1186</v>
+        <v>1695</v>
       </c>
       <c r="F630" s="3">
+        <v>43613</v>
+      </c>
+      <c r="G630" s="3">
         <v>43619</v>
-      </c>
-      <c r="G630" s="3">
-        <v>43623</v>
       </c>
       <c r="H630" t="s">
         <v>1454</v>
       </c>
       <c r="I630" s="1" t="s">
-        <v>1700</v>
+        <v>1696</v>
       </c>
     </row>
     <row r="631" spans="1:9" x14ac:dyDescent="0.25">
@@ -26384,28 +26396,28 @@
         <v>34</v>
       </c>
       <c r="B631" t="s">
-        <v>1701</v>
+        <v>1697</v>
       </c>
       <c r="C631" t="s">
-        <v>269</v>
+        <v>665</v>
       </c>
       <c r="D631" t="s">
-        <v>1702</v>
+        <v>1698</v>
       </c>
       <c r="E631" t="s">
-        <v>1703</v>
+        <v>1699</v>
       </c>
       <c r="F631" s="3">
-        <v>43619</v>
+        <v>43613</v>
       </c>
       <c r="G631" s="3">
-        <v>43623</v>
+        <v>43620</v>
       </c>
       <c r="H631" t="s">
         <v>1454</v>
       </c>
       <c r="I631" s="1" t="s">
-        <v>1700</v>
+        <v>1696</v>
       </c>
     </row>
     <row r="632" spans="1:9" x14ac:dyDescent="0.25">
@@ -26413,28 +26425,28 @@
         <v>28</v>
       </c>
       <c r="B632" t="s">
-        <v>1704</v>
+        <v>1184</v>
       </c>
       <c r="C632" t="s">
-        <v>94</v>
+        <v>433</v>
       </c>
       <c r="D632" t="s">
-        <v>1584</v>
+        <v>1185</v>
       </c>
       <c r="E632" t="s">
-        <v>1705</v>
+        <v>1186</v>
       </c>
       <c r="F632" s="3">
-        <v>43640</v>
+        <v>43619</v>
       </c>
       <c r="G632" s="3">
-        <v>43647</v>
+        <v>43623</v>
       </c>
       <c r="H632" t="s">
-        <v>1475</v>
+        <v>1454</v>
       </c>
       <c r="I632" s="1" t="s">
-        <v>1706</v>
+        <v>1700</v>
       </c>
     </row>
     <row r="633" spans="1:9" x14ac:dyDescent="0.25">
@@ -26442,28 +26454,28 @@
         <v>34</v>
       </c>
       <c r="B633" t="s">
-        <v>1707</v>
+        <v>1701</v>
       </c>
       <c r="C633" t="s">
-        <v>665</v>
+        <v>269</v>
       </c>
       <c r="D633" t="s">
-        <v>956</v>
+        <v>1702</v>
       </c>
       <c r="E633" t="s">
-        <v>1708</v>
+        <v>1703</v>
       </c>
       <c r="F633" s="3">
-        <v>43640</v>
+        <v>43619</v>
       </c>
       <c r="G633" s="3">
-        <v>43647</v>
+        <v>43623</v>
       </c>
       <c r="H633" t="s">
-        <v>1475</v>
-      </c>
-      <c r="I633" s="2" t="s">
-        <v>1706</v>
+        <v>1454</v>
+      </c>
+      <c r="I633" s="1" t="s">
+        <v>1700</v>
       </c>
     </row>
     <row r="634" spans="1:9" x14ac:dyDescent="0.25">
@@ -26471,28 +26483,28 @@
         <v>28</v>
       </c>
       <c r="B634" t="s">
-        <v>1709</v>
+        <v>1704</v>
       </c>
       <c r="C634" t="s">
-        <v>1680</v>
+        <v>94</v>
       </c>
       <c r="D634" t="s">
-        <v>907</v>
+        <v>1584</v>
       </c>
       <c r="E634" t="s">
-        <v>1710</v>
+        <v>1705</v>
       </c>
       <c r="F634" s="3">
-        <v>43655</v>
+        <v>43640</v>
       </c>
       <c r="G634" s="3">
-        <v>43661</v>
+        <v>43647</v>
       </c>
       <c r="H634" t="s">
-        <v>1454</v>
+        <v>1475</v>
       </c>
       <c r="I634" s="1" t="s">
-        <v>1711</v>
+        <v>1706</v>
       </c>
     </row>
     <row r="635" spans="1:9" x14ac:dyDescent="0.25">
@@ -26500,28 +26512,28 @@
         <v>34</v>
       </c>
       <c r="B635" t="s">
-        <v>1712</v>
+        <v>1707</v>
       </c>
       <c r="C635" t="s">
-        <v>544</v>
+        <v>665</v>
       </c>
       <c r="D635" t="s">
-        <v>545</v>
+        <v>956</v>
       </c>
       <c r="E635" t="s">
-        <v>1713</v>
+        <v>1708</v>
       </c>
       <c r="F635" s="3">
-        <v>43655</v>
+        <v>43640</v>
       </c>
       <c r="G635" s="3">
-        <v>43661</v>
+        <v>43647</v>
       </c>
       <c r="H635" t="s">
-        <v>1454</v>
-      </c>
-      <c r="I635" s="1" t="s">
-        <v>1711</v>
+        <v>1475</v>
+      </c>
+      <c r="I635" s="2" t="s">
+        <v>1706</v>
       </c>
     </row>
     <row r="636" spans="1:9" x14ac:dyDescent="0.25">
@@ -26529,74 +26541,74 @@
         <v>28</v>
       </c>
       <c r="B636" t="s">
-        <v>1714</v>
+        <v>1709</v>
       </c>
       <c r="C636" t="s">
-        <v>544</v>
+        <v>1680</v>
       </c>
       <c r="D636" t="s">
-        <v>498</v>
+        <v>907</v>
       </c>
       <c r="E636" t="s">
-        <v>1715</v>
+        <v>1710</v>
       </c>
       <c r="F636" s="3">
-        <v>43678</v>
+        <v>43655</v>
       </c>
       <c r="G636" s="3">
-        <v>43686</v>
+        <v>43661</v>
       </c>
       <c r="H636" t="s">
         <v>1454</v>
       </c>
       <c r="I636" s="1" t="s">
-        <v>1716</v>
+        <v>1711</v>
       </c>
     </row>
     <row r="637" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A637" t="s">
-        <v>28</v>
+        <v>34</v>
       </c>
       <c r="B637" t="s">
-        <v>1717</v>
+        <v>1712</v>
       </c>
       <c r="C637" t="s">
-        <v>665</v>
+        <v>544</v>
       </c>
       <c r="D637" t="s">
-        <v>765</v>
+        <v>545</v>
       </c>
       <c r="E637" t="s">
-        <v>1718</v>
+        <v>1713</v>
       </c>
       <c r="F637" s="3">
-        <v>43678</v>
+        <v>43655</v>
       </c>
       <c r="G637" s="3">
-        <v>43686</v>
+        <v>43661</v>
       </c>
       <c r="H637" t="s">
         <v>1454</v>
       </c>
       <c r="I637" s="1" t="s">
-        <v>1716</v>
+        <v>1711</v>
       </c>
     </row>
     <row r="638" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A638" t="s">
-        <v>34</v>
+        <v>28</v>
       </c>
       <c r="B638" t="s">
-        <v>1719</v>
+        <v>1714</v>
       </c>
       <c r="C638" t="s">
-        <v>728</v>
+        <v>544</v>
       </c>
       <c r="D638" t="s">
-        <v>329</v>
+        <v>498</v>
       </c>
       <c r="E638" t="s">
-        <v>1720</v>
+        <v>1715</v>
       </c>
       <c r="F638" s="3">
         <v>43678</v>
@@ -26613,19 +26625,19 @@
     </row>
     <row r="639" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A639" t="s">
-        <v>34</v>
+        <v>28</v>
       </c>
       <c r="B639" t="s">
-        <v>1352</v>
+        <v>1717</v>
       </c>
       <c r="C639" t="s">
-        <v>269</v>
+        <v>665</v>
       </c>
       <c r="D639" t="s">
-        <v>1098</v>
+        <v>765</v>
       </c>
       <c r="E639" t="s">
-        <v>1353</v>
+        <v>1718</v>
       </c>
       <c r="F639" s="3">
         <v>43678</v>
@@ -26642,31 +26654,31 @@
     </row>
     <row r="640" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A640" t="s">
-        <v>28</v>
+        <v>34</v>
       </c>
       <c r="B640" t="s">
-        <v>1721</v>
+        <v>1719</v>
       </c>
       <c r="C640" t="s">
-        <v>544</v>
+        <v>728</v>
       </c>
       <c r="D640" t="s">
-        <v>1722</v>
+        <v>329</v>
       </c>
       <c r="E640" t="s">
-        <v>1723</v>
+        <v>1720</v>
       </c>
       <c r="F640" s="3">
-        <v>43725</v>
+        <v>43678</v>
       </c>
       <c r="G640" s="3">
-        <v>43731</v>
+        <v>43686</v>
       </c>
       <c r="H640" t="s">
         <v>1454</v>
       </c>
       <c r="I640" s="1" t="s">
-        <v>1724</v>
+        <v>1716</v>
       </c>
     </row>
     <row r="641" spans="1:9" x14ac:dyDescent="0.25">
@@ -26674,28 +26686,28 @@
         <v>34</v>
       </c>
       <c r="B641" t="s">
-        <v>1725</v>
+        <v>1352</v>
       </c>
       <c r="C641" t="s">
-        <v>544</v>
+        <v>269</v>
       </c>
       <c r="D641" t="s">
-        <v>1090</v>
+        <v>1098</v>
       </c>
       <c r="E641" t="s">
-        <v>1726</v>
+        <v>1353</v>
       </c>
       <c r="F641" s="3">
-        <v>43725</v>
+        <v>43678</v>
       </c>
       <c r="G641" s="3">
-        <v>43731</v>
+        <v>43686</v>
       </c>
       <c r="H641" t="s">
         <v>1454</v>
       </c>
-      <c r="I641" s="2" t="s">
-        <v>1724</v>
+      <c r="I641" s="1" t="s">
+        <v>1716</v>
       </c>
     </row>
     <row r="642" spans="1:9" x14ac:dyDescent="0.25">
@@ -26703,28 +26715,28 @@
         <v>28</v>
       </c>
       <c r="B642" t="s">
-        <v>1727</v>
+        <v>1721</v>
       </c>
       <c r="C642" t="s">
-        <v>269</v>
+        <v>544</v>
       </c>
       <c r="D642" t="s">
-        <v>1728</v>
+        <v>1722</v>
       </c>
       <c r="E642" t="s">
-        <v>1729</v>
+        <v>1723</v>
       </c>
       <c r="F642" s="3">
-        <v>43728</v>
+        <v>43725</v>
       </c>
       <c r="G642" s="3">
-        <v>43734</v>
+        <v>43731</v>
       </c>
       <c r="H642" t="s">
         <v>1454</v>
       </c>
-      <c r="I642" s="2" t="s">
-        <v>1730</v>
+      <c r="I642" s="1" t="s">
+        <v>1724</v>
       </c>
     </row>
     <row r="643" spans="1:9" x14ac:dyDescent="0.25">
@@ -26732,28 +26744,28 @@
         <v>34</v>
       </c>
       <c r="B643" t="s">
-        <v>1731</v>
+        <v>1725</v>
       </c>
       <c r="C643" t="s">
-        <v>94</v>
+        <v>544</v>
       </c>
       <c r="D643" t="s">
-        <v>1732</v>
+        <v>1090</v>
       </c>
       <c r="E643" t="s">
-        <v>1733</v>
+        <v>1726</v>
       </c>
       <c r="F643" s="3">
-        <v>43728</v>
+        <v>43725</v>
       </c>
       <c r="G643" s="3">
-        <v>43734</v>
+        <v>43731</v>
       </c>
       <c r="H643" t="s">
         <v>1454</v>
       </c>
-      <c r="I643" s="1" t="s">
-        <v>1730</v>
+      <c r="I643" s="2" t="s">
+        <v>1724</v>
       </c>
     </row>
     <row r="644" spans="1:9" x14ac:dyDescent="0.25">
@@ -26761,28 +26773,28 @@
         <v>28</v>
       </c>
       <c r="B644" t="s">
-        <v>1734</v>
+        <v>1727</v>
       </c>
       <c r="C644" t="s">
         <v>269</v>
       </c>
       <c r="D644" t="s">
-        <v>1141</v>
+        <v>1728</v>
       </c>
       <c r="E644" t="s">
-        <v>1735</v>
+        <v>1729</v>
       </c>
       <c r="F644" s="3">
+        <v>43728</v>
+      </c>
+      <c r="G644" s="3">
         <v>43734</v>
-      </c>
-      <c r="G644" s="3">
-        <v>43741</v>
       </c>
       <c r="H644" t="s">
         <v>1454</v>
       </c>
-      <c r="I644" s="1" t="s">
-        <v>1736</v>
+      <c r="I644" s="2" t="s">
+        <v>1730</v>
       </c>
     </row>
     <row r="645" spans="1:9" x14ac:dyDescent="0.25">
@@ -26790,28 +26802,28 @@
         <v>34</v>
       </c>
       <c r="B645" t="s">
-        <v>1575</v>
+        <v>1731</v>
       </c>
       <c r="C645" t="s">
-        <v>516</v>
+        <v>94</v>
       </c>
       <c r="D645" t="s">
-        <v>784</v>
+        <v>1732</v>
       </c>
       <c r="E645" t="s">
-        <v>1576</v>
+        <v>1733</v>
       </c>
       <c r="F645" s="3">
+        <v>43728</v>
+      </c>
+      <c r="G645" s="3">
         <v>43734</v>
-      </c>
-      <c r="G645" s="3">
-        <v>43741</v>
       </c>
       <c r="H645" t="s">
         <v>1454</v>
       </c>
       <c r="I645" s="1" t="s">
-        <v>1736</v>
+        <v>1730</v>
       </c>
     </row>
     <row r="646" spans="1:9" x14ac:dyDescent="0.25">
@@ -26819,28 +26831,28 @@
         <v>28</v>
       </c>
       <c r="B646" t="s">
-        <v>1737</v>
+        <v>1734</v>
       </c>
       <c r="C646" t="s">
-        <v>544</v>
+        <v>269</v>
       </c>
       <c r="D646" t="s">
-        <v>545</v>
+        <v>1141</v>
       </c>
       <c r="E646" t="s">
-        <v>1738</v>
+        <v>1735</v>
       </c>
       <c r="F646" s="3">
-        <v>43788</v>
+        <v>43734</v>
       </c>
       <c r="G646" s="3">
-        <v>43790</v>
+        <v>43741</v>
       </c>
       <c r="H646" t="s">
         <v>1454</v>
       </c>
       <c r="I646" s="1" t="s">
-        <v>1739</v>
+        <v>1736</v>
       </c>
     </row>
     <row r="647" spans="1:9" x14ac:dyDescent="0.25">
@@ -26848,28 +26860,28 @@
         <v>34</v>
       </c>
       <c r="B647" t="s">
-        <v>1740</v>
+        <v>1575</v>
       </c>
       <c r="C647" t="s">
         <v>516</v>
       </c>
       <c r="D647" t="s">
-        <v>205</v>
+        <v>784</v>
       </c>
       <c r="E647" t="s">
-        <v>206</v>
+        <v>1576</v>
       </c>
       <c r="F647" s="3">
-        <v>43788</v>
+        <v>43734</v>
       </c>
       <c r="G647" s="3">
-        <v>43790</v>
+        <v>43741</v>
       </c>
       <c r="H647" t="s">
         <v>1454</v>
       </c>
       <c r="I647" s="1" t="s">
-        <v>1739</v>
+        <v>1736</v>
       </c>
     </row>
     <row r="648" spans="1:9" x14ac:dyDescent="0.25">
@@ -26877,28 +26889,28 @@
         <v>28</v>
       </c>
       <c r="B648" t="s">
-        <v>1741</v>
+        <v>1737</v>
       </c>
       <c r="C648" t="s">
-        <v>94</v>
+        <v>544</v>
       </c>
       <c r="D648" t="s">
-        <v>420</v>
+        <v>545</v>
       </c>
       <c r="E648" t="s">
-        <v>1742</v>
+        <v>1738</v>
       </c>
       <c r="F648" s="3">
-        <v>43796</v>
+        <v>43788</v>
       </c>
       <c r="G648" s="3">
-        <v>43804</v>
+        <v>43790</v>
       </c>
       <c r="H648" t="s">
         <v>1454</v>
       </c>
       <c r="I648" s="1" t="s">
-        <v>1743</v>
+        <v>1739</v>
       </c>
     </row>
     <row r="649" spans="1:9" x14ac:dyDescent="0.25">
@@ -26906,28 +26918,28 @@
         <v>34</v>
       </c>
       <c r="B649" t="s">
-        <v>1744</v>
+        <v>1740</v>
       </c>
       <c r="C649" t="s">
-        <v>1680</v>
+        <v>516</v>
       </c>
       <c r="D649" t="s">
-        <v>1610</v>
+        <v>205</v>
       </c>
       <c r="E649" t="s">
-        <v>1745</v>
+        <v>206</v>
       </c>
       <c r="F649" s="3">
-        <v>43796</v>
+        <v>43788</v>
       </c>
       <c r="G649" s="3">
-        <v>43804</v>
+        <v>43790</v>
       </c>
       <c r="H649" t="s">
         <v>1454</v>
       </c>
       <c r="I649" s="1" t="s">
-        <v>1743</v>
+        <v>1739</v>
       </c>
     </row>
     <row r="650" spans="1:9" x14ac:dyDescent="0.25">
@@ -26935,28 +26947,28 @@
         <v>28</v>
       </c>
       <c r="B650" t="s">
-        <v>1746</v>
+        <v>1741</v>
       </c>
       <c r="C650" t="s">
-        <v>665</v>
+        <v>94</v>
       </c>
       <c r="D650" t="s">
-        <v>1237</v>
+        <v>420</v>
       </c>
       <c r="E650" t="s">
-        <v>1747</v>
+        <v>1742</v>
       </c>
       <c r="F650" s="3">
-        <v>43801</v>
+        <v>43796</v>
       </c>
       <c r="G650" s="3">
-        <v>43808</v>
+        <v>43804</v>
       </c>
       <c r="H650" t="s">
         <v>1454</v>
       </c>
       <c r="I650" s="1" t="s">
-        <v>1748</v>
+        <v>1743</v>
       </c>
     </row>
     <row r="651" spans="1:9" x14ac:dyDescent="0.25">
@@ -26964,28 +26976,28 @@
         <v>34</v>
       </c>
       <c r="B651" t="s">
-        <v>1749</v>
+        <v>1744</v>
       </c>
       <c r="C651" t="s">
-        <v>94</v>
+        <v>1680</v>
       </c>
       <c r="D651" t="s">
-        <v>859</v>
+        <v>1610</v>
       </c>
       <c r="E651" t="s">
-        <v>1750</v>
+        <v>1745</v>
       </c>
       <c r="F651" s="3">
-        <v>43801</v>
+        <v>43796</v>
       </c>
       <c r="G651" s="3">
-        <v>43808</v>
+        <v>43804</v>
       </c>
       <c r="H651" t="s">
         <v>1454</v>
       </c>
       <c r="I651" s="1" t="s">
-        <v>1748</v>
+        <v>1743</v>
       </c>
     </row>
     <row r="652" spans="1:9" x14ac:dyDescent="0.25">
@@ -26993,57 +27005,57 @@
         <v>28</v>
       </c>
       <c r="B652" t="s">
-        <v>1751</v>
+        <v>1746</v>
       </c>
       <c r="C652" t="s">
-        <v>1680</v>
+        <v>665</v>
       </c>
       <c r="D652" t="s">
-        <v>1610</v>
+        <v>1237</v>
       </c>
       <c r="E652" t="s">
-        <v>1752</v>
+        <v>1747</v>
       </c>
       <c r="F652" s="3">
-        <v>43812</v>
+        <v>43801</v>
       </c>
       <c r="G652" s="3">
-        <v>43822</v>
+        <v>43808</v>
       </c>
       <c r="H652" t="s">
         <v>1454</v>
       </c>
       <c r="I652" s="1" t="s">
-        <v>1753</v>
+        <v>1748</v>
       </c>
     </row>
     <row r="653" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A653" t="s">
-        <v>28</v>
+        <v>34</v>
       </c>
       <c r="B653" t="s">
-        <v>1754</v>
+        <v>1749</v>
       </c>
       <c r="C653" t="s">
-        <v>1512</v>
+        <v>94</v>
       </c>
       <c r="D653" t="s">
-        <v>566</v>
+        <v>859</v>
       </c>
       <c r="E653" t="s">
-        <v>1755</v>
+        <v>1750</v>
       </c>
       <c r="F653" s="3">
-        <v>43812</v>
+        <v>43801</v>
       </c>
       <c r="G653" s="3">
-        <v>43822</v>
+        <v>43808</v>
       </c>
       <c r="H653" t="s">
         <v>1454</v>
       </c>
       <c r="I653" s="1" t="s">
-        <v>1753</v>
+        <v>1748</v>
       </c>
     </row>
     <row r="654" spans="1:9" x14ac:dyDescent="0.25">
@@ -27051,16 +27063,16 @@
         <v>28</v>
       </c>
       <c r="B654" t="s">
-        <v>1756</v>
+        <v>1751</v>
       </c>
       <c r="C654" t="s">
-        <v>516</v>
+        <v>1680</v>
       </c>
       <c r="D654" t="s">
-        <v>807</v>
+        <v>1610</v>
       </c>
       <c r="E654" t="s">
-        <v>1757</v>
+        <v>1752</v>
       </c>
       <c r="F654" s="3">
         <v>43812</v>
@@ -27077,19 +27089,19 @@
     </row>
     <row r="655" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A655" t="s">
-        <v>34</v>
+        <v>28</v>
       </c>
       <c r="B655" t="s">
-        <v>1758</v>
+        <v>1754</v>
       </c>
       <c r="C655" t="s">
-        <v>94</v>
+        <v>1512</v>
       </c>
       <c r="D655" t="s">
-        <v>95</v>
+        <v>566</v>
       </c>
       <c r="E655" t="s">
-        <v>1144</v>
+        <v>1755</v>
       </c>
       <c r="F655" s="3">
         <v>43812</v>
@@ -27106,19 +27118,19 @@
     </row>
     <row r="656" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A656" t="s">
-        <v>34</v>
+        <v>28</v>
       </c>
       <c r="B656" t="s">
-        <v>895</v>
+        <v>1756</v>
       </c>
       <c r="C656" t="s">
-        <v>1680</v>
+        <v>516</v>
       </c>
       <c r="D656" t="s">
-        <v>1759</v>
+        <v>807</v>
       </c>
       <c r="E656" t="s">
-        <v>1760</v>
+        <v>1757</v>
       </c>
       <c r="F656" s="3">
         <v>43812</v>
@@ -27138,16 +27150,16 @@
         <v>34</v>
       </c>
       <c r="B657" t="s">
-        <v>1761</v>
+        <v>1758</v>
       </c>
       <c r="C657" t="s">
-        <v>1440</v>
+        <v>94</v>
       </c>
       <c r="D657" t="s">
-        <v>1017</v>
+        <v>95</v>
       </c>
       <c r="E657" t="s">
-        <v>1018</v>
+        <v>1144</v>
       </c>
       <c r="F657" s="3">
         <v>43812</v>
@@ -27164,31 +27176,31 @@
     </row>
     <row r="658" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A658" t="s">
-        <v>28</v>
+        <v>34</v>
       </c>
       <c r="B658" t="s">
-        <v>1762</v>
+        <v>895</v>
       </c>
       <c r="C658" t="s">
-        <v>544</v>
+        <v>1680</v>
       </c>
       <c r="D658" t="s">
-        <v>904</v>
+        <v>1759</v>
       </c>
       <c r="E658" t="s">
-        <v>1763</v>
+        <v>1760</v>
       </c>
       <c r="F658" s="3">
-        <v>43852</v>
+        <v>43812</v>
       </c>
       <c r="G658" s="3">
-        <v>43858</v>
+        <v>43822</v>
       </c>
       <c r="H658" t="s">
         <v>1454</v>
       </c>
       <c r="I658" s="1" t="s">
-        <v>1764</v>
+        <v>1753</v>
       </c>
     </row>
     <row r="659" spans="1:9" x14ac:dyDescent="0.25">
@@ -27196,28 +27208,28 @@
         <v>34</v>
       </c>
       <c r="B659" t="s">
-        <v>1622</v>
+        <v>1761</v>
       </c>
       <c r="C659" t="s">
-        <v>516</v>
+        <v>1440</v>
       </c>
       <c r="D659" t="s">
-        <v>1021</v>
+        <v>1017</v>
       </c>
       <c r="E659" t="s">
-        <v>1623</v>
+        <v>1018</v>
       </c>
       <c r="F659" s="3">
-        <v>43852</v>
+        <v>43812</v>
       </c>
       <c r="G659" s="3">
-        <v>43858</v>
+        <v>43822</v>
       </c>
       <c r="H659" t="s">
         <v>1454</v>
       </c>
-      <c r="I659" s="2" t="s">
-        <v>1764</v>
+      <c r="I659" s="1" t="s">
+        <v>1753</v>
       </c>
     </row>
     <row r="660" spans="1:9" x14ac:dyDescent="0.25">
@@ -27225,109 +27237,109 @@
         <v>28</v>
       </c>
       <c r="B660" t="s">
-        <v>1765</v>
+        <v>1762</v>
       </c>
       <c r="C660" t="s">
-        <v>665</v>
+        <v>544</v>
       </c>
       <c r="D660" t="s">
-        <v>1766</v>
+        <v>904</v>
       </c>
       <c r="E660" t="s">
-        <v>1767</v>
+        <v>1763</v>
       </c>
       <c r="F660" s="3">
-        <v>43921</v>
+        <v>43852</v>
       </c>
       <c r="G660" s="3">
-        <v>43924</v>
+        <v>43858</v>
       </c>
       <c r="H660" t="s">
         <v>1454</v>
       </c>
-      <c r="I660" s="2" t="s">
-        <v>1768</v>
+      <c r="I660" s="1" t="s">
+        <v>1764</v>
       </c>
     </row>
     <row r="661" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A661" t="s">
-        <v>28</v>
+        <v>34</v>
       </c>
       <c r="B661" t="s">
-        <v>1769</v>
+        <v>1622</v>
       </c>
       <c r="C661" t="s">
-        <v>665</v>
+        <v>516</v>
       </c>
       <c r="D661" t="s">
-        <v>1077</v>
+        <v>1021</v>
       </c>
       <c r="E661" t="s">
-        <v>1770</v>
+        <v>1623</v>
       </c>
       <c r="F661" s="3">
-        <v>43921</v>
+        <v>43852</v>
       </c>
       <c r="G661" s="3">
-        <v>43924</v>
+        <v>43858</v>
       </c>
       <c r="H661" t="s">
         <v>1454</v>
       </c>
-      <c r="I661" s="1" t="s">
-        <v>1768</v>
+      <c r="I661" s="2" t="s">
+        <v>1764</v>
       </c>
     </row>
     <row r="662" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A662" t="s">
-        <v>34</v>
+        <v>28</v>
       </c>
       <c r="B662" t="s">
-        <v>1771</v>
+        <v>1765</v>
       </c>
       <c r="C662" t="s">
         <v>665</v>
       </c>
       <c r="D662" t="s">
-        <v>956</v>
+        <v>1766</v>
       </c>
       <c r="E662" t="s">
-        <v>1772</v>
+        <v>1767</v>
       </c>
       <c r="F662" s="3">
         <v>43921</v>
       </c>
       <c r="G662" s="3">
-        <v>43927</v>
+        <v>43924</v>
       </c>
       <c r="H662" t="s">
         <v>1454</v>
       </c>
-      <c r="I662" s="1" t="s">
+      <c r="I662" s="2" t="s">
         <v>1768</v>
       </c>
     </row>
     <row r="663" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A663" t="s">
-        <v>34</v>
+        <v>28</v>
       </c>
       <c r="B663" t="s">
-        <v>1773</v>
+        <v>1769</v>
       </c>
       <c r="C663" t="s">
-        <v>269</v>
+        <v>665</v>
       </c>
       <c r="D663" t="s">
-        <v>963</v>
+        <v>1077</v>
       </c>
       <c r="E663" t="s">
-        <v>1774</v>
+        <v>1770</v>
       </c>
       <c r="F663" s="3">
         <v>43921</v>
       </c>
       <c r="G663" s="3">
-        <v>43927</v>
+        <v>43924</v>
       </c>
       <c r="H663" t="s">
         <v>1454</v>
@@ -27338,77 +27350,77 @@
     </row>
     <row r="664" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A664" t="s">
-        <v>28</v>
+        <v>34</v>
       </c>
       <c r="B664" t="s">
-        <v>1775</v>
+        <v>1771</v>
       </c>
       <c r="C664" t="s">
-        <v>516</v>
+        <v>665</v>
       </c>
       <c r="D664" t="s">
-        <v>807</v>
+        <v>956</v>
       </c>
       <c r="E664" t="s">
-        <v>1776</v>
+        <v>1772</v>
       </c>
       <c r="F664" s="3">
-        <v>43957</v>
+        <v>43921</v>
       </c>
       <c r="G664" s="3">
-        <v>43963</v>
+        <v>43927</v>
       </c>
       <c r="H664" t="s">
         <v>1454</v>
       </c>
       <c r="I664" s="1" t="s">
-        <v>1777</v>
+        <v>1768</v>
       </c>
     </row>
     <row r="665" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A665" t="s">
-        <v>28</v>
+        <v>34</v>
       </c>
       <c r="B665" t="s">
-        <v>1778</v>
+        <v>1773</v>
       </c>
       <c r="C665" t="s">
         <v>269</v>
       </c>
       <c r="D665" t="s">
-        <v>831</v>
+        <v>963</v>
       </c>
       <c r="E665" t="s">
-        <v>1779</v>
+        <v>1774</v>
       </c>
       <c r="F665" s="3">
-        <v>43957</v>
+        <v>43921</v>
       </c>
       <c r="G665" s="3">
-        <v>43963</v>
+        <v>43927</v>
       </c>
       <c r="H665" t="s">
         <v>1454</v>
       </c>
       <c r="I665" s="1" t="s">
-        <v>1777</v>
+        <v>1768</v>
       </c>
     </row>
     <row r="666" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A666" t="s">
-        <v>34</v>
+        <v>28</v>
       </c>
       <c r="B666" t="s">
-        <v>1220</v>
+        <v>1775</v>
       </c>
       <c r="C666" t="s">
         <v>516</v>
       </c>
       <c r="D666" t="s">
-        <v>784</v>
+        <v>807</v>
       </c>
       <c r="E666" t="s">
-        <v>1221</v>
+        <v>1776</v>
       </c>
       <c r="F666" s="3">
         <v>43957</v>
@@ -27425,19 +27437,19 @@
     </row>
     <row r="667" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A667" t="s">
-        <v>34</v>
+        <v>28</v>
       </c>
       <c r="B667" t="s">
-        <v>1780</v>
+        <v>1778</v>
       </c>
       <c r="C667" t="s">
-        <v>10</v>
+        <v>269</v>
       </c>
       <c r="D667" t="s">
-        <v>1071</v>
+        <v>831</v>
       </c>
       <c r="E667" t="s">
-        <v>1781</v>
+        <v>1779</v>
       </c>
       <c r="F667" s="3">
         <v>43957</v>
@@ -27454,31 +27466,31 @@
     </row>
     <row r="668" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A668" t="s">
-        <v>28</v>
+        <v>34</v>
       </c>
       <c r="B668" t="s">
-        <v>1782</v>
+        <v>1220</v>
       </c>
       <c r="C668" t="s">
         <v>516</v>
       </c>
       <c r="D668" t="s">
-        <v>1428</v>
+        <v>784</v>
       </c>
       <c r="E668" t="s">
-        <v>1783</v>
+        <v>1221</v>
       </c>
       <c r="F668" s="3">
-        <v>43969</v>
+        <v>43957</v>
       </c>
       <c r="G668" s="3">
-        <v>43973</v>
+        <v>43963</v>
       </c>
       <c r="H668" t="s">
         <v>1454</v>
       </c>
       <c r="I668" s="1" t="s">
-        <v>1784</v>
+        <v>1777</v>
       </c>
     </row>
     <row r="669" spans="1:9" x14ac:dyDescent="0.25">
@@ -27486,28 +27498,28 @@
         <v>34</v>
       </c>
       <c r="B669" t="s">
-        <v>727</v>
+        <v>1780</v>
       </c>
       <c r="C669" t="s">
-        <v>728</v>
+        <v>10</v>
       </c>
       <c r="D669" t="s">
-        <v>703</v>
+        <v>1071</v>
       </c>
       <c r="E669" t="s">
-        <v>729</v>
+        <v>1781</v>
       </c>
       <c r="F669" s="3">
-        <v>43969</v>
+        <v>43957</v>
       </c>
       <c r="G669" s="3">
-        <v>43973</v>
+        <v>43963</v>
       </c>
       <c r="H669" t="s">
         <v>1454</v>
       </c>
       <c r="I669" s="1" t="s">
-        <v>1784</v>
+        <v>1777</v>
       </c>
     </row>
     <row r="670" spans="1:9" x14ac:dyDescent="0.25">
@@ -27515,57 +27527,57 @@
         <v>28</v>
       </c>
       <c r="B670" t="s">
-        <v>1785</v>
+        <v>1782</v>
       </c>
       <c r="C670" t="s">
-        <v>544</v>
+        <v>516</v>
       </c>
       <c r="D670" t="s">
-        <v>904</v>
+        <v>1428</v>
       </c>
       <c r="E670" t="s">
-        <v>1786</v>
+        <v>1783</v>
       </c>
       <c r="F670" s="3">
-        <v>43994</v>
+        <v>43969</v>
       </c>
       <c r="G670" s="3">
-        <v>44004</v>
+        <v>43973</v>
       </c>
       <c r="H670" t="s">
-        <v>1475</v>
-      </c>
-      <c r="I670" s="2" t="s">
-        <v>1787</v>
+        <v>1454</v>
+      </c>
+      <c r="I670" s="1" t="s">
+        <v>1784</v>
       </c>
     </row>
     <row r="671" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A671" t="s">
-        <v>28</v>
+        <v>34</v>
       </c>
       <c r="B671" t="s">
-        <v>1788</v>
+        <v>727</v>
       </c>
       <c r="C671" t="s">
-        <v>516</v>
+        <v>728</v>
       </c>
       <c r="D671" t="s">
-        <v>762</v>
+        <v>703</v>
       </c>
       <c r="E671" t="s">
-        <v>1789</v>
+        <v>729</v>
       </c>
       <c r="F671" s="3">
-        <v>43994</v>
+        <v>43969</v>
       </c>
       <c r="G671" s="3">
-        <v>44004</v>
+        <v>43973</v>
       </c>
       <c r="H671" t="s">
-        <v>1475</v>
-      </c>
-      <c r="I671" s="2" t="s">
-        <v>1787</v>
+        <v>1454</v>
+      </c>
+      <c r="I671" s="1" t="s">
+        <v>1784</v>
       </c>
     </row>
     <row r="672" spans="1:9" x14ac:dyDescent="0.25">
@@ -27573,16 +27585,16 @@
         <v>28</v>
       </c>
       <c r="B672" t="s">
-        <v>1790</v>
+        <v>1785</v>
       </c>
       <c r="C672" t="s">
-        <v>665</v>
+        <v>544</v>
       </c>
       <c r="D672" t="s">
-        <v>956</v>
+        <v>904</v>
       </c>
       <c r="E672" t="s">
-        <v>1791</v>
+        <v>1786</v>
       </c>
       <c r="F672" s="3">
         <v>43994</v>
@@ -27599,19 +27611,19 @@
     </row>
     <row r="673" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A673" t="s">
-        <v>34</v>
+        <v>28</v>
       </c>
       <c r="B673" t="s">
-        <v>1792</v>
+        <v>1788</v>
       </c>
       <c r="C673" t="s">
-        <v>269</v>
+        <v>516</v>
       </c>
       <c r="D673" t="s">
-        <v>1793</v>
+        <v>762</v>
       </c>
       <c r="E673" t="s">
-        <v>1794</v>
+        <v>1789</v>
       </c>
       <c r="F673" s="3">
         <v>43994</v>
@@ -27628,19 +27640,19 @@
     </row>
     <row r="674" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A674" t="s">
-        <v>34</v>
+        <v>28</v>
       </c>
       <c r="B674" t="s">
-        <v>1795</v>
+        <v>1790</v>
       </c>
       <c r="C674" t="s">
-        <v>269</v>
+        <v>665</v>
       </c>
       <c r="D674" t="s">
-        <v>963</v>
+        <v>956</v>
       </c>
       <c r="E674" t="s">
-        <v>1796</v>
+        <v>1791</v>
       </c>
       <c r="F674" s="3">
         <v>43994</v>
@@ -27660,16 +27672,16 @@
         <v>34</v>
       </c>
       <c r="B675" t="s">
-        <v>1089</v>
+        <v>1792</v>
       </c>
       <c r="C675" t="s">
-        <v>544</v>
+        <v>269</v>
       </c>
       <c r="D675" t="s">
-        <v>1090</v>
+        <v>1793</v>
       </c>
       <c r="E675" t="s">
-        <v>1091</v>
+        <v>1794</v>
       </c>
       <c r="F675" s="3">
         <v>43994</v>
@@ -27684,10 +27696,68 @@
         <v>1787</v>
       </c>
     </row>
+    <row r="676" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A676" t="s">
+        <v>34</v>
+      </c>
+      <c r="B676" t="s">
+        <v>1795</v>
+      </c>
+      <c r="C676" t="s">
+        <v>269</v>
+      </c>
+      <c r="D676" t="s">
+        <v>963</v>
+      </c>
+      <c r="E676" t="s">
+        <v>1796</v>
+      </c>
+      <c r="F676" s="3">
+        <v>43994</v>
+      </c>
+      <c r="G676" s="3">
+        <v>44004</v>
+      </c>
+      <c r="H676" t="s">
+        <v>1475</v>
+      </c>
+      <c r="I676" s="2" t="s">
+        <v>1787</v>
+      </c>
+    </row>
+    <row r="677" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A677" t="s">
+        <v>34</v>
+      </c>
+      <c r="B677" t="s">
+        <v>1089</v>
+      </c>
+      <c r="C677" t="s">
+        <v>544</v>
+      </c>
+      <c r="D677" t="s">
+        <v>1090</v>
+      </c>
+      <c r="E677" t="s">
+        <v>1091</v>
+      </c>
+      <c r="F677" s="3">
+        <v>43994</v>
+      </c>
+      <c r="G677" s="3">
+        <v>44004</v>
+      </c>
+      <c r="H677" t="s">
+        <v>1475</v>
+      </c>
+      <c r="I677" s="2" t="s">
+        <v>1787</v>
+      </c>
+    </row>
   </sheetData>
-  <autoFilter ref="A1:I675" xr:uid="{E011EB4A-40D1-4DF6-A350-27E09BDD2117}">
-    <sortState ref="A2:I675">
-      <sortCondition ref="F1:F675"/>
+  <autoFilter ref="A1:I677" xr:uid="{E011EB4A-40D1-4DF6-A350-27E09BDD2117}">
+    <sortState ref="A2:I677">
+      <sortCondition ref="F1:F677"/>
     </sortState>
   </autoFilter>
   <phoneticPr fontId="2" type="noConversion"/>
@@ -27803,187 +27873,187 @@
     <hyperlink ref="I450" r:id="rId109" xr:uid="{F7D8AE6A-3D30-4687-B5DD-99E37EED1793}"/>
     <hyperlink ref="I451" r:id="rId110" xr:uid="{D889559E-20FE-4CEC-A6FA-46B9C5FF1E2A}"/>
     <hyperlink ref="I452" r:id="rId111" xr:uid="{A044B105-C5B7-42D1-A2AE-C67BC6491425}"/>
-    <hyperlink ref="I453" r:id="rId112" xr:uid="{E57534F3-8675-49EC-B4D9-B4DF05FD5ACC}"/>
-    <hyperlink ref="I454" r:id="rId113" xr:uid="{D4782F11-A756-4C05-9A84-78A9D34E1D8C}"/>
-    <hyperlink ref="I455" r:id="rId114" xr:uid="{64C539A5-65D4-42F8-8524-1DB0772A14EA}"/>
-    <hyperlink ref="I456" r:id="rId115" xr:uid="{39814054-047B-494E-8FA7-87A59BF2EB8B}"/>
-    <hyperlink ref="I457" r:id="rId116" xr:uid="{42D28960-9233-4200-AA10-F174261AECE9}"/>
-    <hyperlink ref="I458" r:id="rId117" xr:uid="{7F0300BD-6705-4937-A435-3317D37F0848}"/>
-    <hyperlink ref="I459" r:id="rId118" xr:uid="{4DD86046-1A96-4A26-8F08-87CE1B7FDC7C}"/>
-    <hyperlink ref="I460" r:id="rId119" xr:uid="{2F697AA3-67F4-47AB-978F-7EBE91A41035}"/>
-    <hyperlink ref="I461" r:id="rId120" xr:uid="{4E611510-8619-4E34-8717-2D3E067084A7}"/>
-    <hyperlink ref="I462" r:id="rId121" xr:uid="{FE5A000C-D050-4CD3-9092-91F82E6AAAAF}"/>
-    <hyperlink ref="I463" r:id="rId122" xr:uid="{42E09971-57C9-4BE8-9224-F299957E58E2}"/>
-    <hyperlink ref="I464" r:id="rId123" xr:uid="{12DC5235-7714-44CA-9551-684AED9526EC}"/>
-    <hyperlink ref="I465" r:id="rId124" xr:uid="{0790E0AF-1DDA-4C38-B3B9-913097F809A8}"/>
-    <hyperlink ref="I466" r:id="rId125" xr:uid="{20DD2EE8-E561-4F49-9B96-443A435C338E}"/>
-    <hyperlink ref="I467" r:id="rId126" xr:uid="{EB52FB7B-CEB7-45B9-9277-024C11A85393}"/>
-    <hyperlink ref="I470" r:id="rId127" xr:uid="{6D3CE3B5-0F73-4B4F-AA9E-BE5BB84D5687}"/>
-    <hyperlink ref="I471" r:id="rId128" xr:uid="{F729E749-CCDA-4733-8442-991C55414FBC}"/>
-    <hyperlink ref="I472" r:id="rId129" xr:uid="{A1F5E0AE-3CF0-4555-BE22-69714A3A7D19}"/>
-    <hyperlink ref="I473" r:id="rId130" xr:uid="{DC1F115A-AD5E-4FE6-BBD3-83F49264D121}"/>
-    <hyperlink ref="I474" r:id="rId131" xr:uid="{10EBF065-5D3E-4E7C-A9BA-BCEE1EB1B69D}"/>
-    <hyperlink ref="I475" r:id="rId132" xr:uid="{C6837505-98D7-43A2-B633-71983EDCC499}"/>
-    <hyperlink ref="I476" r:id="rId133" xr:uid="{590DA005-1AD5-4C6C-84C9-C378C15F6BBF}"/>
-    <hyperlink ref="I477" r:id="rId134" xr:uid="{616B9F93-95EB-4465-A4E4-DBD7437CDABC}"/>
-    <hyperlink ref="I478" r:id="rId135" xr:uid="{78DCF1CA-A77A-4552-8593-690A31CD94EF}"/>
-    <hyperlink ref="I479" r:id="rId136" xr:uid="{647DC45E-8269-4A84-9609-BE8E66983FE4}"/>
-    <hyperlink ref="I480" r:id="rId137" xr:uid="{D95FBE5E-3868-4A87-B941-382AAB2B9B4A}"/>
-    <hyperlink ref="I481" r:id="rId138" xr:uid="{2142ECBC-8939-4499-839A-E025CD14019E}"/>
-    <hyperlink ref="I482" r:id="rId139" xr:uid="{34C8BD60-18F9-4625-B02B-38FDF972BDD2}"/>
-    <hyperlink ref="I483" r:id="rId140" xr:uid="{6B946A10-3755-4301-BC9A-C417C5410B17}"/>
-    <hyperlink ref="I484" r:id="rId141" xr:uid="{3CBAA56F-3AB5-4FF6-80B9-0050E7861982}"/>
-    <hyperlink ref="I485" r:id="rId142" xr:uid="{F8F5AB69-0688-4103-80B4-7C80476B6313}"/>
-    <hyperlink ref="I486" r:id="rId143" xr:uid="{3FE86769-7149-4E2D-BD57-367525D7CED8}"/>
-    <hyperlink ref="I487" r:id="rId144" xr:uid="{720D4829-A2A8-4F73-847F-89522B532687}"/>
-    <hyperlink ref="I488" r:id="rId145" xr:uid="{E70593E2-F514-47EC-9E54-580C3157BC06}"/>
-    <hyperlink ref="I489" r:id="rId146" xr:uid="{511B480D-F869-44DA-9F6B-E2BF776FE0EC}"/>
-    <hyperlink ref="I490" r:id="rId147" xr:uid="{7D62AB56-D204-4E42-B5E5-05BD6AD7EF71}"/>
-    <hyperlink ref="I491" r:id="rId148" xr:uid="{F1118CE2-8390-41C4-B515-A1122021DCA8}"/>
-    <hyperlink ref="I492" r:id="rId149" xr:uid="{D2BB3433-8F9C-4867-A903-56DBC7ECEE53}"/>
-    <hyperlink ref="I493" r:id="rId150" xr:uid="{9E189730-2343-4C89-B778-D45D06C70D85}"/>
-    <hyperlink ref="I494" r:id="rId151" xr:uid="{73A3BC7D-8BA8-499F-B092-99E2D301DDCE}"/>
-    <hyperlink ref="I495" r:id="rId152" xr:uid="{DD8B9DC5-B2AC-4BF3-A5DB-6F4B9E67F9F1}"/>
-    <hyperlink ref="I496" r:id="rId153" xr:uid="{AF2F08C3-872F-4264-AC5C-E0686A4A09B8}"/>
-    <hyperlink ref="I497" r:id="rId154" xr:uid="{31F00631-2D5F-4E18-838A-3E34ACDFFCBD}"/>
-    <hyperlink ref="I502" r:id="rId155" xr:uid="{EB5CADFE-FCDE-4AC2-8875-CD1CB7365269}"/>
-    <hyperlink ref="I503" r:id="rId156" xr:uid="{E384B807-4005-4DD0-A648-BD42C7171404}"/>
-    <hyperlink ref="I498" r:id="rId157" xr:uid="{B0237433-E88C-4EF7-AF78-819D4CFC66E6}"/>
-    <hyperlink ref="I499" r:id="rId158" xr:uid="{6D2F00EC-1C69-47E2-82C5-564B165E39A9}"/>
-    <hyperlink ref="I500" r:id="rId159" xr:uid="{F17D8F02-3554-46C2-8BF8-DEE7A32EC23E}"/>
-    <hyperlink ref="I501" r:id="rId160" xr:uid="{E95D6330-C2A6-43DF-A0CA-067670340F20}"/>
-    <hyperlink ref="I504" r:id="rId161" xr:uid="{AC7D7209-AE5B-4BEE-82B0-A945732D970C}"/>
-    <hyperlink ref="I505" r:id="rId162" xr:uid="{447FC9C2-BC7C-47D5-A230-EDCC09C6D5B3}"/>
-    <hyperlink ref="I506" r:id="rId163" xr:uid="{5037CDCE-9ABC-43A5-B0A0-4BC486B98196}"/>
-    <hyperlink ref="I507" r:id="rId164" xr:uid="{FFEBCE4D-B525-453D-8B07-11D7F8ECC1A2}"/>
-    <hyperlink ref="I508" r:id="rId165" xr:uid="{983B662E-75ED-47EE-95A9-7980B10B166A}"/>
-    <hyperlink ref="I509" r:id="rId166" xr:uid="{79299F45-F74E-4F84-8F05-E393986B6BEC}"/>
-    <hyperlink ref="I510" r:id="rId167" xr:uid="{6EB83963-7DE5-409B-AC50-1AFAFAD40380}"/>
-    <hyperlink ref="I511" r:id="rId168" xr:uid="{E7B82B90-C6E0-4AD8-BC92-8D7457B49385}"/>
-    <hyperlink ref="I512" r:id="rId169" xr:uid="{6BE58DA9-4DF4-4E7D-9D5F-DCE40BC8A9C8}"/>
-    <hyperlink ref="I513" r:id="rId170" xr:uid="{587879EF-304A-4E8E-AA15-0D87CCE577C0}"/>
-    <hyperlink ref="I514" r:id="rId171" xr:uid="{163F064C-854E-41AE-B4FD-AC44EE146653}"/>
-    <hyperlink ref="I515" r:id="rId172" xr:uid="{7AA0D6BD-6549-4717-BD65-FFBA7D61466C}"/>
-    <hyperlink ref="I516" r:id="rId173" xr:uid="{4B543107-1C66-4AFC-84D7-B693C3138E28}"/>
-    <hyperlink ref="I517" r:id="rId174" xr:uid="{D2218029-2CE7-47B3-B9C9-2345B0753E3B}"/>
-    <hyperlink ref="I518" r:id="rId175" xr:uid="{BFFBBFC9-F1B1-4B95-805D-18D7D7AE5F54}"/>
-    <hyperlink ref="I519" r:id="rId176" xr:uid="{594F7E9C-431C-46AC-8531-EB319D68AF4A}"/>
-    <hyperlink ref="I520" r:id="rId177" xr:uid="{7C549631-F04B-4DFB-9947-9415C1D4C8B9}"/>
-    <hyperlink ref="I521" r:id="rId178" xr:uid="{436C7CA9-AB3D-450B-A23F-62D223FFA25A}"/>
-    <hyperlink ref="I522" r:id="rId179" xr:uid="{47A7878E-78BA-474D-9902-EB70F764AED5}"/>
-    <hyperlink ref="I523" r:id="rId180" xr:uid="{A9AEBCB0-7928-45C0-916D-FB887BFC0641}"/>
-    <hyperlink ref="I524" r:id="rId181" xr:uid="{04B9D8DC-8241-4771-846E-B22E71CB1F66}"/>
-    <hyperlink ref="I525" r:id="rId182" xr:uid="{7ED7CFE3-52E7-4199-A00D-E128D398C5AF}"/>
-    <hyperlink ref="I532" r:id="rId183" xr:uid="{3120F9FA-479F-489B-8E38-2DB7B76A94E6}"/>
-    <hyperlink ref="I533" r:id="rId184" xr:uid="{C857FBC6-5CB2-4BA7-B2B3-FF57BCEC759D}"/>
-    <hyperlink ref="I534" r:id="rId185" xr:uid="{397F1298-9AED-40D5-8881-93DC82DF5691}"/>
-    <hyperlink ref="I535" r:id="rId186" xr:uid="{0BB4606F-4199-482D-8108-F54695F52193}"/>
-    <hyperlink ref="I536" r:id="rId187" xr:uid="{07F8DA0B-E487-40F1-B99B-DFA1D1904266}"/>
-    <hyperlink ref="I537" r:id="rId188" xr:uid="{70C2C236-F0C1-4802-9AF0-07E27A43F8D3}"/>
-    <hyperlink ref="I538" r:id="rId189" xr:uid="{C0F794C1-1640-4B78-81F2-2B29BC4CE44C}"/>
-    <hyperlink ref="I539" r:id="rId190" xr:uid="{65A01196-50A1-47C4-9C39-7F2F12730EA0}"/>
-    <hyperlink ref="I546" r:id="rId191" xr:uid="{899E1E55-084F-4A9B-98B1-0168D2742402}"/>
-    <hyperlink ref="I547" r:id="rId192" xr:uid="{EAF7EA60-ADB2-4086-A373-74DAD8733C0B}"/>
-    <hyperlink ref="I540" r:id="rId193" xr:uid="{DC892718-CBA5-495A-9E61-A696FE1C4655}"/>
-    <hyperlink ref="I541" r:id="rId194" xr:uid="{2AE29E77-124E-4F4E-B476-A103CCC34A55}"/>
-    <hyperlink ref="I542" r:id="rId195" xr:uid="{8A79FDC3-9BBF-4717-B34D-4351C1369681}"/>
-    <hyperlink ref="I543" r:id="rId196" xr:uid="{A1833425-9BEB-4D96-BD27-FD3BB3F03BCA}"/>
-    <hyperlink ref="I544" r:id="rId197" xr:uid="{9A4A2826-29DA-47C7-AFF3-819D5E01EB6B}"/>
-    <hyperlink ref="I545" r:id="rId198" xr:uid="{8185DED1-AD53-4081-A416-4DDE38C1E4AA}"/>
-    <hyperlink ref="I558" r:id="rId199" xr:uid="{2362549F-E430-47C4-A6B3-D876DF646126}"/>
-    <hyperlink ref="I559" r:id="rId200" xr:uid="{8ACF45E9-185A-429B-A824-926E4EFF517A}"/>
-    <hyperlink ref="I560" r:id="rId201" xr:uid="{F3B4C5F3-8122-43A4-8991-1D493A0300D0}"/>
-    <hyperlink ref="I561" r:id="rId202" xr:uid="{BA870F36-9302-41BD-8AA2-C67ABC73875C}"/>
-    <hyperlink ref="I562" r:id="rId203" xr:uid="{BE468DFD-D467-4638-88C8-34D23A2A1A93}"/>
-    <hyperlink ref="I563" r:id="rId204" xr:uid="{C1F7EBC2-8450-4C60-8B34-E7AAE21DE5F2}"/>
-    <hyperlink ref="I564" r:id="rId205" xr:uid="{B7861AEF-D3C1-4482-93CC-70CADC7668A8}"/>
-    <hyperlink ref="I565" r:id="rId206" xr:uid="{C3FE18FC-521F-4351-9039-EA1391214857}"/>
-    <hyperlink ref="I566" r:id="rId207" xr:uid="{D7CAD03B-4986-4C6A-95D5-C64BB8D3955E}"/>
-    <hyperlink ref="I567" r:id="rId208" xr:uid="{D45FA6A8-F1BF-4A97-9CD1-7D2474AB2AD9}"/>
-    <hyperlink ref="I568" r:id="rId209" xr:uid="{599834D3-2592-4718-B112-73B7D1E2BB49}"/>
-    <hyperlink ref="I569" r:id="rId210" xr:uid="{9434BFBB-FAA5-43B0-BBB3-F7B6247CA037}"/>
-    <hyperlink ref="I570" r:id="rId211" xr:uid="{7A00DF69-3B11-41FD-B2CA-A6BE41AA92DE}"/>
-    <hyperlink ref="I571" r:id="rId212" xr:uid="{983A4431-3C3D-4AC8-86B8-42ADAF7280A3}"/>
-    <hyperlink ref="I572" r:id="rId213" xr:uid="{082B82DB-E175-4EE6-9B1A-AD3A91277C96}"/>
-    <hyperlink ref="I573" r:id="rId214" xr:uid="{81275D46-E11F-4262-867C-ADEBEC251926}"/>
-    <hyperlink ref="I574" r:id="rId215" xr:uid="{79F41521-2D68-48FD-B951-622842863BA7}"/>
-    <hyperlink ref="I575" r:id="rId216" xr:uid="{C14F3F22-FECF-4172-AC22-E86142E51CFD}"/>
-    <hyperlink ref="I576" r:id="rId217" xr:uid="{017B6E24-4E25-4CF7-87E6-60391F062C75}"/>
-    <hyperlink ref="I577" r:id="rId218" xr:uid="{EB8ACCD5-8008-4BEA-BD70-7AD4F28D6D30}"/>
-    <hyperlink ref="I578" r:id="rId219" xr:uid="{1B7BFA4B-4EC4-4567-B264-4048986F5083}"/>
-    <hyperlink ref="I579" r:id="rId220" xr:uid="{520CE8E9-7D5D-42CE-8665-618F1C585C8B}"/>
-    <hyperlink ref="I580" r:id="rId221" xr:uid="{8656C212-30CD-48DD-9C44-12DE5E9BB315}"/>
-    <hyperlink ref="I581" r:id="rId222" xr:uid="{FF7B612E-6CA9-465B-851B-44BD4189D881}"/>
-    <hyperlink ref="I582" r:id="rId223" xr:uid="{0397BE64-81D4-46DE-BF26-0F4C92469490}"/>
-    <hyperlink ref="I583" r:id="rId224" xr:uid="{9279D161-E253-439E-B271-5A926D092185}"/>
-    <hyperlink ref="I584" r:id="rId225" xr:uid="{EE535E3E-10AD-4AF7-B4F9-753A7FAC8074}"/>
-    <hyperlink ref="I585" r:id="rId226" xr:uid="{C1F652FE-3A1D-4435-A408-CC644A9585AE}"/>
-    <hyperlink ref="I586" r:id="rId227" xr:uid="{40628F0C-0A63-47FB-9C4D-C5DD37DEF6C5}"/>
-    <hyperlink ref="I587" r:id="rId228" xr:uid="{B8F09FCE-4650-4B5D-B592-B4ACAFDB831F}"/>
-    <hyperlink ref="I588" r:id="rId229" xr:uid="{1C5C86A5-A4E9-4A98-9493-62E3A763889B}"/>
-    <hyperlink ref="I589" r:id="rId230" xr:uid="{F9BD10AD-D4F7-43CD-88FE-12F9EE7E17DC}"/>
-    <hyperlink ref="I590" r:id="rId231" xr:uid="{CED36457-0FAF-495D-AF96-9C1CB1CD6525}"/>
-    <hyperlink ref="I591" r:id="rId232" xr:uid="{DE3ACC8E-286F-48F4-B6F0-8F2F2DD9BB8B}"/>
-    <hyperlink ref="I592" r:id="rId233" xr:uid="{DADBFDFF-C7EC-4391-948A-A5DC63CEDC45}"/>
-    <hyperlink ref="I593" r:id="rId234" xr:uid="{C668E0D4-D809-4DB3-AC20-2329EA77C11E}"/>
-    <hyperlink ref="I594" r:id="rId235" xr:uid="{C8F177B9-7D52-4EEA-A403-A61E743BEC91}"/>
-    <hyperlink ref="I595" r:id="rId236" xr:uid="{8CBBA068-6264-4E3D-AF63-DC1C56BCAD7D}"/>
-    <hyperlink ref="I596" r:id="rId237" xr:uid="{88FA8FC9-57B7-4223-873A-0193AB0C3F81}"/>
-    <hyperlink ref="I597" r:id="rId238" xr:uid="{94A69901-CA96-449E-A322-A626A573EF3F}"/>
-    <hyperlink ref="I598" r:id="rId239" xr:uid="{14DCDBCE-5665-452E-9236-3B7F4A573FBB}"/>
-    <hyperlink ref="I599" r:id="rId240" xr:uid="{78D8E9D5-562F-4B3B-9F19-6F54E83F493B}"/>
-    <hyperlink ref="I600" r:id="rId241" xr:uid="{759F1DD9-B679-4050-8E0B-ABBFC9ED00AF}"/>
-    <hyperlink ref="I601" r:id="rId242" xr:uid="{9FFAD29F-9FF4-41C6-9A14-4FC050ABBD87}"/>
-    <hyperlink ref="I602" r:id="rId243" xr:uid="{4792719A-783F-4DAD-BEC2-BF8D371F50D0}"/>
-    <hyperlink ref="I603" r:id="rId244" xr:uid="{4B820E34-849F-4F0D-8EDD-411D059A4B13}"/>
-    <hyperlink ref="I604" r:id="rId245" xr:uid="{310388BA-0D31-43A6-868E-36DCAA4D1A39}"/>
-    <hyperlink ref="I605" r:id="rId246" xr:uid="{32EF2819-3B3E-441B-A2FA-22F925D69B1C}"/>
-    <hyperlink ref="I612" r:id="rId247" xr:uid="{A8941542-CC03-4523-9803-3940875B0C98}"/>
-    <hyperlink ref="I613" r:id="rId248" xr:uid="{60F213A1-A661-4593-8B61-58879F4813D2}"/>
-    <hyperlink ref="I614" r:id="rId249" xr:uid="{68A1E877-3424-4074-AACE-4828927CAB3F}"/>
-    <hyperlink ref="I615" r:id="rId250" xr:uid="{DDBDBC28-23BF-4AB1-9B91-F6FBCFFDB0B5}"/>
-    <hyperlink ref="I616" r:id="rId251" xr:uid="{DB3EDF6B-36C9-48F6-BB58-556B703A2A2C}"/>
-    <hyperlink ref="I617" r:id="rId252" xr:uid="{D6A4F66E-4F58-4AE3-9387-80B68C9FDC46}"/>
-    <hyperlink ref="I618" r:id="rId253" xr:uid="{10714EDA-85BA-4833-8D40-FA845BC41784}"/>
-    <hyperlink ref="I619" r:id="rId254" xr:uid="{ABF5D4B0-3A82-43F0-8B41-E98C75B5A627}"/>
-    <hyperlink ref="I620" r:id="rId255" xr:uid="{195CD478-4573-4B59-AAEB-F8E6143405BE}"/>
-    <hyperlink ref="I621" r:id="rId256" xr:uid="{BD5214CF-4848-42F2-AAEA-C87F9CCE5D0B}"/>
-    <hyperlink ref="I622" r:id="rId257" xr:uid="{A42AD275-CCAD-4A0D-A58F-FA75FBE6C357}"/>
-    <hyperlink ref="I625" r:id="rId258" xr:uid="{568B27BB-79F4-41CD-8E6A-C421336A6A59}"/>
-    <hyperlink ref="I623" r:id="rId259" xr:uid="{3DCFF98C-B1A6-4592-9D34-964B80E39C7F}"/>
-    <hyperlink ref="I624" r:id="rId260" xr:uid="{EE2D562C-3D89-493F-A5F2-3B4E787BA2E9}"/>
-    <hyperlink ref="I626" r:id="rId261" xr:uid="{7FCD2921-759C-4129-9BC3-0986D7D4DB78}"/>
-    <hyperlink ref="I627" r:id="rId262" xr:uid="{4D4C2D5B-76C7-415A-8B71-B9F6D06E4A7E}"/>
-    <hyperlink ref="I628" r:id="rId263" xr:uid="{B75EA0F1-9F71-4DD1-91DE-B0700EAC5038}"/>
-    <hyperlink ref="I629" r:id="rId264" xr:uid="{5D8D5228-3088-496E-AB9D-4010E9BE9934}"/>
-    <hyperlink ref="I630" r:id="rId265" xr:uid="{F56C6B2B-CA02-44D5-A946-C55CF5DCBB5F}"/>
-    <hyperlink ref="I631" r:id="rId266" xr:uid="{DCF2CD17-BC35-471B-8A21-9921C84CE2AD}"/>
-    <hyperlink ref="I634" r:id="rId267" xr:uid="{8D588179-3CB1-408A-BEBB-782B16C0683B}"/>
-    <hyperlink ref="I635" r:id="rId268" xr:uid="{6433C22F-C55A-4035-B362-8D7336868B3B}"/>
-    <hyperlink ref="I640" r:id="rId269" xr:uid="{5C1CCE1F-BDA7-40F8-96F7-8797619E4F81}"/>
-    <hyperlink ref="I641" r:id="rId270" xr:uid="{0AEFEF29-86E5-4572-A7C0-A8AFFC973009}"/>
-    <hyperlink ref="I642" r:id="rId271" xr:uid="{D3824D3C-3D7C-4324-AE36-84A41005C0D7}"/>
-    <hyperlink ref="I643" r:id="rId272" xr:uid="{0B75AE72-6DDE-43A6-B806-7F055FCFA843}"/>
-    <hyperlink ref="I644" r:id="rId273" xr:uid="{C92F514F-B38F-42A3-91A9-3C2F633CE978}"/>
-    <hyperlink ref="I645" r:id="rId274" xr:uid="{2C0D8640-4A54-4F64-8B95-CAA79A93922B}"/>
-    <hyperlink ref="I646" r:id="rId275" xr:uid="{4BE8AEED-6892-4ADA-9012-E6C11EDA4BA5}"/>
-    <hyperlink ref="I647" r:id="rId276" xr:uid="{18C02DDE-9972-4500-8089-9896604E02D8}"/>
-    <hyperlink ref="I648" r:id="rId277" xr:uid="{582FDF4E-6A90-4B1B-833C-DC5839F51A78}"/>
-    <hyperlink ref="I649" r:id="rId278" xr:uid="{A45CFA0C-1839-4C4C-964C-5FAF45D835D9}"/>
-    <hyperlink ref="I650" r:id="rId279" xr:uid="{BFA3C0C5-CDFF-4C42-9FB5-86F1DFEBC9C4}"/>
-    <hyperlink ref="I651" r:id="rId280" xr:uid="{01E6A670-01DB-442F-B55F-1A0500B69233}"/>
-    <hyperlink ref="I658" r:id="rId281" xr:uid="{BA88B04F-D834-4EC8-9C91-DC74A790095B}"/>
-    <hyperlink ref="I659" r:id="rId282" xr:uid="{02018169-B5A8-411F-A03D-8635C7CD15D4}"/>
-    <hyperlink ref="I660" r:id="rId283" xr:uid="{8E7D1425-FDF0-496C-B708-0F4E7C000F1C}"/>
-    <hyperlink ref="I661" r:id="rId284" xr:uid="{26890D1B-0182-49C6-BCC2-A66064E84081}"/>
-    <hyperlink ref="I662" r:id="rId285" xr:uid="{11C25E82-4CAA-4238-9A90-9549D054C3F0}"/>
-    <hyperlink ref="I663" r:id="rId286" xr:uid="{D029E00F-4369-40AD-8C90-5C31E7F70A8C}"/>
-    <hyperlink ref="I664" r:id="rId287" xr:uid="{49C8772D-7221-4551-80BE-59ACFFD37E2F}"/>
-    <hyperlink ref="I665" r:id="rId288" xr:uid="{6F451E79-9B9B-487D-A13D-164E96DCD113}"/>
-    <hyperlink ref="I666" r:id="rId289" xr:uid="{0D9D32BD-4F9E-432B-9C95-7D1A9568F8C0}"/>
-    <hyperlink ref="I667" r:id="rId290" xr:uid="{9078E4F2-EAAE-4690-A705-DFEA674C7C0B}"/>
-    <hyperlink ref="I668" r:id="rId291" xr:uid="{2D30FEEC-E133-48D2-BF1B-516CB8EC0B9B}"/>
-    <hyperlink ref="I669" r:id="rId292" xr:uid="{3DE447D3-AB38-4469-AD2A-77B6414073CD}"/>
+    <hyperlink ref="I455" r:id="rId112" xr:uid="{E57534F3-8675-49EC-B4D9-B4DF05FD5ACC}"/>
+    <hyperlink ref="I456" r:id="rId113" xr:uid="{D4782F11-A756-4C05-9A84-78A9D34E1D8C}"/>
+    <hyperlink ref="I457" r:id="rId114" xr:uid="{64C539A5-65D4-42F8-8524-1DB0772A14EA}"/>
+    <hyperlink ref="I458" r:id="rId115" xr:uid="{39814054-047B-494E-8FA7-87A59BF2EB8B}"/>
+    <hyperlink ref="I459" r:id="rId116" xr:uid="{42D28960-9233-4200-AA10-F174261AECE9}"/>
+    <hyperlink ref="I460" r:id="rId117" xr:uid="{7F0300BD-6705-4937-A435-3317D37F0848}"/>
+    <hyperlink ref="I461" r:id="rId118" xr:uid="{4DD86046-1A96-4A26-8F08-87CE1B7FDC7C}"/>
+    <hyperlink ref="I462" r:id="rId119" xr:uid="{2F697AA3-67F4-47AB-978F-7EBE91A41035}"/>
+    <hyperlink ref="I463" r:id="rId120" xr:uid="{4E611510-8619-4E34-8717-2D3E067084A7}"/>
+    <hyperlink ref="I464" r:id="rId121" xr:uid="{FE5A000C-D050-4CD3-9092-91F82E6AAAAF}"/>
+    <hyperlink ref="I465" r:id="rId122" xr:uid="{42E09971-57C9-4BE8-9224-F299957E58E2}"/>
+    <hyperlink ref="I466" r:id="rId123" xr:uid="{12DC5235-7714-44CA-9551-684AED9526EC}"/>
+    <hyperlink ref="I467" r:id="rId124" xr:uid="{0790E0AF-1DDA-4C38-B3B9-913097F809A8}"/>
+    <hyperlink ref="I468" r:id="rId125" xr:uid="{20DD2EE8-E561-4F49-9B96-443A435C338E}"/>
+    <hyperlink ref="I469" r:id="rId126" xr:uid="{EB52FB7B-CEB7-45B9-9277-024C11A85393}"/>
+    <hyperlink ref="I472" r:id="rId127" xr:uid="{6D3CE3B5-0F73-4B4F-AA9E-BE5BB84D5687}"/>
+    <hyperlink ref="I473" r:id="rId128" xr:uid="{F729E749-CCDA-4733-8442-991C55414FBC}"/>
+    <hyperlink ref="I474" r:id="rId129" xr:uid="{A1F5E0AE-3CF0-4555-BE22-69714A3A7D19}"/>
+    <hyperlink ref="I475" r:id="rId130" xr:uid="{DC1F115A-AD5E-4FE6-BBD3-83F49264D121}"/>
+    <hyperlink ref="I476" r:id="rId131" xr:uid="{10EBF065-5D3E-4E7C-A9BA-BCEE1EB1B69D}"/>
+    <hyperlink ref="I477" r:id="rId132" xr:uid="{C6837505-98D7-43A2-B633-71983EDCC499}"/>
+    <hyperlink ref="I478" r:id="rId133" xr:uid="{590DA005-1AD5-4C6C-84C9-C378C15F6BBF}"/>
+    <hyperlink ref="I479" r:id="rId134" xr:uid="{616B9F93-95EB-4465-A4E4-DBD7437CDABC}"/>
+    <hyperlink ref="I480" r:id="rId135" xr:uid="{78DCF1CA-A77A-4552-8593-690A31CD94EF}"/>
+    <hyperlink ref="I481" r:id="rId136" xr:uid="{647DC45E-8269-4A84-9609-BE8E66983FE4}"/>
+    <hyperlink ref="I482" r:id="rId137" xr:uid="{D95FBE5E-3868-4A87-B941-382AAB2B9B4A}"/>
+    <hyperlink ref="I483" r:id="rId138" xr:uid="{2142ECBC-8939-4499-839A-E025CD14019E}"/>
+    <hyperlink ref="I484" r:id="rId139" xr:uid="{34C8BD60-18F9-4625-B02B-38FDF972BDD2}"/>
+    <hyperlink ref="I485" r:id="rId140" xr:uid="{6B946A10-3755-4301-BC9A-C417C5410B17}"/>
+    <hyperlink ref="I486" r:id="rId141" xr:uid="{3CBAA56F-3AB5-4FF6-80B9-0050E7861982}"/>
+    <hyperlink ref="I487" r:id="rId142" xr:uid="{F8F5AB69-0688-4103-80B4-7C80476B6313}"/>
+    <hyperlink ref="I488" r:id="rId143" xr:uid="{3FE86769-7149-4E2D-BD57-367525D7CED8}"/>
+    <hyperlink ref="I489" r:id="rId144" xr:uid="{720D4829-A2A8-4F73-847F-89522B532687}"/>
+    <hyperlink ref="I490" r:id="rId145" xr:uid="{E70593E2-F514-47EC-9E54-580C3157BC06}"/>
+    <hyperlink ref="I491" r:id="rId146" xr:uid="{511B480D-F869-44DA-9F6B-E2BF776FE0EC}"/>
+    <hyperlink ref="I492" r:id="rId147" xr:uid="{7D62AB56-D204-4E42-B5E5-05BD6AD7EF71}"/>
+    <hyperlink ref="I493" r:id="rId148" xr:uid="{F1118CE2-8390-41C4-B515-A1122021DCA8}"/>
+    <hyperlink ref="I494" r:id="rId149" xr:uid="{D2BB3433-8F9C-4867-A903-56DBC7ECEE53}"/>
+    <hyperlink ref="I495" r:id="rId150" xr:uid="{9E189730-2343-4C89-B778-D45D06C70D85}"/>
+    <hyperlink ref="I496" r:id="rId151" xr:uid="{73A3BC7D-8BA8-499F-B092-99E2D301DDCE}"/>
+    <hyperlink ref="I497" r:id="rId152" xr:uid="{DD8B9DC5-B2AC-4BF3-A5DB-6F4B9E67F9F1}"/>
+    <hyperlink ref="I498" r:id="rId153" xr:uid="{AF2F08C3-872F-4264-AC5C-E0686A4A09B8}"/>
+    <hyperlink ref="I499" r:id="rId154" xr:uid="{31F00631-2D5F-4E18-838A-3E34ACDFFCBD}"/>
+    <hyperlink ref="I504" r:id="rId155" xr:uid="{EB5CADFE-FCDE-4AC2-8875-CD1CB7365269}"/>
+    <hyperlink ref="I505" r:id="rId156" xr:uid="{E384B807-4005-4DD0-A648-BD42C7171404}"/>
+    <hyperlink ref="I500" r:id="rId157" xr:uid="{B0237433-E88C-4EF7-AF78-819D4CFC66E6}"/>
+    <hyperlink ref="I501" r:id="rId158" xr:uid="{6D2F00EC-1C69-47E2-82C5-564B165E39A9}"/>
+    <hyperlink ref="I502" r:id="rId159" xr:uid="{F17D8F02-3554-46C2-8BF8-DEE7A32EC23E}"/>
+    <hyperlink ref="I503" r:id="rId160" xr:uid="{E95D6330-C2A6-43DF-A0CA-067670340F20}"/>
+    <hyperlink ref="I506" r:id="rId161" xr:uid="{AC7D7209-AE5B-4BEE-82B0-A945732D970C}"/>
+    <hyperlink ref="I507" r:id="rId162" xr:uid="{447FC9C2-BC7C-47D5-A230-EDCC09C6D5B3}"/>
+    <hyperlink ref="I508" r:id="rId163" xr:uid="{5037CDCE-9ABC-43A5-B0A0-4BC486B98196}"/>
+    <hyperlink ref="I509" r:id="rId164" xr:uid="{FFEBCE4D-B525-453D-8B07-11D7F8ECC1A2}"/>
+    <hyperlink ref="I510" r:id="rId165" xr:uid="{983B662E-75ED-47EE-95A9-7980B10B166A}"/>
+    <hyperlink ref="I511" r:id="rId166" xr:uid="{79299F45-F74E-4F84-8F05-E393986B6BEC}"/>
+    <hyperlink ref="I512" r:id="rId167" xr:uid="{6EB83963-7DE5-409B-AC50-1AFAFAD40380}"/>
+    <hyperlink ref="I513" r:id="rId168" xr:uid="{E7B82B90-C6E0-4AD8-BC92-8D7457B49385}"/>
+    <hyperlink ref="I514" r:id="rId169" xr:uid="{6BE58DA9-4DF4-4E7D-9D5F-DCE40BC8A9C8}"/>
+    <hyperlink ref="I515" r:id="rId170" xr:uid="{587879EF-304A-4E8E-AA15-0D87CCE577C0}"/>
+    <hyperlink ref="I516" r:id="rId171" xr:uid="{163F064C-854E-41AE-B4FD-AC44EE146653}"/>
+    <hyperlink ref="I517" r:id="rId172" xr:uid="{7AA0D6BD-6549-4717-BD65-FFBA7D61466C}"/>
+    <hyperlink ref="I518" r:id="rId173" xr:uid="{4B543107-1C66-4AFC-84D7-B693C3138E28}"/>
+    <hyperlink ref="I519" r:id="rId174" xr:uid="{D2218029-2CE7-47B3-B9C9-2345B0753E3B}"/>
+    <hyperlink ref="I520" r:id="rId175" xr:uid="{BFFBBFC9-F1B1-4B95-805D-18D7D7AE5F54}"/>
+    <hyperlink ref="I521" r:id="rId176" xr:uid="{594F7E9C-431C-46AC-8531-EB319D68AF4A}"/>
+    <hyperlink ref="I522" r:id="rId177" xr:uid="{7C549631-F04B-4DFB-9947-9415C1D4C8B9}"/>
+    <hyperlink ref="I523" r:id="rId178" xr:uid="{436C7CA9-AB3D-450B-A23F-62D223FFA25A}"/>
+    <hyperlink ref="I524" r:id="rId179" xr:uid="{47A7878E-78BA-474D-9902-EB70F764AED5}"/>
+    <hyperlink ref="I525" r:id="rId180" xr:uid="{A9AEBCB0-7928-45C0-916D-FB887BFC0641}"/>
+    <hyperlink ref="I526" r:id="rId181" xr:uid="{04B9D8DC-8241-4771-846E-B22E71CB1F66}"/>
+    <hyperlink ref="I527" r:id="rId182" xr:uid="{7ED7CFE3-52E7-4199-A00D-E128D398C5AF}"/>
+    <hyperlink ref="I534" r:id="rId183" xr:uid="{3120F9FA-479F-489B-8E38-2DB7B76A94E6}"/>
+    <hyperlink ref="I535" r:id="rId184" xr:uid="{C857FBC6-5CB2-4BA7-B2B3-FF57BCEC759D}"/>
+    <hyperlink ref="I536" r:id="rId185" xr:uid="{397F1298-9AED-40D5-8881-93DC82DF5691}"/>
+    <hyperlink ref="I537" r:id="rId186" xr:uid="{0BB4606F-4199-482D-8108-F54695F52193}"/>
+    <hyperlink ref="I538" r:id="rId187" xr:uid="{07F8DA0B-E487-40F1-B99B-DFA1D1904266}"/>
+    <hyperlink ref="I539" r:id="rId188" xr:uid="{70C2C236-F0C1-4802-9AF0-07E27A43F8D3}"/>
+    <hyperlink ref="I540" r:id="rId189" xr:uid="{C0F794C1-1640-4B78-81F2-2B29BC4CE44C}"/>
+    <hyperlink ref="I541" r:id="rId190" xr:uid="{65A01196-50A1-47C4-9C39-7F2F12730EA0}"/>
+    <hyperlink ref="I548" r:id="rId191" xr:uid="{899E1E55-084F-4A9B-98B1-0168D2742402}"/>
+    <hyperlink ref="I549" r:id="rId192" xr:uid="{EAF7EA60-ADB2-4086-A373-74DAD8733C0B}"/>
+    <hyperlink ref="I542" r:id="rId193" xr:uid="{DC892718-CBA5-495A-9E61-A696FE1C4655}"/>
+    <hyperlink ref="I543" r:id="rId194" xr:uid="{2AE29E77-124E-4F4E-B476-A103CCC34A55}"/>
+    <hyperlink ref="I544" r:id="rId195" xr:uid="{8A79FDC3-9BBF-4717-B34D-4351C1369681}"/>
+    <hyperlink ref="I545" r:id="rId196" xr:uid="{A1833425-9BEB-4D96-BD27-FD3BB3F03BCA}"/>
+    <hyperlink ref="I546" r:id="rId197" xr:uid="{9A4A2826-29DA-47C7-AFF3-819D5E01EB6B}"/>
+    <hyperlink ref="I547" r:id="rId198" xr:uid="{8185DED1-AD53-4081-A416-4DDE38C1E4AA}"/>
+    <hyperlink ref="I560" r:id="rId199" xr:uid="{2362549F-E430-47C4-A6B3-D876DF646126}"/>
+    <hyperlink ref="I561" r:id="rId200" xr:uid="{8ACF45E9-185A-429B-A824-926E4EFF517A}"/>
+    <hyperlink ref="I562" r:id="rId201" xr:uid="{F3B4C5F3-8122-43A4-8991-1D493A0300D0}"/>
+    <hyperlink ref="I563" r:id="rId202" xr:uid="{BA870F36-9302-41BD-8AA2-C67ABC73875C}"/>
+    <hyperlink ref="I564" r:id="rId203" xr:uid="{BE468DFD-D467-4638-88C8-34D23A2A1A93}"/>
+    <hyperlink ref="I565" r:id="rId204" xr:uid="{C1F7EBC2-8450-4C60-8B34-E7AAE21DE5F2}"/>
+    <hyperlink ref="I566" r:id="rId205" xr:uid="{B7861AEF-D3C1-4482-93CC-70CADC7668A8}"/>
+    <hyperlink ref="I567" r:id="rId206" xr:uid="{C3FE18FC-521F-4351-9039-EA1391214857}"/>
+    <hyperlink ref="I568" r:id="rId207" xr:uid="{D7CAD03B-4986-4C6A-95D5-C64BB8D3955E}"/>
+    <hyperlink ref="I569" r:id="rId208" xr:uid="{D45FA6A8-F1BF-4A97-9CD1-7D2474AB2AD9}"/>
+    <hyperlink ref="I570" r:id="rId209" xr:uid="{599834D3-2592-4718-B112-73B7D1E2BB49}"/>
+    <hyperlink ref="I571" r:id="rId210" xr:uid="{9434BFBB-FAA5-43B0-BBB3-F7B6247CA037}"/>
+    <hyperlink ref="I572" r:id="rId211" xr:uid="{7A00DF69-3B11-41FD-B2CA-A6BE41AA92DE}"/>
+    <hyperlink ref="I573" r:id="rId212" xr:uid="{983A4431-3C3D-4AC8-86B8-42ADAF7280A3}"/>
+    <hyperlink ref="I574" r:id="rId213" xr:uid="{082B82DB-E175-4EE6-9B1A-AD3A91277C96}"/>
+    <hyperlink ref="I575" r:id="rId214" xr:uid="{81275D46-E11F-4262-867C-ADEBEC251926}"/>
+    <hyperlink ref="I576" r:id="rId215" xr:uid="{79F41521-2D68-48FD-B951-622842863BA7}"/>
+    <hyperlink ref="I577" r:id="rId216" xr:uid="{C14F3F22-FECF-4172-AC22-E86142E51CFD}"/>
+    <hyperlink ref="I578" r:id="rId217" xr:uid="{017B6E24-4E25-4CF7-87E6-60391F062C75}"/>
+    <hyperlink ref="I579" r:id="rId218" xr:uid="{EB8ACCD5-8008-4BEA-BD70-7AD4F28D6D30}"/>
+    <hyperlink ref="I580" r:id="rId219" xr:uid="{1B7BFA4B-4EC4-4567-B264-4048986F5083}"/>
+    <hyperlink ref="I581" r:id="rId220" xr:uid="{520CE8E9-7D5D-42CE-8665-618F1C585C8B}"/>
+    <hyperlink ref="I582" r:id="rId221" xr:uid="{8656C212-30CD-48DD-9C44-12DE5E9BB315}"/>
+    <hyperlink ref="I583" r:id="rId222" xr:uid="{FF7B612E-6CA9-465B-851B-44BD4189D881}"/>
+    <hyperlink ref="I584" r:id="rId223" xr:uid="{0397BE64-81D4-46DE-BF26-0F4C92469490}"/>
+    <hyperlink ref="I585" r:id="rId224" xr:uid="{9279D161-E253-439E-B271-5A926D092185}"/>
+    <hyperlink ref="I586" r:id="rId225" xr:uid="{EE535E3E-10AD-4AF7-B4F9-753A7FAC8074}"/>
+    <hyperlink ref="I587" r:id="rId226" xr:uid="{C1F652FE-3A1D-4435-A408-CC644A9585AE}"/>
+    <hyperlink ref="I588" r:id="rId227" xr:uid="{40628F0C-0A63-47FB-9C4D-C5DD37DEF6C5}"/>
+    <hyperlink ref="I589" r:id="rId228" xr:uid="{B8F09FCE-4650-4B5D-B592-B4ACAFDB831F}"/>
+    <hyperlink ref="I590" r:id="rId229" xr:uid="{1C5C86A5-A4E9-4A98-9493-62E3A763889B}"/>
+    <hyperlink ref="I591" r:id="rId230" xr:uid="{F9BD10AD-D4F7-43CD-88FE-12F9EE7E17DC}"/>
+    <hyperlink ref="I592" r:id="rId231" xr:uid="{CED36457-0FAF-495D-AF96-9C1CB1CD6525}"/>
+    <hyperlink ref="I593" r:id="rId232" xr:uid="{DE3ACC8E-286F-48F4-B6F0-8F2F2DD9BB8B}"/>
+    <hyperlink ref="I594" r:id="rId233" xr:uid="{DADBFDFF-C7EC-4391-948A-A5DC63CEDC45}"/>
+    <hyperlink ref="I595" r:id="rId234" xr:uid="{C668E0D4-D809-4DB3-AC20-2329EA77C11E}"/>
+    <hyperlink ref="I596" r:id="rId235" xr:uid="{C8F177B9-7D52-4EEA-A403-A61E743BEC91}"/>
+    <hyperlink ref="I597" r:id="rId236" xr:uid="{8CBBA068-6264-4E3D-AF63-DC1C56BCAD7D}"/>
+    <hyperlink ref="I598" r:id="rId237" xr:uid="{88FA8FC9-57B7-4223-873A-0193AB0C3F81}"/>
+    <hyperlink ref="I599" r:id="rId238" xr:uid="{94A69901-CA96-449E-A322-A626A573EF3F}"/>
+    <hyperlink ref="I600" r:id="rId239" xr:uid="{14DCDBCE-5665-452E-9236-3B7F4A573FBB}"/>
+    <hyperlink ref="I601" r:id="rId240" xr:uid="{78D8E9D5-562F-4B3B-9F19-6F54E83F493B}"/>
+    <hyperlink ref="I602" r:id="rId241" xr:uid="{759F1DD9-B679-4050-8E0B-ABBFC9ED00AF}"/>
+    <hyperlink ref="I603" r:id="rId242" xr:uid="{9FFAD29F-9FF4-41C6-9A14-4FC050ABBD87}"/>
+    <hyperlink ref="I604" r:id="rId243" xr:uid="{4792719A-783F-4DAD-BEC2-BF8D371F50D0}"/>
+    <hyperlink ref="I605" r:id="rId244" xr:uid="{4B820E34-849F-4F0D-8EDD-411D059A4B13}"/>
+    <hyperlink ref="I606" r:id="rId245" xr:uid="{310388BA-0D31-43A6-868E-36DCAA4D1A39}"/>
+    <hyperlink ref="I607" r:id="rId246" xr:uid="{32EF2819-3B3E-441B-A2FA-22F925D69B1C}"/>
+    <hyperlink ref="I614" r:id="rId247" xr:uid="{A8941542-CC03-4523-9803-3940875B0C98}"/>
+    <hyperlink ref="I615" r:id="rId248" xr:uid="{60F213A1-A661-4593-8B61-58879F4813D2}"/>
+    <hyperlink ref="I616" r:id="rId249" xr:uid="{68A1E877-3424-4074-AACE-4828927CAB3F}"/>
+    <hyperlink ref="I617" r:id="rId250" xr:uid="{DDBDBC28-23BF-4AB1-9B91-F6FBCFFDB0B5}"/>
+    <hyperlink ref="I618" r:id="rId251" xr:uid="{DB3EDF6B-36C9-48F6-BB58-556B703A2A2C}"/>
+    <hyperlink ref="I619" r:id="rId252" xr:uid="{D6A4F66E-4F58-4AE3-9387-80B68C9FDC46}"/>
+    <hyperlink ref="I620" r:id="rId253" xr:uid="{10714EDA-85BA-4833-8D40-FA845BC41784}"/>
+    <hyperlink ref="I621" r:id="rId254" xr:uid="{ABF5D4B0-3A82-43F0-8B41-E98C75B5A627}"/>
+    <hyperlink ref="I622" r:id="rId255" xr:uid="{195CD478-4573-4B59-AAEB-F8E6143405BE}"/>
+    <hyperlink ref="I623" r:id="rId256" xr:uid="{BD5214CF-4848-42F2-AAEA-C87F9CCE5D0B}"/>
+    <hyperlink ref="I624" r:id="rId257" xr:uid="{A42AD275-CCAD-4A0D-A58F-FA75FBE6C357}"/>
+    <hyperlink ref="I627" r:id="rId258" xr:uid="{568B27BB-79F4-41CD-8E6A-C421336A6A59}"/>
+    <hyperlink ref="I625" r:id="rId259" xr:uid="{3DCFF98C-B1A6-4592-9D34-964B80E39C7F}"/>
+    <hyperlink ref="I626" r:id="rId260" xr:uid="{EE2D562C-3D89-493F-A5F2-3B4E787BA2E9}"/>
+    <hyperlink ref="I628" r:id="rId261" xr:uid="{7FCD2921-759C-4129-9BC3-0986D7D4DB78}"/>
+    <hyperlink ref="I629" r:id="rId262" xr:uid="{4D4C2D5B-76C7-415A-8B71-B9F6D06E4A7E}"/>
+    <hyperlink ref="I630" r:id="rId263" xr:uid="{B75EA0F1-9F71-4DD1-91DE-B0700EAC5038}"/>
+    <hyperlink ref="I631" r:id="rId264" xr:uid="{5D8D5228-3088-496E-AB9D-4010E9BE9934}"/>
+    <hyperlink ref="I632" r:id="rId265" xr:uid="{F56C6B2B-CA02-44D5-A946-C55CF5DCBB5F}"/>
+    <hyperlink ref="I633" r:id="rId266" xr:uid="{DCF2CD17-BC35-471B-8A21-9921C84CE2AD}"/>
+    <hyperlink ref="I636" r:id="rId267" xr:uid="{8D588179-3CB1-408A-BEBB-782B16C0683B}"/>
+    <hyperlink ref="I637" r:id="rId268" xr:uid="{6433C22F-C55A-4035-B362-8D7336868B3B}"/>
+    <hyperlink ref="I642" r:id="rId269" xr:uid="{5C1CCE1F-BDA7-40F8-96F7-8797619E4F81}"/>
+    <hyperlink ref="I643" r:id="rId270" xr:uid="{0AEFEF29-86E5-4572-A7C0-A8AFFC973009}"/>
+    <hyperlink ref="I644" r:id="rId271" xr:uid="{D3824D3C-3D7C-4324-AE36-84A41005C0D7}"/>
+    <hyperlink ref="I645" r:id="rId272" xr:uid="{0B75AE72-6DDE-43A6-B806-7F055FCFA843}"/>
+    <hyperlink ref="I646" r:id="rId273" xr:uid="{C92F514F-B38F-42A3-91A9-3C2F633CE978}"/>
+    <hyperlink ref="I647" r:id="rId274" xr:uid="{2C0D8640-4A54-4F64-8B95-CAA79A93922B}"/>
+    <hyperlink ref="I648" r:id="rId275" xr:uid="{4BE8AEED-6892-4ADA-9012-E6C11EDA4BA5}"/>
+    <hyperlink ref="I649" r:id="rId276" xr:uid="{18C02DDE-9972-4500-8089-9896604E02D8}"/>
+    <hyperlink ref="I650" r:id="rId277" xr:uid="{582FDF4E-6A90-4B1B-833C-DC5839F51A78}"/>
+    <hyperlink ref="I651" r:id="rId278" xr:uid="{A45CFA0C-1839-4C4C-964C-5FAF45D835D9}"/>
+    <hyperlink ref="I652" r:id="rId279" xr:uid="{BFA3C0C5-CDFF-4C42-9FB5-86F1DFEBC9C4}"/>
+    <hyperlink ref="I653" r:id="rId280" xr:uid="{01E6A670-01DB-442F-B55F-1A0500B69233}"/>
+    <hyperlink ref="I660" r:id="rId281" xr:uid="{BA88B04F-D834-4EC8-9C91-DC74A790095B}"/>
+    <hyperlink ref="I661" r:id="rId282" xr:uid="{02018169-B5A8-411F-A03D-8635C7CD15D4}"/>
+    <hyperlink ref="I662" r:id="rId283" xr:uid="{8E7D1425-FDF0-496C-B708-0F4E7C000F1C}"/>
+    <hyperlink ref="I663" r:id="rId284" xr:uid="{26890D1B-0182-49C6-BCC2-A66064E84081}"/>
+    <hyperlink ref="I664" r:id="rId285" xr:uid="{11C25E82-4CAA-4238-9A90-9549D054C3F0}"/>
+    <hyperlink ref="I665" r:id="rId286" xr:uid="{D029E00F-4369-40AD-8C90-5C31E7F70A8C}"/>
+    <hyperlink ref="I666" r:id="rId287" xr:uid="{49C8772D-7221-4551-80BE-59ACFFD37E2F}"/>
+    <hyperlink ref="I667" r:id="rId288" xr:uid="{6F451E79-9B9B-487D-A13D-164E96DCD113}"/>
+    <hyperlink ref="I668" r:id="rId289" xr:uid="{0D9D32BD-4F9E-432B-9C95-7D1A9568F8C0}"/>
+    <hyperlink ref="I669" r:id="rId290" xr:uid="{9078E4F2-EAAE-4690-A705-DFEA674C7C0B}"/>
+    <hyperlink ref="I670" r:id="rId291" xr:uid="{2D30FEEC-E133-48D2-BF1B-516CB8EC0B9B}"/>
+    <hyperlink ref="I671" r:id="rId292" xr:uid="{3DE447D3-AB38-4469-AD2A-77B6414073CD}"/>
     <hyperlink ref="I323" r:id="rId293" xr:uid="{02C0E71C-59C7-4644-A45A-F58D549A69FE}"/>
     <hyperlink ref="I324" r:id="rId294" xr:uid="{36AAA43F-156C-49A0-9E7A-0B8CDE236BA0}"/>
     <hyperlink ref="I321" r:id="rId295" xr:uid="{D6EE1D1D-DB82-4246-B5FD-C25A326E1028}"/>
@@ -28017,10 +28087,10 @@
     <hyperlink ref="I441" r:id="rId323" xr:uid="{803CE2FF-2BA1-44CB-84BC-D3D927B89BA5}"/>
     <hyperlink ref="I442" r:id="rId324" xr:uid="{16A483AB-3FDE-4D98-A78C-2AD38FF48EE3}"/>
     <hyperlink ref="I443" r:id="rId325" xr:uid="{D23DDBC2-1537-406C-9822-039C092659D9}"/>
-    <hyperlink ref="I468" r:id="rId326" xr:uid="{9F0231A6-E301-46AA-9058-7BC22AE781E4}"/>
-    <hyperlink ref="I469" r:id="rId327" xr:uid="{B0B228E9-7495-42A5-A88D-BAAF37DD7D8C}"/>
-    <hyperlink ref="I632" r:id="rId328" xr:uid="{4F3C6877-C49C-4A01-A303-EDCFEF2382D5}"/>
-    <hyperlink ref="I633" r:id="rId329" xr:uid="{2CC45896-63FA-4C27-9CCC-A8E70B0E6FE4}"/>
+    <hyperlink ref="I470" r:id="rId326" xr:uid="{9F0231A6-E301-46AA-9058-7BC22AE781E4}"/>
+    <hyperlink ref="I471" r:id="rId327" xr:uid="{B0B228E9-7495-42A5-A88D-BAAF37DD7D8C}"/>
+    <hyperlink ref="I634" r:id="rId328" xr:uid="{4F3C6877-C49C-4A01-A303-EDCFEF2382D5}"/>
+    <hyperlink ref="I635" r:id="rId329" xr:uid="{2CC45896-63FA-4C27-9CCC-A8E70B0E6FE4}"/>
     <hyperlink ref="I178" r:id="rId330" xr:uid="{6451EE36-8746-4BD8-AA46-432C3004C2F2}"/>
     <hyperlink ref="I179" r:id="rId331" xr:uid="{04E8E61F-9DD0-42B4-8638-27B9C6146B06}"/>
     <hyperlink ref="I4" r:id="rId332" xr:uid="{2FCE4BFD-C01D-4EBD-9C45-6DCCCABDEE6F}"/>
@@ -28277,6 +28347,8 @@
     <hyperlink ref="I287" r:id="rId583" xr:uid="{9CFB5C16-8F47-43D5-9E18-BD9DC930F92C}"/>
     <hyperlink ref="I289" r:id="rId584" xr:uid="{58EDC96F-689E-49D7-87F9-329762D3AF4D}"/>
     <hyperlink ref="I319" r:id="rId585" xr:uid="{EAE945D8-1CE5-4353-BFDA-952D907D1773}"/>
+    <hyperlink ref="I453" r:id="rId586" xr:uid="{9E295DEB-293D-4C24-A8A9-1D2E2430D0E3}"/>
+    <hyperlink ref="I454" r:id="rId587" xr:uid="{18E488CD-D4B1-4123-B5AE-D1C0532A7C50}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -28286,8 +28358,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AC6B6107-392A-4345-A683-F698694E5603}">
   <dimension ref="A1:I154"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G16" sqref="G16"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C18" sqref="C18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
